--- a/Final Report/Figures & Tables/p2h- p-H tables.xlsx
+++ b/Final Report/Figures & Tables/p2h- p-H tables.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="661" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="661" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="HP Calculations" sheetId="1" r:id="rId1"/>
     <sheet name="p-H cycle table" sheetId="2" r:id="rId2"/>
-    <sheet name="photo" sheetId="3" r:id="rId3"/>
-    <sheet name="COPat50 vs. Teva" sheetId="10" r:id="rId4"/>
-    <sheet name="COPat70 vs. Teva" sheetId="4" r:id="rId5"/>
-    <sheet name="P2H Models" sheetId="9" r:id="rId6"/>
-    <sheet name="Boiler" sheetId="5" r:id="rId7"/>
-    <sheet name="Tamb" sheetId="6" r:id="rId8"/>
-    <sheet name="Demand" sheetId="7" r:id="rId9"/>
-    <sheet name="Flexibility Deployment" sheetId="8" r:id="rId10"/>
-    <sheet name="Storage" sheetId="11" r:id="rId11"/>
+    <sheet name="COPat50 vs. Teva" sheetId="10" r:id="rId3"/>
+    <sheet name="COPat70 vs. Teva" sheetId="4" r:id="rId4"/>
+    <sheet name="P2H Models" sheetId="9" r:id="rId5"/>
+    <sheet name="Boiler" sheetId="5" r:id="rId6"/>
+    <sheet name="Tamb" sheetId="6" r:id="rId7"/>
+    <sheet name="Demand" sheetId="7" r:id="rId8"/>
+    <sheet name="Flexibility Deployment" sheetId="8" r:id="rId9"/>
+    <sheet name="Storage" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -921,11 +920,11 @@
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0000_ ;\-0.0000\ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1548,6 +1547,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1623,53 +1667,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1730,6 +1729,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1886,11 +1886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201586176"/>
-        <c:axId val="201228864"/>
+        <c:axId val="188889600"/>
+        <c:axId val="145161536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201586176"/>
+        <c:axId val="188889600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,13 +1931,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201228864"/>
+        <c:crossAx val="145161536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1945,7 +1946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201228864"/>
+        <c:axId val="145161536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,13 +1969,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201586176"/>
+        <c:crossAx val="188889600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2584,421 +2586,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>16772</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Resim 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="259080" y="99060"/>
-          <a:ext cx="11102340" cy="7415792"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>305463</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15493</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>570506</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>147469</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Metin kutusu 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5182263" y="4953253"/>
-          <a:ext cx="265043" cy="497736"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="tr-TR" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="2800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>265706</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38958</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>597010</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>151056</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Metin kutusu 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6361706" y="4793838"/>
-          <a:ext cx="331304" cy="477858"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="tr-TR" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="2400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>86803</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>391603</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>128916</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Metin kutusu 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8621203" y="1778968"/>
-          <a:ext cx="304800" cy="544508"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="tr-TR" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="2400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>550628</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>110132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>26097</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Metin kutusu 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7256228" y="1573172"/>
-          <a:ext cx="318052" cy="464605"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="tr-TR" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="2400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>351846</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>176391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>27168</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182471</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Metin kutusu 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5228646" y="1639431"/>
-          <a:ext cx="284922" cy="371840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="tr-TR" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="2400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -3032,7 +2619,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3147,7 +2734,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3544,22 +3131,22 @@
   <sheetData>
     <row r="2" spans="2:31" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -3617,16 +3204,16 @@
       <c r="S3" s="13">
         <v>44</v>
       </c>
-      <c r="T3" s="87" t="s">
+      <c r="T3" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="X3" s="87" t="s">
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="X3" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -4106,10 +3693,10 @@
       <c r="S15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T15" s="89" t="s">
+      <c r="T15" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="90"/>
+      <c r="U15" s="107"/>
       <c r="W15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4340,18 +3927,18 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
@@ -4365,16 +3952,16 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
@@ -4383,15 +3970,15 @@
       <c r="V24" s="14"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="86"/>
+      <c r="F28" s="103"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
@@ -5573,374 +5160,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="50"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="84"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D9" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="2">
-        <v>99</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D22">
-        <f>(((200+8)/(20))+16.6)/0.78</f>
-        <v>34.615384615384613</v>
-      </c>
-      <c r="E22">
-        <f>(((956+33.5)/(20))+92.28)/6</f>
-        <v>23.625833333333333</v>
-      </c>
-      <c r="F22">
-        <f>(70+1.4)/(15*0.99)</f>
-        <v>4.8080808080808088</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="K24">
-        <v>4.6111111111111101E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="88"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="K26">
-        <v>1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="F27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28">
-        <v>42.4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30">
-        <v>62.28</v>
-      </c>
-      <c r="F30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E31">
-        <f>86000*0.0036*0.2</f>
-        <v>61.919999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F32" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" s="119">
-        <f>16.06/3600</f>
-        <v>4.461111111111111E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="H34">
-        <f>E27/3600</f>
-        <v>4.6111111111111118E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="H35">
-        <f>E30/3600</f>
-        <v>1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D36" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="I36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:F13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -5952,11 +5174,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="90"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="107"/>
       <c r="H3" s="2" t="s">
         <v>59</v>
       </c>
@@ -6028,7 +5250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
@@ -6041,25 +5263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:W27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6209,14 +5416,14 @@
       <c r="D11">
         <v>4.2500819365918225</v>
       </c>
-      <c r="R11" s="91" t="s">
+      <c r="R11" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
@@ -6225,12 +5432,12 @@
       <c r="D12">
         <v>4.6251379790503169</v>
       </c>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
@@ -6239,12 +5446,12 @@
       <c r="D13">
         <v>5.0603733784093174</v>
       </c>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
@@ -6253,12 +5460,12 @@
       <c r="D14">
         <v>5.5749887623152823</v>
       </c>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
@@ -6267,12 +5474,12 @@
       <c r="D15">
         <v>6.1957324370505278</v>
       </c>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
@@ -6281,12 +5488,12 @@
       <c r="D16">
         <v>6.9451962725762089</v>
       </c>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
@@ -6295,12 +5502,12 @@
       <c r="D17">
         <v>7.8660001235441985</v>
       </c>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
@@ -6309,12 +5516,12 @@
       <c r="D18">
         <v>9.0564182829324675</v>
       </c>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C19" s="43">
@@ -6323,12 +5530,12 @@
       <c r="D19">
         <v>10.589931065124823</v>
       </c>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C20" s="43">
@@ -6337,12 +5544,12 @@
       <c r="D20">
         <v>12.711456729847743</v>
       </c>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C21" s="43">
@@ -6351,12 +5558,12 @@
       <c r="D21">
         <v>15.788934815713352</v>
       </c>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C22" s="43">
@@ -6365,12 +5572,12 @@
       <c r="D22">
         <v>20.67530936039222</v>
       </c>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C23" s="43">
@@ -6379,12 +5586,12 @@
       <c r="D23">
         <v>29.32305672286282</v>
       </c>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="105"/>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C24" s="43">
@@ -6393,36 +5600,36 @@
       <c r="D24">
         <v>50.007960634645855</v>
       </c>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6433,12 +5640,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13:U33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6654,18 +5861,18 @@
       <c r="R10" s="11"/>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="S12" s="92" t="s">
+      <c r="S12" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
     </row>
     <row r="13" spans="3:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S13" s="91" t="s">
+      <c r="S13" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D14" s="18" t="s">
@@ -6674,9 +5881,9 @@
       <c r="E14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D15" s="38">
@@ -6685,9 +5892,9 @@
       <c r="E15">
         <v>2.4173893825935386</v>
       </c>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D16" s="38">
@@ -6696,9 +5903,9 @@
       <c r="E16">
         <v>2.5585606187899956</v>
       </c>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="38">
@@ -6707,9 +5914,9 @@
       <c r="E17">
         <v>2.714989004779675</v>
       </c>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="38">
@@ -6718,9 +5925,9 @@
       <c r="E18">
         <v>2.8887404751622192</v>
       </c>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="38">
@@ -6729,9 +5936,9 @@
       <c r="E19">
         <v>3.0836737494638502</v>
       </c>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="38">
@@ -6740,9 +5947,9 @@
       <c r="E20">
         <v>3.3012787711657898</v>
       </c>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
-      <c r="U20" s="91"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D21" s="38">
@@ -6751,9 +5958,9 @@
       <c r="E21">
         <v>3.5476357631295592</v>
       </c>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D22" s="38">
@@ -6762,9 +5969,9 @@
       <c r="E22">
         <v>3.8298917616100274</v>
       </c>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D23" s="38">
@@ -6773,9 +5980,9 @@
       <c r="E23">
         <v>4.1513482556896895</v>
       </c>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
     </row>
     <row r="24" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="38">
@@ -6784,9 +5991,9 @@
       <c r="E24">
         <v>4.5195189330867835</v>
       </c>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D25" s="38">
@@ -6795,9 +6002,9 @@
       <c r="E25">
         <v>4.9559835616884129</v>
       </c>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D26" s="39">
@@ -6806,9 +6013,9 @@
       <c r="E26">
         <v>5.4617938786010338</v>
       </c>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D27" s="39">
@@ -6817,9 +6024,9 @@
       <c r="E27">
         <v>6.0736439444007138</v>
       </c>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D28" s="39">
@@ -6828,9 +6035,9 @@
       <c r="E28">
         <v>6.8177510907046814</v>
       </c>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D29" s="44">
@@ -6839,9 +6046,9 @@
       <c r="E29">
         <v>7.7453975275855589</v>
       </c>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D30" s="44">
@@ -6850,9 +6057,9 @@
       <c r="E30">
         <v>8.9013603675940658</v>
       </c>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D31" s="75">
@@ -6861,19 +6068,19 @@
       <c r="E31">
         <v>10.444560373073895</v>
       </c>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
     </row>
     <row r="33" spans="19:21" x14ac:dyDescent="0.3">
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6886,11 +6093,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -6902,12 +6109,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
@@ -7054,12 +6261,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7103,9 +6310,7 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2">
-        <v>390</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="s">
         <v>52</v>
       </c>
@@ -7117,39 +6322,37 @@
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.3214999999999999</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -7544,11 +6747,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -7582,41 +6785,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -7625,26 +6828,26 @@
       <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="117">
         <v>43503</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="96">
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="113">
         <v>43547</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="96">
+      <c r="G7" s="114"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="113">
         <v>43592</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="96">
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="113">
         <v>43639</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="98"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="115"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="25"/>
     </row>
@@ -7696,7 +6899,7 @@
       <c r="C9" s="27">
         <v>6.8</v>
       </c>
-      <c r="D9" s="112">
+      <c r="D9" s="86">
         <f>0.0031372+(E79*(25-C9))</f>
         <v>3.7860300000000001E-3</v>
       </c>
@@ -7707,8 +6910,8 @@
       <c r="F9" s="27">
         <v>8.6</v>
       </c>
-      <c r="G9" s="114">
-        <f>0.0031372+(E79*(25-F9))</f>
+      <c r="G9" s="88">
+        <f t="shared" ref="G9:G32" si="0">0.0031372+(E79*(25-F9))</f>
         <v>3.72186E-3</v>
       </c>
       <c r="H9" s="27">
@@ -7718,8 +6921,8 @@
       <c r="I9" s="27">
         <v>5.3</v>
       </c>
-      <c r="J9" s="115">
-        <f>0.0031372+(E79*(25-I9))</f>
+      <c r="J9" s="89">
+        <f t="shared" ref="J9:J32" si="1">0.0031372+(E79*(25-I9))</f>
         <v>3.839505E-3</v>
       </c>
       <c r="K9" s="27">
@@ -7729,8 +6932,8 @@
       <c r="L9" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="M9" s="114">
-        <f>0.0031372+(E79*(25-L9))</f>
+      <c r="M9" s="88">
+        <f t="shared" ref="M9:M24" si="2">0.0031372+(E79*(25-L9))</f>
         <v>3.4366600000000002E-3</v>
       </c>
       <c r="N9" s="27">
@@ -7747,45 +6950,45 @@
       <c r="C10" s="29">
         <v>6.9</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="87">
         <f>0.0031372+(E79*(25-C10))</f>
         <v>3.782465E-3</v>
       </c>
       <c r="E10" s="27">
-        <f t="shared" ref="E10:E32" si="0">3+0.1*(25-C10)</f>
+        <f t="shared" ref="E10:E32" si="3">3+0.1*(25-C10)</f>
         <v>4.8100000000000005</v>
       </c>
       <c r="F10" s="29">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G10" s="114">
-        <f>0.0031372+(E80*(25-F10))</f>
+      <c r="G10" s="88">
+        <f t="shared" si="0"/>
         <v>3.7147300000000003E-3</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" ref="H10:H32" si="1">3+0.1*(25-F10)</f>
+        <f t="shared" ref="H10:H32" si="4">3+0.1*(25-F10)</f>
         <v>4.62</v>
       </c>
       <c r="I10" s="29">
         <v>5.5</v>
       </c>
-      <c r="J10" s="115">
-        <f>0.0031372+(E80*(25-I10))</f>
+      <c r="J10" s="89">
+        <f t="shared" si="1"/>
         <v>3.8323750000000003E-3</v>
       </c>
       <c r="K10" s="27">
-        <f t="shared" ref="K10:K32" si="2">3+0.1*(25-I10)</f>
+        <f t="shared" ref="K10:K32" si="5">3+0.1*(25-I10)</f>
         <v>4.95</v>
       </c>
       <c r="L10" s="29">
         <v>17</v>
       </c>
-      <c r="M10" s="114">
-        <f>0.0031372+(E80*(25-L10))</f>
+      <c r="M10" s="88">
+        <f t="shared" si="2"/>
         <v>3.4223999999999999E-3</v>
       </c>
       <c r="N10" s="27">
-        <f t="shared" ref="N10:N32" si="3">3+0.1*(25-L10)</f>
+        <f t="shared" ref="N10:N32" si="6">3+0.1*(25-L10)</f>
         <v>3.8</v>
       </c>
       <c r="AA10" s="24"/>
@@ -7798,45 +7001,45 @@
       <c r="C11" s="27">
         <v>7.3</v>
       </c>
-      <c r="D11" s="112">
+      <c r="D11" s="86">
         <f>0.0031372+(E79*(25-C11))</f>
         <v>3.7682050000000002E-3</v>
       </c>
       <c r="E11" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.7699999999999996</v>
       </c>
       <c r="F11" s="27">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G11" s="114">
-        <f>0.0031372+(E81*(25-F11))</f>
+      <c r="G11" s="88">
+        <f t="shared" si="0"/>
         <v>3.7147300000000003E-3</v>
       </c>
       <c r="H11" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.62</v>
       </c>
       <c r="I11" s="27">
         <v>5</v>
       </c>
-      <c r="J11" s="115">
-        <f>0.0031372+(E81*(25-I11))</f>
+      <c r="J11" s="89">
+        <f t="shared" si="1"/>
         <v>3.8502000000000002E-3</v>
       </c>
       <c r="K11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="L11" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="M11" s="114">
-        <f>0.0031372+(E81*(25-L11))</f>
+      <c r="M11" s="88">
+        <f t="shared" si="2"/>
         <v>3.4366600000000002E-3</v>
       </c>
       <c r="N11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.84</v>
       </c>
       <c r="AA11" s="24"/>
@@ -7849,45 +7052,45 @@
       <c r="C12" s="29">
         <v>7.8</v>
       </c>
-      <c r="D12" s="112">
+      <c r="D12" s="86">
         <f>0.0031372+(E82*(25-C12))</f>
         <v>3.7503800000000002E-3</v>
       </c>
       <c r="E12" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.72</v>
       </c>
       <c r="F12" s="29">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G12" s="114">
-        <f>0.0031372+(E82*(25-F12))</f>
+      <c r="G12" s="88">
+        <f t="shared" si="0"/>
         <v>3.7182949999999999E-3</v>
       </c>
       <c r="H12" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.63</v>
       </c>
       <c r="I12" s="29">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J12" s="115">
-        <f>0.0031372+(E82*(25-I12))</f>
+      <c r="J12" s="89">
+        <f t="shared" si="1"/>
         <v>3.8466350000000002E-3</v>
       </c>
       <c r="K12" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.99</v>
       </c>
       <c r="L12" s="29">
         <v>16</v>
       </c>
-      <c r="M12" s="114">
-        <f>0.0031372+(E82*(25-L12))</f>
+      <c r="M12" s="88">
+        <f t="shared" si="2"/>
         <v>3.4580500000000003E-3</v>
       </c>
       <c r="N12" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.9</v>
       </c>
       <c r="AA12" s="24"/>
@@ -7900,45 +7103,45 @@
       <c r="C13" s="27">
         <v>8.1</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="87">
         <f>0.0031372+(E82*(25-C13))</f>
         <v>3.739685E-3</v>
       </c>
       <c r="E13" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.6899999999999995</v>
       </c>
       <c r="F13" s="27">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G13" s="114">
-        <f>0.0031372+(E83*(25-F13))</f>
+      <c r="G13" s="88">
+        <f t="shared" si="0"/>
         <v>3.7182949999999999E-3</v>
       </c>
       <c r="H13" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.63</v>
       </c>
       <c r="I13" s="27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J13" s="115">
-        <f>0.0031372+(E83*(25-I13))</f>
+      <c r="J13" s="89">
+        <f t="shared" si="1"/>
         <v>3.8537650000000003E-3</v>
       </c>
       <c r="K13" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.01</v>
       </c>
       <c r="L13" s="27">
         <v>15.5</v>
       </c>
-      <c r="M13" s="114">
-        <f>0.0031372+(E83*(25-L13))</f>
+      <c r="M13" s="88">
+        <f t="shared" si="2"/>
         <v>3.4758750000000002E-3</v>
       </c>
       <c r="N13" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.95</v>
       </c>
       <c r="AA13" s="24"/>
@@ -7951,45 +7154,45 @@
       <c r="C14" s="29">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D14" s="112">
+      <c r="D14" s="86">
         <f>0.0031372+(E82*(25-C14))</f>
         <v>3.7147300000000003E-3</v>
       </c>
       <c r="E14" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.62</v>
       </c>
       <c r="F14" s="29">
         <v>9</v>
       </c>
-      <c r="G14" s="114">
-        <f>0.0031372+(E84*(25-F14))</f>
+      <c r="G14" s="88">
+        <f t="shared" si="0"/>
         <v>3.7076000000000001E-3</v>
       </c>
       <c r="H14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="I14" s="29">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J14" s="115">
-        <f>0.0031372+(E84*(25-I14))</f>
+      <c r="J14" s="89">
+        <f t="shared" si="1"/>
         <v>3.8537650000000003E-3</v>
       </c>
       <c r="K14" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.01</v>
       </c>
       <c r="L14" s="29">
         <v>15</v>
       </c>
-      <c r="M14" s="114">
-        <f>0.0031372+(E84*(25-L14))</f>
+      <c r="M14" s="88">
+        <f t="shared" si="2"/>
         <v>3.4937000000000002E-3</v>
       </c>
       <c r="N14" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AA14" s="24"/>
@@ -8002,45 +7205,45 @@
       <c r="C15" s="27">
         <v>9</v>
       </c>
-      <c r="D15" s="112">
+      <c r="D15" s="86">
         <f>0.0031372+(E85*(25-C15))</f>
         <v>3.7076000000000001E-3</v>
       </c>
       <c r="E15" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="F15" s="27">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G15" s="114">
-        <f>0.0031372+(E85*(25-F15))</f>
+      <c r="G15" s="88">
+        <f t="shared" si="0"/>
         <v>3.70047E-3</v>
       </c>
       <c r="H15" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.58</v>
       </c>
       <c r="I15" s="27">
         <v>5.3</v>
       </c>
-      <c r="J15" s="115">
-        <f>0.0031372+(E85*(25-I15))</f>
+      <c r="J15" s="89">
+        <f t="shared" si="1"/>
         <v>3.839505E-3</v>
       </c>
       <c r="K15" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.97</v>
       </c>
       <c r="L15" s="27">
         <v>14.9</v>
       </c>
-      <c r="M15" s="114">
-        <f>0.0031372+(E85*(25-L15))</f>
+      <c r="M15" s="88">
+        <f t="shared" si="2"/>
         <v>3.4972650000000003E-3</v>
       </c>
       <c r="N15" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.01</v>
       </c>
       <c r="AA15" s="24"/>
@@ -8053,45 +7256,45 @@
       <c r="C16" s="29">
         <v>7.4</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="87">
         <f>0.0031372+(E85*(25-C16))</f>
         <v>3.7646400000000001E-3</v>
       </c>
       <c r="E16" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.76</v>
       </c>
       <c r="F16" s="29">
         <v>9.1</v>
       </c>
-      <c r="G16" s="114">
-        <f>0.0031372+(E86*(25-F16))</f>
+      <c r="G16" s="88">
+        <f t="shared" si="0"/>
         <v>3.7040350000000001E-3</v>
       </c>
       <c r="H16" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.59</v>
       </c>
       <c r="I16" s="29">
         <v>6.1</v>
       </c>
-      <c r="J16" s="115">
-        <f>0.0031372+(E86*(25-I16))</f>
+      <c r="J16" s="89">
+        <f t="shared" si="1"/>
         <v>3.8109850000000002E-3</v>
       </c>
       <c r="K16" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.8899999999999997</v>
       </c>
       <c r="L16" s="29">
         <v>16.3</v>
       </c>
-      <c r="M16" s="114">
-        <f>0.0031372+(E86*(25-L16))</f>
+      <c r="M16" s="88">
+        <f t="shared" si="2"/>
         <v>3.447355E-3</v>
       </c>
       <c r="N16" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.87</v>
       </c>
       <c r="AA16" s="24"/>
@@ -8104,45 +7307,45 @@
       <c r="C17" s="27">
         <v>6.8</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="86">
         <f>0.0031372+(E85*(25-C17))</f>
         <v>3.7860300000000001E-3</v>
       </c>
       <c r="E17" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.82</v>
       </c>
       <c r="F17" s="27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G17" s="114">
-        <f>0.0031372+(E87*(25-F17))</f>
+      <c r="G17" s="88">
+        <f t="shared" si="0"/>
         <v>3.6969050000000003E-3</v>
       </c>
       <c r="H17" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.57</v>
       </c>
       <c r="I17" s="27">
         <v>8</v>
       </c>
-      <c r="J17" s="115">
-        <f>0.0031372+(E87*(25-I17))</f>
+      <c r="J17" s="89">
+        <f t="shared" si="1"/>
         <v>3.74325E-3</v>
       </c>
       <c r="K17" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.7</v>
       </c>
       <c r="L17" s="27">
         <v>17.8</v>
       </c>
-      <c r="M17" s="114">
-        <f>0.0031372+(E87*(25-L17))</f>
+      <c r="M17" s="88">
+        <f t="shared" si="2"/>
         <v>3.3938800000000002E-3</v>
       </c>
       <c r="N17" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.7199999999999998</v>
       </c>
       <c r="AA17" s="24"/>
@@ -8155,45 +7358,45 @@
       <c r="C18" s="29">
         <v>6.7</v>
       </c>
-      <c r="D18" s="112">
+      <c r="D18" s="86">
         <f>0.0031372+(E88*(25-C18))</f>
         <v>3.7895950000000002E-3</v>
       </c>
       <c r="E18" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.83</v>
       </c>
       <c r="F18" s="29">
         <v>9.4</v>
       </c>
-      <c r="G18" s="114">
-        <f>0.0031372+(E88*(25-F18))</f>
+      <c r="G18" s="88">
+        <f t="shared" si="0"/>
         <v>3.6933400000000003E-3</v>
       </c>
       <c r="H18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.5600000000000005</v>
       </c>
       <c r="I18" s="29">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J18" s="115">
-        <f>0.0031372+(E88*(25-I18))</f>
+      <c r="J18" s="89">
+        <f t="shared" si="1"/>
         <v>3.6969050000000003E-3</v>
       </c>
       <c r="K18" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.57</v>
       </c>
       <c r="L18" s="29">
         <v>19.899999999999999</v>
       </c>
-      <c r="M18" s="114">
-        <f>0.0031372+(E88*(25-L18))</f>
+      <c r="M18" s="88">
+        <f t="shared" si="2"/>
         <v>3.3190150000000002E-3</v>
       </c>
       <c r="N18" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.5100000000000002</v>
       </c>
       <c r="AA18" s="24"/>
@@ -8206,45 +7409,45 @@
       <c r="C19" s="27">
         <v>7.1</v>
       </c>
-      <c r="D19" s="113">
+      <c r="D19" s="87">
         <f>0.0031372+(E88*(25-C19))</f>
         <v>3.7753350000000003E-3</v>
       </c>
       <c r="E19" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.79</v>
       </c>
       <c r="F19" s="27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G19" s="114">
-        <f>0.0031372+(E89*(25-F19))</f>
+      <c r="G19" s="88">
+        <f t="shared" si="0"/>
         <v>3.6969050000000003E-3</v>
       </c>
       <c r="H19" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.57</v>
       </c>
       <c r="I19" s="27">
         <v>11.5</v>
       </c>
-      <c r="J19" s="115">
-        <f>0.0031372+(E89*(25-I19))</f>
+      <c r="J19" s="89">
+        <f t="shared" si="1"/>
         <v>3.6184750000000003E-3</v>
       </c>
       <c r="K19" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.3499999999999996</v>
       </c>
       <c r="L19" s="27">
         <v>22.2</v>
       </c>
-      <c r="M19" s="114">
-        <f>0.0031372+(E89*(25-L19))</f>
+      <c r="M19" s="88">
+        <f t="shared" si="2"/>
         <v>3.2370200000000002E-3</v>
       </c>
       <c r="N19" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AA19" s="24"/>
@@ -8257,45 +7460,45 @@
       <c r="C20" s="29">
         <v>7.8</v>
       </c>
-      <c r="D20" s="112">
+      <c r="D20" s="86">
         <f>0.0031372+(E88*(25-C20))</f>
         <v>3.7503800000000002E-3</v>
       </c>
       <c r="E20" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.72</v>
       </c>
       <c r="F20" s="29">
         <v>9.4</v>
       </c>
-      <c r="G20" s="114">
-        <f>0.0031372+(E90*(25-F20))</f>
+      <c r="G20" s="88">
+        <f t="shared" si="0"/>
         <v>3.6933400000000003E-3</v>
       </c>
       <c r="H20" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.5600000000000005</v>
       </c>
       <c r="I20" s="29">
         <v>10.3</v>
       </c>
-      <c r="J20" s="115">
-        <f>0.0031372+(E90*(25-I20))</f>
+      <c r="J20" s="89">
+        <f t="shared" si="1"/>
         <v>3.661255E-3</v>
       </c>
       <c r="K20" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.47</v>
       </c>
       <c r="L20" s="29">
         <v>24.4</v>
       </c>
-      <c r="M20" s="114">
-        <f>0.0031372+(E90*(25-L20))</f>
+      <c r="M20" s="88">
+        <f t="shared" si="2"/>
         <v>3.1585900000000002E-3</v>
       </c>
       <c r="N20" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.06</v>
       </c>
       <c r="AA20" s="24"/>
@@ -8308,45 +7511,45 @@
       <c r="C21" s="27">
         <v>8.1</v>
       </c>
-      <c r="D21" s="112">
+      <c r="D21" s="86">
         <f>0.0031372+(E91*(25-C21))</f>
         <v>3.739685E-3</v>
       </c>
       <c r="E21" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.6899999999999995</v>
       </c>
       <c r="F21" s="27">
         <v>9.1</v>
       </c>
-      <c r="G21" s="114">
-        <f>0.0031372+(E91*(25-F21))</f>
+      <c r="G21" s="88">
+        <f t="shared" si="0"/>
         <v>3.7040350000000001E-3</v>
       </c>
       <c r="H21" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.59</v>
       </c>
       <c r="I21" s="27">
         <v>12.5</v>
       </c>
-      <c r="J21" s="115">
-        <f>0.0031372+(E91*(25-I21))</f>
+      <c r="J21" s="89">
+        <f t="shared" si="1"/>
         <v>3.582825E-3</v>
       </c>
       <c r="K21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
       <c r="L21" s="27">
         <v>23.3</v>
       </c>
-      <c r="M21" s="114">
-        <f>0.0031372+(E91*(25-L21))</f>
+      <c r="M21" s="88">
+        <f t="shared" si="2"/>
         <v>3.1978050000000002E-3</v>
       </c>
       <c r="N21" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.17</v>
       </c>
       <c r="AA21" s="24"/>
@@ -8359,45 +7562,45 @@
       <c r="C22" s="29">
         <v>8.6</v>
       </c>
-      <c r="D22" s="113">
+      <c r="D22" s="87">
         <f>0.0031372+(E91*(25-C22))</f>
         <v>3.72186E-3</v>
       </c>
       <c r="E22" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="F22" s="29">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G22" s="114">
-        <f>0.0031372+(E92*(25-F22))</f>
+      <c r="G22" s="88">
+        <f t="shared" si="0"/>
         <v>3.682645E-3</v>
       </c>
       <c r="H22" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.53</v>
       </c>
       <c r="I22" s="29">
         <v>13.5</v>
       </c>
-      <c r="J22" s="115">
-        <f>0.0031372+(E92*(25-I22))</f>
+      <c r="J22" s="89">
+        <f t="shared" si="1"/>
         <v>3.5471750000000001E-3</v>
       </c>
       <c r="K22" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="L22" s="29">
         <v>22.8</v>
       </c>
-      <c r="M22" s="114">
-        <f>0.0031372+(E92*(25-L22))</f>
+      <c r="M22" s="88">
+        <f t="shared" si="2"/>
         <v>3.2156300000000001E-3</v>
       </c>
       <c r="N22" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2199999999999998</v>
       </c>
       <c r="AA22" s="24"/>
@@ -8410,45 +7613,45 @@
       <c r="C23" s="27">
         <v>8.6</v>
       </c>
-      <c r="D23" s="112">
+      <c r="D23" s="86">
         <f>0.0031372+(E91*(25-C23))</f>
         <v>3.72186E-3</v>
       </c>
       <c r="E23" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="F23" s="27">
         <v>9.9</v>
       </c>
-      <c r="G23" s="114">
-        <f>0.0031372+(E93*(25-F23))</f>
+      <c r="G23" s="88">
+        <f t="shared" si="0"/>
         <v>3.6755149999999999E-3</v>
       </c>
       <c r="H23" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.51</v>
       </c>
       <c r="I23" s="27">
         <v>12.7</v>
       </c>
-      <c r="J23" s="115">
-        <f>0.0031372+(E93*(25-I23))</f>
+      <c r="J23" s="89">
+        <f t="shared" si="1"/>
         <v>3.5756950000000003E-3</v>
       </c>
       <c r="K23" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.2300000000000004</v>
       </c>
       <c r="L23" s="27">
         <v>24.2</v>
       </c>
-      <c r="M23" s="114">
-        <f>0.0031372+(E93*(25-L23))</f>
+      <c r="M23" s="88">
+        <f t="shared" si="2"/>
         <v>3.1657200000000003E-3</v>
       </c>
       <c r="N23" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.08</v>
       </c>
       <c r="AA23" s="24"/>
@@ -8461,45 +7664,45 @@
       <c r="C24" s="29">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D24" s="112">
+      <c r="D24" s="86">
         <f>0.0031372+(E94*(25-C24))</f>
         <v>3.7361199999999999E-3</v>
       </c>
       <c r="E24" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.68</v>
       </c>
       <c r="F24" s="29">
         <v>9.9</v>
       </c>
-      <c r="G24" s="114">
-        <f>0.0031372+(E94*(25-F24))</f>
+      <c r="G24" s="88">
+        <f t="shared" si="0"/>
         <v>3.6755149999999999E-3</v>
       </c>
       <c r="H24" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.51</v>
       </c>
       <c r="I24" s="29">
         <v>14</v>
       </c>
-      <c r="J24" s="115">
-        <f>0.0031372+(E94*(25-I24))</f>
+      <c r="J24" s="89">
+        <f t="shared" si="1"/>
         <v>3.5293500000000001E-3</v>
       </c>
       <c r="K24" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="L24" s="29">
         <v>24</v>
       </c>
-      <c r="M24" s="114">
-        <f>0.0031372+(E94*(25-L24))</f>
+      <c r="M24" s="88">
+        <f t="shared" si="2"/>
         <v>3.1728500000000001E-3</v>
       </c>
       <c r="N24" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.1</v>
       </c>
       <c r="AA24" s="24"/>
@@ -8512,40 +7715,40 @@
       <c r="C25" s="31">
         <v>7.8</v>
       </c>
-      <c r="D25" s="113">
+      <c r="D25" s="87">
         <f>0.0031372+(E94*(25-C25))</f>
         <v>3.7503800000000002E-3</v>
       </c>
       <c r="E25" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.72</v>
       </c>
       <c r="F25" s="27">
         <v>9.4</v>
       </c>
-      <c r="G25" s="114">
-        <f>0.0031372+(E95*(25-F25))</f>
+      <c r="G25" s="88">
+        <f t="shared" si="0"/>
         <v>3.6933400000000003E-3</v>
       </c>
       <c r="H25" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.5600000000000005</v>
       </c>
       <c r="I25" s="27">
         <v>14.6</v>
       </c>
-      <c r="J25" s="115">
-        <f>0.0031372+(E95*(25-I25))</f>
+      <c r="J25" s="89">
+        <f t="shared" si="1"/>
         <v>3.5079600000000001E-3</v>
       </c>
       <c r="K25" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.04</v>
       </c>
       <c r="L25" s="27">
         <v>28.2</v>
       </c>
-      <c r="M25" s="114">
+      <c r="M25" s="88">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N25" s="27">
@@ -8561,40 +7764,40 @@
       <c r="C26" s="30">
         <v>7.2</v>
       </c>
-      <c r="D26" s="112">
+      <c r="D26" s="86">
         <f>0.0031372+(E94*(25-C26))</f>
         <v>3.7717700000000002E-3</v>
       </c>
       <c r="E26" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.78</v>
       </c>
       <c r="F26" s="29">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G26" s="114">
-        <f>0.0031372+(E96*(25-F26))</f>
+      <c r="G26" s="88">
+        <f t="shared" si="0"/>
         <v>3.70047E-3</v>
       </c>
       <c r="H26" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.58</v>
       </c>
       <c r="I26" s="29">
         <v>14.4</v>
       </c>
-      <c r="J26" s="115">
-        <f>0.0031372+(E96*(25-I26))</f>
+      <c r="J26" s="89">
+        <f t="shared" si="1"/>
         <v>3.5150900000000002E-3</v>
       </c>
       <c r="K26" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.0600000000000005</v>
       </c>
       <c r="L26" s="29">
         <v>28.7</v>
       </c>
-      <c r="M26" s="114">
+      <c r="M26" s="88">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N26" s="27">
@@ -8610,40 +7813,40 @@
       <c r="C27" s="27">
         <v>7</v>
       </c>
-      <c r="D27" s="112">
+      <c r="D27" s="86">
         <f>0.0031372+(E97*(25-C27))</f>
         <v>3.7789E-3</v>
       </c>
       <c r="E27" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
       <c r="F27" s="27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G27" s="114">
-        <f>0.0031372+(E97*(25-F27))</f>
+      <c r="G27" s="88">
+        <f t="shared" si="0"/>
         <v>3.7361199999999999E-3</v>
       </c>
       <c r="H27" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.68</v>
       </c>
       <c r="I27" s="27">
         <v>14.6</v>
       </c>
-      <c r="J27" s="115">
-        <f>0.0031372+(E97*(25-I27))</f>
+      <c r="J27" s="89">
+        <f t="shared" si="1"/>
         <v>3.5079600000000001E-3</v>
       </c>
       <c r="K27" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.04</v>
       </c>
       <c r="L27" s="27">
         <v>28.6</v>
       </c>
-      <c r="M27" s="114">
+      <c r="M27" s="88">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N27" s="27">
@@ -8659,40 +7862,40 @@
       <c r="C28" s="29">
         <v>6.9</v>
       </c>
-      <c r="D28" s="113">
+      <c r="D28" s="87">
         <f>0.0031372+(E97*(25-C28))</f>
         <v>3.782465E-3</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.8100000000000005</v>
       </c>
       <c r="F28" s="29">
         <v>7.2</v>
       </c>
-      <c r="G28" s="114">
-        <f>0.0031372+(E98*(25-F28))</f>
+      <c r="G28" s="88">
+        <f t="shared" si="0"/>
         <v>3.7717700000000002E-3</v>
       </c>
       <c r="H28" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.78</v>
       </c>
       <c r="I28" s="29">
         <v>14.1</v>
       </c>
-      <c r="J28" s="115">
-        <f>0.0031372+(E98*(25-I28))</f>
+      <c r="J28" s="89">
+        <f t="shared" si="1"/>
         <v>3.525785E-3</v>
       </c>
       <c r="K28" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.09</v>
       </c>
       <c r="L28" s="29">
         <v>27.8</v>
       </c>
-      <c r="M28" s="114">
+      <c r="M28" s="88">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N28" s="27">
@@ -8708,40 +7911,40 @@
       <c r="C29" s="27">
         <v>6.7</v>
       </c>
-      <c r="D29" s="112">
+      <c r="D29" s="86">
         <f>0.0031372+(E97*(25-C29))</f>
         <v>3.7895950000000002E-3</v>
       </c>
       <c r="E29" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.83</v>
       </c>
       <c r="F29" s="27">
         <v>6.9</v>
       </c>
-      <c r="G29" s="114">
-        <f>0.0031372+(E99*(25-F29))</f>
+      <c r="G29" s="88">
+        <f t="shared" si="0"/>
         <v>3.782465E-3</v>
       </c>
       <c r="H29" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.8100000000000005</v>
       </c>
       <c r="I29" s="27">
         <v>13.5</v>
       </c>
-      <c r="J29" s="115">
-        <f>0.0031372+(E99*(25-I29))</f>
+      <c r="J29" s="89">
+        <f t="shared" si="1"/>
         <v>3.5471750000000001E-3</v>
       </c>
       <c r="K29" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="L29" s="27">
         <v>27.2</v>
       </c>
-      <c r="M29" s="114">
+      <c r="M29" s="88">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N29" s="27">
@@ -8757,40 +7960,40 @@
       <c r="C30" s="29">
         <v>6.5</v>
       </c>
-      <c r="D30" s="112">
+      <c r="D30" s="86">
         <f>0.0031372+(E100*(25-C30))</f>
         <v>3.7967249999999999E-3</v>
       </c>
       <c r="E30" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="F30" s="29">
         <v>6.5</v>
       </c>
-      <c r="G30" s="114">
-        <f>0.0031372+(E100*(25-F30))</f>
+      <c r="G30" s="88">
+        <f t="shared" si="0"/>
         <v>3.7967249999999999E-3</v>
       </c>
       <c r="H30" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="I30" s="29">
         <v>12.2</v>
       </c>
-      <c r="J30" s="115">
-        <f>0.0031372+(E100*(25-I30))</f>
+      <c r="J30" s="89">
+        <f t="shared" si="1"/>
         <v>3.5935200000000002E-3</v>
       </c>
       <c r="K30" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.28</v>
       </c>
       <c r="L30" s="29">
         <v>26.4</v>
       </c>
-      <c r="M30" s="114">
+      <c r="M30" s="88">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N30" s="27">
@@ -8806,45 +8009,45 @@
       <c r="C31" s="27">
         <v>6.4</v>
       </c>
-      <c r="D31" s="113">
+      <c r="D31" s="87">
         <f>0.0031372+(E100*(25-C31))</f>
         <v>3.8002900000000004E-3</v>
       </c>
       <c r="E31" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.8600000000000003</v>
       </c>
       <c r="F31" s="27">
         <v>5.8</v>
       </c>
-      <c r="G31" s="114">
-        <f>0.0031372+(E101*(25-F31))</f>
+      <c r="G31" s="88">
+        <f t="shared" si="0"/>
         <v>3.82168E-3</v>
       </c>
       <c r="H31" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.92</v>
       </c>
       <c r="I31" s="27">
         <v>11.2</v>
       </c>
-      <c r="J31" s="115">
-        <f>0.0031372+(E101*(25-I31))</f>
+      <c r="J31" s="89">
+        <f t="shared" si="1"/>
         <v>3.6291700000000001E-3</v>
       </c>
       <c r="K31" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.38</v>
       </c>
       <c r="L31" s="27">
         <v>24.9</v>
       </c>
-      <c r="M31" s="114">
+      <c r="M31" s="88">
         <f>0.0031372+(E101*(25-L31))</f>
         <v>3.1407650000000002E-3</v>
       </c>
       <c r="N31" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.0100000000000002</v>
       </c>
     </row>
@@ -8855,45 +8058,45 @@
       <c r="C32" s="29">
         <v>6.3</v>
       </c>
-      <c r="D32" s="112">
+      <c r="D32" s="86">
         <f>0.0031372+(E100*(25-C32))</f>
         <v>3.8038550000000001E-3</v>
       </c>
       <c r="E32" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.87</v>
       </c>
       <c r="F32" s="29">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G32" s="114">
-        <f>0.0031372+(E102*(25-F32))</f>
+      <c r="G32" s="88">
+        <f t="shared" si="0"/>
         <v>3.8466350000000002E-3</v>
       </c>
       <c r="H32" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.99</v>
       </c>
       <c r="I32" s="29">
         <v>11.1</v>
       </c>
-      <c r="J32" s="115">
-        <f>0.0031372+(E102*(25-I32))</f>
+      <c r="J32" s="89">
+        <f t="shared" si="1"/>
         <v>3.6327350000000002E-3</v>
       </c>
       <c r="K32" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.3900000000000006</v>
       </c>
       <c r="L32" s="29">
         <v>24.2</v>
       </c>
-      <c r="M32" s="114">
+      <c r="M32" s="88">
         <f>0.0031372+(E102*(25-L32))</f>
         <v>3.1657200000000003E-3</v>
       </c>
       <c r="N32" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.08</v>
       </c>
     </row>
@@ -8922,31 +8125,31 @@
         <v>3.723642499999999E-3</v>
       </c>
       <c r="H33" s="42">
-        <f t="shared" ref="H33" si="4">SUM(H9:H32)/24</f>
+        <f t="shared" ref="H33" si="7">SUM(H9:H32)/24</f>
         <v>4.6450000000000005</v>
       </c>
       <c r="I33" s="42">
         <f>SUM(I9:I32)/24</f>
         <v>9.9833333333333307</v>
       </c>
-      <c r="J33" s="116">
+      <c r="J33" s="90">
         <f>SUM(J9:J32)/24</f>
         <v>3.6725441666666677E-3</v>
       </c>
       <c r="K33" s="42">
-        <f t="shared" ref="K33:N33" si="5">SUM(K9:K32)/24</f>
+        <f t="shared" ref="K33:N33" si="8">SUM(K9:K32)/24</f>
         <v>4.5016666666666678</v>
       </c>
       <c r="L33" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21.770833333333332</v>
       </c>
-      <c r="M33" s="118">
+      <c r="M33" s="92">
         <f>SUM(M9:M32)/24</f>
         <v>3.2774233333333343E-3</v>
       </c>
       <c r="N33" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.393333333333334</v>
       </c>
       <c r="AA33" s="23"/>
@@ -8967,38 +8170,38 @@
       <c r="B34" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="96">
+      <c r="C34" s="113">
         <v>43684</v>
       </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="96">
+      <c r="D34" s="114"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="113">
         <v>43731</v>
       </c>
-      <c r="G34" s="97"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="96">
+      <c r="G34" s="114"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="113">
         <v>43776</v>
       </c>
-      <c r="J34" s="97"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="96">
+      <c r="J34" s="114"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="113">
         <v>43822</v>
       </c>
-      <c r="M34" s="97"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="124"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="124"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="124"/>
-      <c r="W34" s="124"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="125"/>
-      <c r="Z34" s="121"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="96"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="98"/>
+      <c r="U34" s="96"/>
+      <c r="V34" s="98"/>
+      <c r="W34" s="98"/>
+      <c r="X34" s="96"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="95"/>
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
       <c r="AC34" s="25"/>
@@ -9051,18 +8254,18 @@
       <c r="N35" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="O35" s="122"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="124"/>
-      <c r="T35" s="124"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="124"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="125"/>
-      <c r="Z35" s="121"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="98"/>
+      <c r="W35" s="98"/>
+      <c r="X35" s="96"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="95"/>
       <c r="AA35" s="25"/>
       <c r="AB35" s="25"/>
       <c r="AC35" s="25"/>
@@ -9084,8 +8287,8 @@
       <c r="C36" s="27">
         <v>18.600000000000001</v>
       </c>
-      <c r="D36" s="114">
-        <f>0.0031372+(E79*(25-C36))</f>
+      <c r="D36" s="88">
+        <f t="shared" ref="D36:D59" si="9">0.0031372+(E79*(25-C36))</f>
         <v>3.36536E-3</v>
       </c>
       <c r="E36" s="27">
@@ -9096,7 +8299,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="G36" s="27">
-        <f>0.0031372+(E79*(25-F36))</f>
+        <f t="shared" ref="G36:G59" si="10">0.0031372+(E79*(25-F36))</f>
         <v>3.4544850000000002E-3</v>
       </c>
       <c r="H36" s="27">
@@ -9107,7 +8310,7 @@
         <v>7.1</v>
       </c>
       <c r="J36" s="27">
-        <f>0.0031372+(E79*(25-I36))</f>
+        <f t="shared" ref="J36:J59" si="11">0.0031372+(E79*(25-I36))</f>
         <v>3.7753350000000003E-3</v>
       </c>
       <c r="K36" s="27">
@@ -9118,25 +8321,25 @@
         <v>8.6</v>
       </c>
       <c r="M36" s="27">
-        <f>0.0031372+(E79*(25-L36))</f>
+        <f t="shared" ref="M36:M59" si="12">0.0031372+(E79*(25-L36))</f>
         <v>3.72186E-3</v>
       </c>
       <c r="N36" s="28">
         <f>3+0.1*(25-L36)</f>
         <v>4.6399999999999997</v>
       </c>
-      <c r="O36" s="122"/>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="124"/>
-      <c r="T36" s="124"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="124"/>
-      <c r="W36" s="124"/>
-      <c r="X36" s="122"/>
-      <c r="Y36" s="125"/>
-      <c r="Z36" s="121"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="98"/>
+      <c r="U36" s="96"/>
+      <c r="V36" s="98"/>
+      <c r="W36" s="98"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="95"/>
       <c r="AA36" s="25"/>
       <c r="AB36" s="25"/>
       <c r="AC36" s="25"/>
@@ -9158,59 +8361,59 @@
       <c r="C37" s="29">
         <v>18.7</v>
       </c>
-      <c r="D37" s="114">
-        <f>0.0031372+(E80*(25-C37))</f>
+      <c r="D37" s="88">
+        <f t="shared" si="9"/>
         <v>3.3617950000000003E-3</v>
       </c>
       <c r="E37" s="27">
-        <f t="shared" ref="E37:E59" si="6">3+0.1*(25-C37)</f>
+        <f t="shared" ref="E37:E59" si="13">3+0.1*(25-C37)</f>
         <v>3.63</v>
       </c>
       <c r="F37" s="29">
         <v>16</v>
       </c>
       <c r="G37" s="27">
-        <f>0.0031372+(E80*(25-F37))</f>
+        <f t="shared" si="10"/>
         <v>3.4580500000000003E-3</v>
       </c>
       <c r="H37" s="27">
-        <f t="shared" ref="H37:H59" si="7">3+0.1*(25-F37)</f>
+        <f t="shared" ref="H37:H59" si="14">3+0.1*(25-F37)</f>
         <v>3.9</v>
       </c>
       <c r="I37" s="29">
         <v>6.8</v>
       </c>
       <c r="J37" s="27">
-        <f>0.0031372+(E80*(25-I37))</f>
+        <f t="shared" si="11"/>
         <v>3.7860300000000001E-3</v>
       </c>
       <c r="K37" s="27">
-        <f t="shared" ref="K37:K59" si="8">3+0.1*(25-I37)</f>
+        <f t="shared" ref="K37:K59" si="15">3+0.1*(25-I37)</f>
         <v>4.82</v>
       </c>
       <c r="L37" s="29">
         <v>8.6999999999999993</v>
       </c>
       <c r="M37" s="27">
-        <f>0.0031372+(E80*(25-L37))</f>
+        <f t="shared" si="12"/>
         <v>3.7182949999999999E-3</v>
       </c>
       <c r="N37" s="28">
-        <f t="shared" ref="N37:N59" si="9">3+0.1*(25-L37)</f>
+        <f t="shared" ref="N37:N59" si="16">3+0.1*(25-L37)</f>
         <v>4.63</v>
       </c>
-      <c r="O37" s="122"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="124"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="124"/>
-      <c r="T37" s="124"/>
-      <c r="U37" s="122"/>
-      <c r="V37" s="124"/>
-      <c r="W37" s="124"/>
-      <c r="X37" s="122"/>
-      <c r="Y37" s="125"/>
-      <c r="Z37" s="121"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="98"/>
+      <c r="U37" s="96"/>
+      <c r="V37" s="98"/>
+      <c r="W37" s="98"/>
+      <c r="X37" s="96"/>
+      <c r="Y37" s="99"/>
+      <c r="Z37" s="95"/>
       <c r="AA37" s="25"/>
       <c r="AB37" s="25"/>
       <c r="AC37" s="25"/>
@@ -9232,59 +8435,59 @@
       <c r="C38" s="27">
         <v>18.399999999999999</v>
       </c>
-      <c r="D38" s="114">
-        <f>0.0031372+(E81*(25-C38))</f>
+      <c r="D38" s="88">
+        <f t="shared" si="9"/>
         <v>3.3724900000000001E-3</v>
       </c>
       <c r="E38" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.66</v>
       </c>
       <c r="F38" s="27">
         <v>15.9</v>
       </c>
       <c r="G38" s="27">
-        <f>0.0031372+(E81*(25-F38))</f>
+        <f t="shared" si="10"/>
         <v>3.4616150000000004E-3</v>
       </c>
       <c r="H38" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.91</v>
       </c>
       <c r="I38" s="27">
         <v>6.1</v>
       </c>
       <c r="J38" s="27">
-        <f>0.0031372+(E81*(25-I38))</f>
+        <f t="shared" si="11"/>
         <v>3.8109850000000002E-3</v>
       </c>
       <c r="K38" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.8899999999999997</v>
       </c>
       <c r="L38" s="27">
         <v>8.9</v>
       </c>
       <c r="M38" s="27">
-        <f>0.0031372+(E81*(25-L38))</f>
+        <f t="shared" si="12"/>
         <v>3.7111650000000002E-3</v>
       </c>
       <c r="N38" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.6100000000000003</v>
       </c>
-      <c r="O38" s="122"/>
-      <c r="P38" s="124"/>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="124"/>
-      <c r="T38" s="124"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="124"/>
-      <c r="W38" s="124"/>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="125"/>
-      <c r="Z38" s="121"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="96"/>
+      <c r="V38" s="98"/>
+      <c r="W38" s="98"/>
+      <c r="X38" s="96"/>
+      <c r="Y38" s="99"/>
+      <c r="Z38" s="95"/>
       <c r="AA38" s="25"/>
       <c r="AB38" s="25"/>
       <c r="AC38" s="25"/>
@@ -9306,59 +8509,59 @@
       <c r="C39" s="29">
         <v>18.5</v>
       </c>
-      <c r="D39" s="114">
-        <f>0.0031372+(E82*(25-C39))</f>
+      <c r="D39" s="88">
+        <f t="shared" si="9"/>
         <v>3.368925E-3</v>
       </c>
       <c r="E39" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.65</v>
       </c>
       <c r="F39" s="29">
         <v>15.9</v>
       </c>
       <c r="G39" s="27">
-        <f>0.0031372+(E82*(25-F39))</f>
+        <f t="shared" si="10"/>
         <v>3.4616150000000004E-3</v>
       </c>
       <c r="H39" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.91</v>
       </c>
       <c r="I39" s="29">
         <v>6.2</v>
       </c>
       <c r="J39" s="27">
-        <f>0.0031372+(E82*(25-I39))</f>
+        <f t="shared" si="11"/>
         <v>3.8074200000000002E-3</v>
       </c>
       <c r="K39" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.88</v>
       </c>
       <c r="L39" s="29">
         <v>8.6999999999999993</v>
       </c>
       <c r="M39" s="27">
-        <f>0.0031372+(E82*(25-L39))</f>
+        <f t="shared" si="12"/>
         <v>3.7182949999999999E-3</v>
       </c>
       <c r="N39" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.63</v>
       </c>
-      <c r="O39" s="122"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="124"/>
-      <c r="T39" s="124"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="124"/>
-      <c r="W39" s="124"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="125"/>
-      <c r="Z39" s="121"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="98"/>
+      <c r="T39" s="98"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="98"/>
+      <c r="W39" s="98"/>
+      <c r="X39" s="96"/>
+      <c r="Y39" s="99"/>
+      <c r="Z39" s="95"/>
       <c r="AA39" s="25"/>
       <c r="AB39" s="25"/>
       <c r="AC39" s="25"/>
@@ -9380,59 +8583,59 @@
       <c r="C40" s="27">
         <v>18.3</v>
       </c>
-      <c r="D40" s="114">
-        <f>0.0031372+(E83*(25-C40))</f>
+      <c r="D40" s="88">
+        <f t="shared" si="9"/>
         <v>3.3760550000000002E-3</v>
       </c>
       <c r="E40" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.67</v>
       </c>
       <c r="F40" s="27">
         <v>15.8</v>
       </c>
       <c r="G40" s="27">
-        <f>0.0031372+(E83*(25-F40))</f>
+        <f t="shared" si="10"/>
         <v>3.46518E-3</v>
       </c>
       <c r="H40" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.92</v>
       </c>
       <c r="I40" s="27">
         <v>6.1</v>
       </c>
       <c r="J40" s="27">
-        <f>0.0031372+(E83*(25-I40))</f>
+        <f t="shared" si="11"/>
         <v>3.8109850000000002E-3</v>
       </c>
       <c r="K40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.8899999999999997</v>
       </c>
       <c r="L40" s="27">
         <v>8.4</v>
       </c>
       <c r="M40" s="27">
-        <f>0.0031372+(E83*(25-L40))</f>
+        <f t="shared" si="12"/>
         <v>3.7289900000000002E-3</v>
       </c>
       <c r="N40" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.66</v>
       </c>
-      <c r="O40" s="122"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="122"/>
-      <c r="Y40" s="125"/>
-      <c r="Z40" s="121"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="98"/>
+      <c r="T40" s="98"/>
+      <c r="U40" s="96"/>
+      <c r="V40" s="98"/>
+      <c r="W40" s="98"/>
+      <c r="X40" s="96"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="95"/>
       <c r="AA40" s="25"/>
       <c r="AB40" s="25"/>
       <c r="AC40" s="25"/>
@@ -9454,59 +8657,59 @@
       <c r="C41" s="29">
         <v>18</v>
       </c>
-      <c r="D41" s="114">
-        <f>0.0031372+(E84*(25-C41))</f>
+      <c r="D41" s="88">
+        <f t="shared" si="9"/>
         <v>3.38675E-3</v>
       </c>
       <c r="E41" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.7</v>
       </c>
       <c r="F41" s="29">
         <v>15.7</v>
       </c>
       <c r="G41" s="27">
-        <f>0.0031372+(E84*(25-F41))</f>
+        <f t="shared" si="10"/>
         <v>3.4687450000000001E-3</v>
       </c>
       <c r="H41" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.93</v>
       </c>
       <c r="I41" s="29">
         <v>7.2</v>
       </c>
       <c r="J41" s="27">
-        <f>0.0031372+(E84*(25-I41))</f>
+        <f t="shared" si="11"/>
         <v>3.7717700000000002E-3</v>
       </c>
       <c r="K41" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.78</v>
       </c>
       <c r="L41" s="29">
         <v>8.1999999999999993</v>
       </c>
       <c r="M41" s="27">
-        <f>0.0031372+(E84*(25-L41))</f>
+        <f t="shared" si="12"/>
         <v>3.7361199999999999E-3</v>
       </c>
       <c r="N41" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.68</v>
       </c>
-      <c r="O41" s="122"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="124"/>
-      <c r="T41" s="124"/>
-      <c r="U41" s="122"/>
-      <c r="V41" s="124"/>
-      <c r="W41" s="124"/>
-      <c r="X41" s="122"/>
-      <c r="Y41" s="125"/>
-      <c r="Z41" s="121"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="98"/>
+      <c r="Q41" s="98"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="98"/>
+      <c r="T41" s="98"/>
+      <c r="U41" s="96"/>
+      <c r="V41" s="98"/>
+      <c r="W41" s="98"/>
+      <c r="X41" s="96"/>
+      <c r="Y41" s="99"/>
+      <c r="Z41" s="95"/>
       <c r="AA41" s="25"/>
       <c r="AB41" s="25"/>
       <c r="AC41" s="25"/>
@@ -9528,59 +8731,59 @@
       <c r="C42" s="27">
         <v>18</v>
       </c>
-      <c r="D42" s="114">
-        <f>0.0031372+(E85*(25-C42))</f>
+      <c r="D42" s="88">
+        <f t="shared" si="9"/>
         <v>3.38675E-3</v>
       </c>
       <c r="E42" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.7</v>
       </c>
       <c r="F42" s="27">
         <v>15.8</v>
       </c>
       <c r="G42" s="27">
-        <f>0.0031372+(E85*(25-F42))</f>
+        <f t="shared" si="10"/>
         <v>3.46518E-3</v>
       </c>
       <c r="H42" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.92</v>
       </c>
       <c r="I42" s="27">
         <v>7.6</v>
       </c>
       <c r="J42" s="27">
-        <f>0.0031372+(E85*(25-I42))</f>
+        <f t="shared" si="11"/>
         <v>3.7575099999999999E-3</v>
       </c>
       <c r="K42" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.74</v>
       </c>
       <c r="L42" s="27">
         <v>8.4</v>
       </c>
       <c r="M42" s="27">
-        <f>0.0031372+(E85*(25-L42))</f>
+        <f t="shared" si="12"/>
         <v>3.7289900000000002E-3</v>
       </c>
       <c r="N42" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.66</v>
       </c>
-      <c r="O42" s="122"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="124"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="124"/>
-      <c r="T42" s="124"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="124"/>
-      <c r="W42" s="124"/>
-      <c r="X42" s="122"/>
-      <c r="Y42" s="125"/>
-      <c r="Z42" s="121"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="98"/>
+      <c r="Q42" s="98"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="98"/>
+      <c r="T42" s="98"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="98"/>
+      <c r="W42" s="98"/>
+      <c r="X42" s="96"/>
+      <c r="Y42" s="99"/>
+      <c r="Z42" s="95"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="25"/>
@@ -9602,59 +8805,59 @@
       <c r="C43" s="29">
         <v>17.2</v>
       </c>
-      <c r="D43" s="114">
-        <f>0.0031372+(E86*(25-C43))</f>
+      <c r="D43" s="88">
+        <f t="shared" si="9"/>
         <v>3.4152700000000002E-3</v>
       </c>
       <c r="E43" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.7800000000000002</v>
       </c>
       <c r="F43" s="30">
         <v>15.7</v>
       </c>
       <c r="G43" s="27">
-        <f>0.0031372+(E86*(25-F43))</f>
+        <f t="shared" si="10"/>
         <v>3.4687450000000001E-3</v>
       </c>
       <c r="H43" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.93</v>
       </c>
       <c r="I43" s="29">
         <v>8</v>
       </c>
       <c r="J43" s="27">
-        <f>0.0031372+(E86*(25-I43))</f>
+        <f t="shared" si="11"/>
         <v>3.74325E-3</v>
       </c>
       <c r="K43" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.7</v>
       </c>
       <c r="L43" s="29">
         <v>7.5</v>
       </c>
       <c r="M43" s="27">
-        <f>0.0031372+(E86*(25-L43))</f>
+        <f t="shared" si="12"/>
         <v>3.761075E-3</v>
       </c>
       <c r="N43" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.75</v>
       </c>
-      <c r="O43" s="122"/>
-      <c r="P43" s="124"/>
-      <c r="Q43" s="124"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="124"/>
-      <c r="T43" s="124"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="124"/>
-      <c r="W43" s="124"/>
-      <c r="X43" s="122"/>
-      <c r="Y43" s="125"/>
-      <c r="Z43" s="121"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="98"/>
+      <c r="Q43" s="98"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="98"/>
+      <c r="T43" s="98"/>
+      <c r="U43" s="96"/>
+      <c r="V43" s="98"/>
+      <c r="W43" s="98"/>
+      <c r="X43" s="96"/>
+      <c r="Y43" s="99"/>
+      <c r="Z43" s="95"/>
       <c r="AA43" s="25"/>
       <c r="AB43" s="25"/>
       <c r="AC43" s="25"/>
@@ -9676,59 +8879,59 @@
       <c r="C44" s="27">
         <v>18.100000000000001</v>
       </c>
-      <c r="D44" s="114">
-        <f>0.0031372+(E87*(25-C44))</f>
+      <c r="D44" s="88">
+        <f t="shared" si="9"/>
         <v>3.3831849999999999E-3</v>
       </c>
       <c r="E44" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.69</v>
       </c>
       <c r="F44" s="31">
         <v>15.7</v>
       </c>
       <c r="G44" s="27">
-        <f>0.0031372+(E87*(25-F44))</f>
+        <f t="shared" si="10"/>
         <v>3.4687450000000001E-3</v>
       </c>
       <c r="H44" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.93</v>
       </c>
       <c r="I44" s="27">
         <v>7.7</v>
       </c>
       <c r="J44" s="27">
-        <f>0.0031372+(E87*(25-I44))</f>
+        <f t="shared" si="11"/>
         <v>3.7539450000000003E-3</v>
       </c>
       <c r="K44" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.7300000000000004</v>
       </c>
       <c r="L44" s="27">
         <v>7.4</v>
       </c>
       <c r="M44" s="27">
-        <f>0.0031372+(E87*(25-L44))</f>
+        <f t="shared" si="12"/>
         <v>3.7646400000000001E-3</v>
       </c>
       <c r="N44" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.76</v>
       </c>
-      <c r="O44" s="122"/>
-      <c r="P44" s="124"/>
-      <c r="Q44" s="124"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="124"/>
-      <c r="T44" s="124"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="124"/>
-      <c r="W44" s="124"/>
-      <c r="X44" s="122"/>
-      <c r="Y44" s="125"/>
-      <c r="Z44" s="121"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="98"/>
+      <c r="Q44" s="98"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="98"/>
+      <c r="T44" s="98"/>
+      <c r="U44" s="96"/>
+      <c r="V44" s="98"/>
+      <c r="W44" s="98"/>
+      <c r="X44" s="96"/>
+      <c r="Y44" s="99"/>
+      <c r="Z44" s="95"/>
       <c r="AA44" s="25"/>
       <c r="AB44" s="25"/>
       <c r="AC44" s="25"/>
@@ -9750,59 +8953,59 @@
       <c r="C45" s="29">
         <v>18.7</v>
       </c>
-      <c r="D45" s="114">
-        <f>0.0031372+(E88*(25-C45))</f>
+      <c r="D45" s="88">
+        <f t="shared" si="9"/>
         <v>3.3617950000000003E-3</v>
       </c>
       <c r="E45" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.63</v>
       </c>
       <c r="F45" s="30">
         <v>15.7</v>
       </c>
       <c r="G45" s="27">
-        <f>0.0031372+(E88*(25-F45))</f>
+        <f t="shared" si="10"/>
         <v>3.4687450000000001E-3</v>
       </c>
       <c r="H45" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.93</v>
       </c>
       <c r="I45" s="29">
         <v>8.3000000000000007</v>
       </c>
       <c r="J45" s="27">
-        <f>0.0031372+(E88*(25-I45))</f>
+        <f t="shared" si="11"/>
         <v>3.7325550000000002E-3</v>
       </c>
       <c r="K45" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.67</v>
       </c>
       <c r="L45" s="29">
         <v>8.3000000000000007</v>
       </c>
       <c r="M45" s="27">
-        <f>0.0031372+(E88*(25-L45))</f>
+        <f t="shared" si="12"/>
         <v>3.7325550000000002E-3</v>
       </c>
       <c r="N45" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.67</v>
       </c>
-      <c r="O45" s="122"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="124"/>
-      <c r="R45" s="122"/>
-      <c r="S45" s="124"/>
-      <c r="T45" s="124"/>
-      <c r="U45" s="122"/>
-      <c r="V45" s="124"/>
-      <c r="W45" s="124"/>
-      <c r="X45" s="122"/>
-      <c r="Y45" s="125"/>
-      <c r="Z45" s="121"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="98"/>
+      <c r="Q45" s="98"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="98"/>
+      <c r="T45" s="98"/>
+      <c r="U45" s="96"/>
+      <c r="V45" s="98"/>
+      <c r="W45" s="98"/>
+      <c r="X45" s="96"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="95"/>
       <c r="AA45" s="25"/>
       <c r="AB45" s="25"/>
       <c r="AC45" s="25"/>
@@ -9824,59 +9027,59 @@
       <c r="C46" s="27">
         <v>19.2</v>
       </c>
-      <c r="D46" s="114">
-        <f>0.0031372+(E89*(25-C46))</f>
+      <c r="D46" s="88">
+        <f t="shared" si="9"/>
         <v>3.3439700000000004E-3</v>
       </c>
       <c r="E46" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.58</v>
       </c>
       <c r="F46" s="27">
         <v>16</v>
       </c>
       <c r="G46" s="27">
-        <f>0.0031372+(E89*(25-F46))</f>
+        <f t="shared" si="10"/>
         <v>3.4580500000000003E-3</v>
       </c>
       <c r="H46" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.9</v>
       </c>
       <c r="I46" s="27">
         <v>8.6999999999999993</v>
       </c>
       <c r="J46" s="27">
-        <f>0.0031372+(E89*(25-I46))</f>
+        <f t="shared" si="11"/>
         <v>3.7182949999999999E-3</v>
       </c>
       <c r="K46" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.63</v>
       </c>
       <c r="L46" s="27">
         <v>8.1</v>
       </c>
       <c r="M46" s="27">
-        <f>0.0031372+(E89*(25-L46))</f>
+        <f t="shared" si="12"/>
         <v>3.739685E-3</v>
       </c>
       <c r="N46" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.6899999999999995</v>
       </c>
-      <c r="O46" s="122"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="122"/>
-      <c r="S46" s="124"/>
-      <c r="T46" s="124"/>
-      <c r="U46" s="122"/>
-      <c r="V46" s="124"/>
-      <c r="W46" s="124"/>
-      <c r="X46" s="122"/>
-      <c r="Y46" s="125"/>
-      <c r="Z46" s="121"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="98"/>
+      <c r="T46" s="98"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="98"/>
+      <c r="W46" s="98"/>
+      <c r="X46" s="96"/>
+      <c r="Y46" s="99"/>
+      <c r="Z46" s="95"/>
       <c r="AA46" s="25"/>
       <c r="AB46" s="25"/>
       <c r="AC46" s="25"/>
@@ -9898,59 +9101,59 @@
       <c r="C47" s="29">
         <v>20.100000000000001</v>
       </c>
-      <c r="D47" s="114">
-        <f>0.0031372+(E90*(25-C47))</f>
+      <c r="D47" s="88">
+        <f t="shared" si="9"/>
         <v>3.3118850000000001E-3</v>
       </c>
       <c r="E47" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.4899999999999998</v>
       </c>
       <c r="F47" s="29">
         <v>16.100000000000001</v>
       </c>
       <c r="G47" s="27">
-        <f>0.0031372+(E90*(25-F47))</f>
+        <f t="shared" si="10"/>
         <v>3.4544850000000002E-3</v>
       </c>
       <c r="H47" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.8899999999999997</v>
       </c>
       <c r="I47" s="29">
         <v>8.6999999999999993</v>
       </c>
       <c r="J47" s="27">
-        <f>0.0031372+(E90*(25-I47))</f>
+        <f t="shared" si="11"/>
         <v>3.7182949999999999E-3</v>
       </c>
       <c r="K47" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.63</v>
       </c>
       <c r="L47" s="29">
         <v>8.3000000000000007</v>
       </c>
       <c r="M47" s="27">
-        <f>0.0031372+(E90*(25-L47))</f>
+        <f t="shared" si="12"/>
         <v>3.7325550000000002E-3</v>
       </c>
       <c r="N47" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.67</v>
       </c>
-      <c r="O47" s="122"/>
-      <c r="P47" s="124"/>
-      <c r="Q47" s="124"/>
-      <c r="R47" s="122"/>
-      <c r="S47" s="124"/>
-      <c r="T47" s="124"/>
-      <c r="U47" s="122"/>
-      <c r="V47" s="124"/>
-      <c r="W47" s="124"/>
-      <c r="X47" s="122"/>
-      <c r="Y47" s="125"/>
-      <c r="Z47" s="121"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="98"/>
+      <c r="Q47" s="98"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="98"/>
+      <c r="T47" s="98"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="98"/>
+      <c r="W47" s="98"/>
+      <c r="X47" s="96"/>
+      <c r="Y47" s="99"/>
+      <c r="Z47" s="95"/>
       <c r="AA47" s="25"/>
       <c r="AB47" s="25"/>
       <c r="AC47" s="25"/>
@@ -9972,59 +9175,59 @@
       <c r="C48" s="27">
         <v>20.399999999999999</v>
       </c>
-      <c r="D48" s="114">
-        <f>0.0031372+(E91*(25-C48))</f>
+      <c r="D48" s="88">
+        <f t="shared" si="9"/>
         <v>3.3011900000000003E-3</v>
       </c>
       <c r="E48" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.46</v>
       </c>
       <c r="F48" s="27">
         <v>17.7</v>
       </c>
       <c r="G48" s="27">
-        <f>0.0031372+(E91*(25-F48))</f>
+        <f t="shared" si="10"/>
         <v>3.3974450000000002E-3</v>
       </c>
       <c r="H48" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.73</v>
       </c>
       <c r="I48" s="27">
         <v>8.6999999999999993</v>
       </c>
       <c r="J48" s="27">
-        <f>0.0031372+(E91*(25-I48))</f>
+        <f t="shared" si="11"/>
         <v>3.7182949999999999E-3</v>
       </c>
       <c r="K48" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.63</v>
       </c>
       <c r="L48" s="27">
         <v>8.5</v>
       </c>
       <c r="M48" s="27">
-        <f>0.0031372+(E91*(25-L48))</f>
+        <f t="shared" si="12"/>
         <v>3.7254250000000001E-3</v>
       </c>
       <c r="N48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="O48" s="122"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="122"/>
-      <c r="S48" s="124"/>
-      <c r="T48" s="124"/>
-      <c r="U48" s="122"/>
-      <c r="V48" s="124"/>
-      <c r="W48" s="124"/>
-      <c r="X48" s="122"/>
-      <c r="Y48" s="125"/>
-      <c r="Z48" s="121"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="98"/>
+      <c r="Q48" s="98"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="98"/>
+      <c r="T48" s="98"/>
+      <c r="U48" s="96"/>
+      <c r="V48" s="98"/>
+      <c r="W48" s="98"/>
+      <c r="X48" s="96"/>
+      <c r="Y48" s="99"/>
+      <c r="Z48" s="95"/>
       <c r="AA48" s="25"/>
       <c r="AB48" s="25"/>
       <c r="AC48" s="25"/>
@@ -10046,59 +9249,59 @@
       <c r="C49" s="29">
         <v>17.7</v>
       </c>
-      <c r="D49" s="114">
-        <f>0.0031372+(E92*(25-C49))</f>
+      <c r="D49" s="88">
+        <f t="shared" si="9"/>
         <v>3.3974450000000002E-3</v>
       </c>
       <c r="E49" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.73</v>
       </c>
       <c r="F49" s="29">
         <v>16.8</v>
       </c>
       <c r="G49" s="27">
-        <f>0.0031372+(E92*(25-F49))</f>
+        <f t="shared" si="10"/>
         <v>3.4295300000000001E-3</v>
       </c>
       <c r="H49" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.82</v>
       </c>
       <c r="I49" s="29">
         <v>8.3000000000000007</v>
       </c>
       <c r="J49" s="27">
-        <f>0.0031372+(E92*(25-I49))</f>
+        <f t="shared" si="11"/>
         <v>3.7325550000000002E-3</v>
       </c>
       <c r="K49" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.67</v>
       </c>
       <c r="L49" s="29">
         <v>8.8000000000000007</v>
       </c>
       <c r="M49" s="27">
-        <f>0.0031372+(E92*(25-L49))</f>
+        <f t="shared" si="12"/>
         <v>3.7147300000000003E-3</v>
       </c>
       <c r="N49" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.62</v>
       </c>
-      <c r="O49" s="122"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="124"/>
-      <c r="T49" s="124"/>
-      <c r="U49" s="122"/>
-      <c r="V49" s="124"/>
-      <c r="W49" s="124"/>
-      <c r="X49" s="122"/>
-      <c r="Y49" s="125"/>
-      <c r="Z49" s="121"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="98"/>
+      <c r="Q49" s="98"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="98"/>
+      <c r="T49" s="98"/>
+      <c r="U49" s="96"/>
+      <c r="V49" s="98"/>
+      <c r="W49" s="98"/>
+      <c r="X49" s="96"/>
+      <c r="Y49" s="99"/>
+      <c r="Z49" s="95"/>
       <c r="AA49" s="25"/>
       <c r="AB49" s="25"/>
       <c r="AC49" s="25"/>
@@ -10120,59 +9323,59 @@
       <c r="C50" s="27">
         <v>20.100000000000001</v>
       </c>
-      <c r="D50" s="114">
-        <f>0.0031372+(E93*(25-C50))</f>
+      <c r="D50" s="88">
+        <f t="shared" si="9"/>
         <v>3.3118850000000001E-3</v>
       </c>
       <c r="E50" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.4899999999999998</v>
       </c>
       <c r="F50" s="27">
         <v>17.899999999999999</v>
       </c>
       <c r="G50" s="27">
-        <f>0.0031372+(E93*(25-F50))</f>
+        <f t="shared" si="10"/>
         <v>3.3903150000000001E-3</v>
       </c>
       <c r="H50" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.71</v>
       </c>
       <c r="I50" s="27">
         <v>8.4</v>
       </c>
       <c r="J50" s="27">
-        <f>0.0031372+(E93*(25-I50))</f>
+        <f t="shared" si="11"/>
         <v>3.7289900000000002E-3</v>
       </c>
       <c r="K50" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.66</v>
       </c>
       <c r="L50" s="27">
         <v>8.8000000000000007</v>
       </c>
       <c r="M50" s="27">
-        <f>0.0031372+(E93*(25-L50))</f>
+        <f t="shared" si="12"/>
         <v>3.7147300000000003E-3</v>
       </c>
       <c r="N50" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.62</v>
       </c>
-      <c r="O50" s="122"/>
-      <c r="P50" s="124"/>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="124"/>
-      <c r="T50" s="124"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="124"/>
-      <c r="W50" s="124"/>
-      <c r="X50" s="122"/>
-      <c r="Y50" s="125"/>
-      <c r="Z50" s="121"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="98"/>
+      <c r="Q50" s="98"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="98"/>
+      <c r="T50" s="98"/>
+      <c r="U50" s="96"/>
+      <c r="V50" s="98"/>
+      <c r="W50" s="98"/>
+      <c r="X50" s="96"/>
+      <c r="Y50" s="99"/>
+      <c r="Z50" s="95"/>
       <c r="AA50" s="25"/>
       <c r="AB50" s="25"/>
       <c r="AC50" s="25"/>
@@ -10194,59 +9397,59 @@
       <c r="C51" s="29">
         <v>21.7</v>
       </c>
-      <c r="D51" s="114">
-        <f>0.0031372+(E94*(25-C51))</f>
+      <c r="D51" s="88">
+        <f t="shared" si="9"/>
         <v>3.2548450000000001E-3</v>
       </c>
       <c r="E51" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.33</v>
       </c>
       <c r="F51" s="29">
         <v>19.100000000000001</v>
       </c>
       <c r="G51" s="27">
-        <f>0.0031372+(E94*(25-F51))</f>
+        <f t="shared" si="10"/>
         <v>3.347535E-3</v>
       </c>
       <c r="H51" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.59</v>
       </c>
       <c r="I51" s="29">
         <v>8.1</v>
       </c>
       <c r="J51" s="27">
-        <f>0.0031372+(E94*(25-I51))</f>
+        <f t="shared" si="11"/>
         <v>3.739685E-3</v>
       </c>
       <c r="K51" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.6899999999999995</v>
       </c>
       <c r="L51" s="29">
         <v>8.9</v>
       </c>
       <c r="M51" s="27">
-        <f>0.0031372+(E94*(25-L51))</f>
+        <f t="shared" si="12"/>
         <v>3.7111650000000002E-3</v>
       </c>
       <c r="N51" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.6100000000000003</v>
       </c>
-      <c r="O51" s="122"/>
-      <c r="P51" s="124"/>
-      <c r="Q51" s="124"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="124"/>
-      <c r="T51" s="124"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="124"/>
-      <c r="W51" s="124"/>
-      <c r="X51" s="122"/>
-      <c r="Y51" s="125"/>
-      <c r="Z51" s="121"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="98"/>
+      <c r="R51" s="96"/>
+      <c r="S51" s="98"/>
+      <c r="T51" s="98"/>
+      <c r="U51" s="96"/>
+      <c r="V51" s="98"/>
+      <c r="W51" s="98"/>
+      <c r="X51" s="96"/>
+      <c r="Y51" s="99"/>
+      <c r="Z51" s="95"/>
       <c r="AA51" s="25"/>
       <c r="AB51" s="25"/>
       <c r="AC51" s="25"/>
@@ -10268,59 +9471,59 @@
       <c r="C52" s="27">
         <v>21.8</v>
       </c>
-      <c r="D52" s="114">
-        <f>0.0031372+(E95*(25-C52))</f>
+      <c r="D52" s="88">
+        <f t="shared" si="9"/>
         <v>3.2512800000000001E-3</v>
       </c>
       <c r="E52" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.32</v>
       </c>
       <c r="F52" s="27">
         <v>19.100000000000001</v>
       </c>
       <c r="G52" s="27">
-        <f>0.0031372+(E95*(25-F52))</f>
+        <f t="shared" si="10"/>
         <v>3.347535E-3</v>
       </c>
       <c r="H52" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.59</v>
       </c>
       <c r="I52" s="27">
         <v>8.3000000000000007</v>
       </c>
       <c r="J52" s="27">
-        <f>0.0031372+(E95*(25-I52))</f>
+        <f t="shared" si="11"/>
         <v>3.7325550000000002E-3</v>
       </c>
       <c r="K52" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.67</v>
       </c>
       <c r="L52" s="31">
         <v>8.4</v>
       </c>
       <c r="M52" s="27">
-        <f>0.0031372+(E95*(25-L52))</f>
+        <f t="shared" si="12"/>
         <v>3.7289900000000002E-3</v>
       </c>
       <c r="N52" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.66</v>
       </c>
-      <c r="O52" s="122"/>
-      <c r="P52" s="124"/>
-      <c r="Q52" s="124"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="124"/>
-      <c r="T52" s="124"/>
-      <c r="U52" s="122"/>
-      <c r="V52" s="124"/>
-      <c r="W52" s="124"/>
-      <c r="X52" s="122"/>
-      <c r="Y52" s="125"/>
-      <c r="Z52" s="121"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="98"/>
+      <c r="Q52" s="98"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="98"/>
+      <c r="T52" s="98"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="98"/>
+      <c r="W52" s="98"/>
+      <c r="X52" s="96"/>
+      <c r="Y52" s="99"/>
+      <c r="Z52" s="95"/>
       <c r="AA52" s="25"/>
       <c r="AB52" s="25"/>
       <c r="AC52" s="25"/>
@@ -10342,59 +9545,59 @@
       <c r="C53" s="29">
         <v>21.9</v>
       </c>
-      <c r="D53" s="114">
-        <f>0.0031372+(E96*(25-C53))</f>
+      <c r="D53" s="88">
+        <f t="shared" si="9"/>
         <v>3.247715E-3</v>
       </c>
       <c r="E53" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.31</v>
       </c>
       <c r="F53" s="29">
         <v>18.399999999999999</v>
       </c>
       <c r="G53" s="27">
-        <f>0.0031372+(E96*(25-F53))</f>
+        <f t="shared" si="10"/>
         <v>3.3724900000000001E-3</v>
       </c>
       <c r="H53" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.66</v>
       </c>
       <c r="I53" s="29">
         <v>8.8000000000000007</v>
       </c>
       <c r="J53" s="27">
-        <f>0.0031372+(E96*(25-I53))</f>
+        <f t="shared" si="11"/>
         <v>3.7147300000000003E-3</v>
       </c>
       <c r="K53" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.62</v>
       </c>
       <c r="L53" s="30">
         <v>8.4</v>
       </c>
       <c r="M53" s="27">
-        <f>0.0031372+(E96*(25-L53))</f>
+        <f t="shared" si="12"/>
         <v>3.7289900000000002E-3</v>
       </c>
       <c r="N53" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.66</v>
       </c>
-      <c r="O53" s="122"/>
-      <c r="P53" s="124"/>
-      <c r="Q53" s="124"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="124"/>
-      <c r="T53" s="124"/>
-      <c r="U53" s="122"/>
-      <c r="V53" s="124"/>
-      <c r="W53" s="124"/>
-      <c r="X53" s="122"/>
-      <c r="Y53" s="125"/>
-      <c r="Z53" s="121"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
+      <c r="R53" s="96"/>
+      <c r="S53" s="98"/>
+      <c r="T53" s="98"/>
+      <c r="U53" s="96"/>
+      <c r="V53" s="98"/>
+      <c r="W53" s="98"/>
+      <c r="X53" s="96"/>
+      <c r="Y53" s="99"/>
+      <c r="Z53" s="95"/>
       <c r="AA53" s="25"/>
       <c r="AB53" s="25"/>
       <c r="AC53" s="25"/>
@@ -10416,59 +9619,59 @@
       <c r="C54" s="27">
         <v>21.5</v>
       </c>
-      <c r="D54" s="114">
-        <f>0.0031372+(E97*(25-C54))</f>
+      <c r="D54" s="88">
+        <f t="shared" si="9"/>
         <v>3.2619750000000003E-3</v>
       </c>
       <c r="E54" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.35</v>
       </c>
       <c r="F54" s="27">
         <v>18.600000000000001</v>
       </c>
       <c r="G54" s="27">
-        <f>0.0031372+(E97*(25-F54))</f>
+        <f t="shared" si="10"/>
         <v>3.36536E-3</v>
       </c>
       <c r="H54" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.6399999999999997</v>
       </c>
       <c r="I54" s="27">
         <v>9.1999999999999993</v>
       </c>
       <c r="J54" s="27">
-        <f>0.0031372+(E97*(25-I54))</f>
+        <f t="shared" si="11"/>
         <v>3.70047E-3</v>
       </c>
       <c r="K54" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.58</v>
       </c>
       <c r="L54" s="27">
         <v>8.1999999999999993</v>
       </c>
       <c r="M54" s="27">
-        <f>0.0031372+(E97*(25-L54))</f>
+        <f t="shared" si="12"/>
         <v>3.7361199999999999E-3</v>
       </c>
       <c r="N54" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.68</v>
       </c>
-      <c r="O54" s="122"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="124"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="124"/>
-      <c r="T54" s="124"/>
-      <c r="U54" s="122"/>
-      <c r="V54" s="124"/>
-      <c r="W54" s="124"/>
-      <c r="X54" s="122"/>
-      <c r="Y54" s="125"/>
-      <c r="Z54" s="121"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="98"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="98"/>
+      <c r="T54" s="98"/>
+      <c r="U54" s="96"/>
+      <c r="V54" s="98"/>
+      <c r="W54" s="98"/>
+      <c r="X54" s="96"/>
+      <c r="Y54" s="99"/>
+      <c r="Z54" s="95"/>
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
       <c r="AC54" s="25"/>
@@ -10490,59 +9693,59 @@
       <c r="C55" s="29">
         <v>20.8</v>
       </c>
-      <c r="D55" s="114">
-        <f>0.0031372+(E98*(25-C55))</f>
+      <c r="D55" s="88">
+        <f t="shared" si="9"/>
         <v>3.28693E-3</v>
       </c>
       <c r="E55" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.42</v>
       </c>
       <c r="F55" s="29">
         <v>17.5</v>
       </c>
       <c r="G55" s="27">
-        <f>0.0031372+(E98*(25-F55))</f>
+        <f t="shared" si="10"/>
         <v>3.404575E-3</v>
       </c>
       <c r="H55" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.75</v>
       </c>
       <c r="I55" s="29">
         <v>7.9</v>
       </c>
       <c r="J55" s="27">
-        <f>0.0031372+(E98*(25-I55))</f>
+        <f t="shared" si="11"/>
         <v>3.7468150000000001E-3</v>
       </c>
       <c r="K55" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.71</v>
       </c>
       <c r="L55" s="29">
         <v>8.1</v>
       </c>
       <c r="M55" s="27">
-        <f>0.0031372+(E98*(25-L55))</f>
+        <f t="shared" si="12"/>
         <v>3.739685E-3</v>
       </c>
       <c r="N55" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.6899999999999995</v>
       </c>
-      <c r="O55" s="122"/>
-      <c r="P55" s="124"/>
-      <c r="Q55" s="124"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="124"/>
-      <c r="T55" s="124"/>
-      <c r="U55" s="122"/>
-      <c r="V55" s="124"/>
-      <c r="W55" s="124"/>
-      <c r="X55" s="122"/>
-      <c r="Y55" s="125"/>
-      <c r="Z55" s="121"/>
+      <c r="O55" s="96"/>
+      <c r="P55" s="98"/>
+      <c r="Q55" s="98"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="98"/>
+      <c r="T55" s="98"/>
+      <c r="U55" s="96"/>
+      <c r="V55" s="98"/>
+      <c r="W55" s="98"/>
+      <c r="X55" s="96"/>
+      <c r="Y55" s="99"/>
+      <c r="Z55" s="95"/>
       <c r="AA55" s="25"/>
       <c r="AB55" s="25"/>
       <c r="AC55" s="25"/>
@@ -10564,59 +9767,59 @@
       <c r="C56" s="27">
         <v>19.8</v>
       </c>
-      <c r="D56" s="114">
-        <f>0.0031372+(E99*(25-C56))</f>
+      <c r="D56" s="88">
+        <f t="shared" si="9"/>
         <v>3.3225800000000003E-3</v>
       </c>
       <c r="E56" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.52</v>
       </c>
       <c r="F56" s="27">
         <v>15.6</v>
       </c>
       <c r="G56" s="27">
-        <f>0.0031372+(E99*(25-F56))</f>
+        <f t="shared" si="10"/>
         <v>3.4723100000000002E-3</v>
       </c>
       <c r="H56" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.94</v>
       </c>
       <c r="I56" s="27">
         <v>7.4</v>
       </c>
       <c r="J56" s="27">
-        <f>0.0031372+(E99*(25-I56))</f>
+        <f t="shared" si="11"/>
         <v>3.7646400000000001E-3</v>
       </c>
       <c r="K56" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.76</v>
       </c>
       <c r="L56" s="27">
         <v>8.5</v>
       </c>
       <c r="M56" s="27">
-        <f>0.0031372+(E99*(25-L56))</f>
+        <f t="shared" si="12"/>
         <v>3.7254250000000001E-3</v>
       </c>
       <c r="N56" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="O56" s="122"/>
-      <c r="P56" s="124"/>
-      <c r="Q56" s="124"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="124"/>
-      <c r="T56" s="124"/>
-      <c r="U56" s="122"/>
-      <c r="V56" s="124"/>
-      <c r="W56" s="124"/>
-      <c r="X56" s="122"/>
-      <c r="Y56" s="125"/>
-      <c r="Z56" s="121"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="98"/>
+      <c r="Q56" s="98"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="98"/>
+      <c r="T56" s="98"/>
+      <c r="U56" s="96"/>
+      <c r="V56" s="98"/>
+      <c r="W56" s="98"/>
+      <c r="X56" s="96"/>
+      <c r="Y56" s="99"/>
+      <c r="Z56" s="95"/>
       <c r="AA56" s="25"/>
       <c r="AB56" s="25"/>
       <c r="AC56" s="25"/>
@@ -10638,59 +9841,59 @@
       <c r="C57" s="29">
         <v>19</v>
       </c>
-      <c r="D57" s="114">
-        <f>0.0031372+(E100*(25-C57))</f>
+      <c r="D57" s="88">
+        <f t="shared" si="9"/>
         <v>3.3511000000000001E-3</v>
       </c>
       <c r="E57" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.6</v>
       </c>
       <c r="F57" s="29">
         <v>15</v>
       </c>
       <c r="G57" s="27">
-        <f>0.0031372+(E100*(25-F57))</f>
+        <f t="shared" si="10"/>
         <v>3.4937000000000002E-3</v>
       </c>
       <c r="H57" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="I57" s="29">
         <v>7.2</v>
       </c>
       <c r="J57" s="27">
-        <f>0.0031372+(E100*(25-I57))</f>
+        <f t="shared" si="11"/>
         <v>3.7717700000000002E-3</v>
       </c>
       <c r="K57" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.78</v>
       </c>
       <c r="L57" s="29">
         <v>9</v>
       </c>
       <c r="M57" s="27">
-        <f>0.0031372+(E100*(25-L57))</f>
+        <f t="shared" si="12"/>
         <v>3.7076000000000001E-3</v>
       </c>
       <c r="N57" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="O57" s="122"/>
-      <c r="P57" s="124"/>
-      <c r="Q57" s="124"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="124"/>
-      <c r="T57" s="124"/>
-      <c r="U57" s="122"/>
-      <c r="V57" s="124"/>
-      <c r="W57" s="124"/>
-      <c r="X57" s="122"/>
-      <c r="Y57" s="125"/>
-      <c r="Z57" s="121"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="98"/>
+      <c r="Q57" s="98"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="98"/>
+      <c r="T57" s="98"/>
+      <c r="U57" s="96"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
+      <c r="X57" s="96"/>
+      <c r="Y57" s="99"/>
+      <c r="Z57" s="95"/>
       <c r="AA57" s="25"/>
       <c r="AB57" s="25"/>
       <c r="AC57" s="25"/>
@@ -10712,59 +9915,59 @@
       <c r="C58" s="27">
         <v>19</v>
       </c>
-      <c r="D58" s="114">
-        <f>0.0031372+(E101*(25-C58))</f>
+      <c r="D58" s="88">
+        <f t="shared" si="9"/>
         <v>3.3511000000000001E-3</v>
       </c>
       <c r="E58" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.6</v>
       </c>
       <c r="F58" s="27">
         <v>13.8</v>
       </c>
       <c r="G58" s="27">
-        <f>0.0031372+(E101*(25-F58))</f>
+        <f t="shared" si="10"/>
         <v>3.5364800000000003E-3</v>
       </c>
       <c r="H58" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.12</v>
       </c>
       <c r="I58" s="27">
         <v>6.9</v>
       </c>
       <c r="J58" s="27">
-        <f>0.0031372+(E101*(25-I58))</f>
+        <f t="shared" si="11"/>
         <v>3.782465E-3</v>
       </c>
       <c r="K58" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.8100000000000005</v>
       </c>
       <c r="L58" s="27">
         <v>8.6</v>
       </c>
       <c r="M58" s="27">
-        <f>0.0031372+(E101*(25-L58))</f>
+        <f t="shared" si="12"/>
         <v>3.72186E-3</v>
       </c>
       <c r="N58" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.6399999999999997</v>
       </c>
-      <c r="O58" s="122"/>
-      <c r="P58" s="124"/>
-      <c r="Q58" s="124"/>
-      <c r="R58" s="122"/>
-      <c r="S58" s="124"/>
-      <c r="T58" s="124"/>
-      <c r="U58" s="122"/>
-      <c r="V58" s="124"/>
-      <c r="W58" s="124"/>
-      <c r="X58" s="122"/>
-      <c r="Y58" s="125"/>
-      <c r="Z58" s="121"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="98"/>
+      <c r="Q58" s="98"/>
+      <c r="R58" s="96"/>
+      <c r="S58" s="98"/>
+      <c r="T58" s="98"/>
+      <c r="U58" s="96"/>
+      <c r="V58" s="98"/>
+      <c r="W58" s="98"/>
+      <c r="X58" s="96"/>
+      <c r="Y58" s="99"/>
+      <c r="Z58" s="95"/>
       <c r="AA58" s="25"/>
       <c r="AB58" s="25"/>
       <c r="AC58" s="25"/>
@@ -10786,59 +9989,59 @@
       <c r="C59" s="29">
         <v>18.899999999999999</v>
       </c>
-      <c r="D59" s="114">
-        <f>0.0031372+(E102*(25-C59))</f>
+      <c r="D59" s="88">
+        <f t="shared" si="9"/>
         <v>3.3546650000000002E-3</v>
       </c>
       <c r="E59" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.6100000000000003</v>
       </c>
       <c r="F59" s="29">
         <v>15.8</v>
       </c>
       <c r="G59" s="27">
-        <f>0.0031372+(E102*(25-F59))</f>
+        <f t="shared" si="10"/>
         <v>3.46518E-3</v>
       </c>
       <c r="H59" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.92</v>
       </c>
       <c r="I59" s="29">
         <v>6.5</v>
       </c>
       <c r="J59" s="27">
-        <f>0.0031372+(E102*(25-I59))</f>
+        <f t="shared" si="11"/>
         <v>3.7967249999999999E-3</v>
       </c>
       <c r="K59" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="L59" s="29">
         <v>8</v>
       </c>
       <c r="M59" s="27">
-        <f>0.0031372+(E102*(25-L59))</f>
+        <f t="shared" si="12"/>
         <v>3.74325E-3</v>
       </c>
       <c r="N59" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.7</v>
       </c>
-      <c r="O59" s="122"/>
-      <c r="P59" s="124"/>
-      <c r="Q59" s="124"/>
-      <c r="R59" s="122"/>
-      <c r="S59" s="124"/>
-      <c r="T59" s="124"/>
-      <c r="U59" s="122"/>
-      <c r="V59" s="124"/>
-      <c r="W59" s="124"/>
-      <c r="X59" s="122"/>
-      <c r="Y59" s="125"/>
-      <c r="Z59" s="121"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="98"/>
+      <c r="Q59" s="98"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="98"/>
+      <c r="T59" s="98"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="98"/>
+      <c r="W59" s="98"/>
+      <c r="X59" s="96"/>
+      <c r="Y59" s="99"/>
+      <c r="Z59" s="95"/>
       <c r="AA59" s="25"/>
       <c r="AB59" s="25"/>
       <c r="AC59" s="25"/>
@@ -10858,65 +10061,65 @@
         <v>43</v>
       </c>
       <c r="C60" s="42">
-        <f t="shared" ref="C60:E60" si="10">SUM(C36:C59)/24</f>
+        <f t="shared" ref="C60:E60" si="17">SUM(C36:C59)/24</f>
         <v>19.349999999999998</v>
       </c>
-      <c r="D60" s="118">
+      <c r="D60" s="92">
         <f>SUM(D36:D59)/24</f>
         <v>3.3386225000000005E-3</v>
       </c>
       <c r="E60" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.5649999999999991</v>
       </c>
       <c r="F60" s="42">
-        <f t="shared" ref="F60" si="11">SUM(F36:F59)/24</f>
+        <f t="shared" ref="F60" si="18">SUM(F36:F59)/24</f>
         <v>16.487500000000001</v>
       </c>
-      <c r="G60" s="118">
+      <c r="G60" s="92">
         <f>SUM(G36:G59)/24</f>
         <v>3.4406706249999999E-3</v>
       </c>
       <c r="H60" s="42">
-        <f t="shared" ref="H60" si="12">SUM(H36:H59)/24</f>
+        <f t="shared" ref="H60" si="19">SUM(H36:H59)/24</f>
         <v>3.8512500000000003</v>
       </c>
       <c r="I60" s="42">
-        <f t="shared" ref="I60" si="13">SUM(I36:I59)/24</f>
+        <f t="shared" ref="I60" si="20">SUM(I36:I59)/24</f>
         <v>7.6750000000000007</v>
       </c>
-      <c r="J60" s="118">
+      <c r="J60" s="92">
         <f>SUM(J36:J59)/24</f>
         <v>3.7548362499999995E-3</v>
       </c>
       <c r="K60" s="42">
-        <f t="shared" ref="K60" si="14">SUM(K36:K59)/24</f>
+        <f t="shared" ref="K60" si="21">SUM(K36:K59)/24</f>
         <v>4.7324999999999999</v>
       </c>
       <c r="L60" s="42">
-        <f t="shared" ref="L60" si="15">SUM(L36:L59)/24</f>
+        <f t="shared" ref="L60" si="22">SUM(L36:L59)/24</f>
         <v>8.404166666666665</v>
       </c>
-      <c r="M60" s="117">
+      <c r="M60" s="91">
         <f>SUM(M36:M59)/24</f>
         <v>3.7288414583333336E-3</v>
       </c>
-      <c r="N60" s="126">
+      <c r="N60" s="100">
         <f>SUM(N36:N59)/24</f>
         <v>4.659583333333333</v>
       </c>
-      <c r="O60" s="122"/>
-      <c r="P60" s="124"/>
-      <c r="Q60" s="124"/>
-      <c r="R60" s="122"/>
-      <c r="S60" s="124"/>
-      <c r="T60" s="124"/>
-      <c r="U60" s="122"/>
-      <c r="V60" s="124"/>
-      <c r="W60" s="124"/>
-      <c r="X60" s="122"/>
-      <c r="Y60" s="125"/>
-      <c r="Z60" s="121"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="98"/>
+      <c r="Q60" s="98"/>
+      <c r="R60" s="96"/>
+      <c r="S60" s="98"/>
+      <c r="T60" s="98"/>
+      <c r="U60" s="96"/>
+      <c r="V60" s="98"/>
+      <c r="W60" s="98"/>
+      <c r="X60" s="96"/>
+      <c r="Y60" s="99"/>
+      <c r="Z60" s="95"/>
       <c r="AA60" s="25"/>
       <c r="AB60" s="25"/>
       <c r="AC60" s="25"/>
@@ -10932,31 +10135,31 @@
       <c r="AM60" s="25"/>
     </row>
     <row r="61" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B61" s="120"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="123"/>
-      <c r="K61" s="121"/>
-      <c r="L61" s="122"/>
-      <c r="M61" s="124"/>
-      <c r="N61" s="124"/>
-      <c r="O61" s="122"/>
-      <c r="P61" s="124"/>
-      <c r="Q61" s="124"/>
-      <c r="R61" s="122"/>
-      <c r="S61" s="124"/>
-      <c r="T61" s="124"/>
-      <c r="U61" s="122"/>
-      <c r="V61" s="124"/>
-      <c r="W61" s="124"/>
-      <c r="X61" s="122"/>
-      <c r="Y61" s="125"/>
-      <c r="Z61" s="121"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="98"/>
+      <c r="N61" s="98"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="98"/>
+      <c r="Q61" s="98"/>
+      <c r="R61" s="96"/>
+      <c r="S61" s="98"/>
+      <c r="T61" s="98"/>
+      <c r="U61" s="96"/>
+      <c r="V61" s="98"/>
+      <c r="W61" s="98"/>
+      <c r="X61" s="96"/>
+      <c r="Y61" s="99"/>
+      <c r="Z61" s="95"/>
       <c r="AA61" s="25"/>
       <c r="AB61" s="25"/>
       <c r="AC61" s="25"/>
@@ -10972,31 +10175,31 @@
       <c r="AM61" s="25"/>
     </row>
     <row r="62" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B62" s="120"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="121"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="121"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="123"/>
-      <c r="K62" s="121"/>
-      <c r="L62" s="122"/>
-      <c r="M62" s="124"/>
-      <c r="N62" s="124"/>
-      <c r="O62" s="122"/>
-      <c r="P62" s="124"/>
-      <c r="Q62" s="124"/>
-      <c r="R62" s="122"/>
-      <c r="S62" s="124"/>
-      <c r="T62" s="124"/>
-      <c r="U62" s="122"/>
-      <c r="V62" s="124"/>
-      <c r="W62" s="124"/>
-      <c r="X62" s="122"/>
-      <c r="Y62" s="125"/>
-      <c r="Z62" s="121"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="98"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="98"/>
+      <c r="R62" s="96"/>
+      <c r="S62" s="98"/>
+      <c r="T62" s="98"/>
+      <c r="U62" s="96"/>
+      <c r="V62" s="98"/>
+      <c r="W62" s="98"/>
+      <c r="X62" s="96"/>
+      <c r="Y62" s="99"/>
+      <c r="Z62" s="95"/>
       <c r="AA62" s="25"/>
       <c r="AB62" s="25"/>
       <c r="AC62" s="25"/>
@@ -11012,31 +10215,31 @@
       <c r="AM62" s="25"/>
     </row>
     <row r="63" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B63" s="120"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="121"/>
-      <c r="F63" s="121"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="121"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="123"/>
-      <c r="K63" s="121"/>
-      <c r="L63" s="122"/>
-      <c r="M63" s="124"/>
-      <c r="N63" s="124"/>
-      <c r="O63" s="122"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="124"/>
-      <c r="R63" s="122"/>
-      <c r="S63" s="124"/>
-      <c r="T63" s="124"/>
-      <c r="U63" s="122"/>
-      <c r="V63" s="124"/>
-      <c r="W63" s="124"/>
-      <c r="X63" s="122"/>
-      <c r="Y63" s="125"/>
-      <c r="Z63" s="121"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="98"/>
+      <c r="N63" s="98"/>
+      <c r="O63" s="96"/>
+      <c r="P63" s="98"/>
+      <c r="Q63" s="98"/>
+      <c r="R63" s="96"/>
+      <c r="S63" s="98"/>
+      <c r="T63" s="98"/>
+      <c r="U63" s="96"/>
+      <c r="V63" s="98"/>
+      <c r="W63" s="98"/>
+      <c r="X63" s="96"/>
+      <c r="Y63" s="99"/>
+      <c r="Z63" s="95"/>
       <c r="AA63" s="25"/>
       <c r="AB63" s="25"/>
       <c r="AC63" s="25"/>
@@ -11052,31 +10255,31 @@
       <c r="AM63" s="25"/>
     </row>
     <row r="64" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B64" s="120"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="121"/>
-      <c r="F64" s="121"/>
-      <c r="G64" s="121"/>
-      <c r="H64" s="121"/>
-      <c r="I64" s="122"/>
-      <c r="J64" s="123"/>
-      <c r="K64" s="121"/>
-      <c r="L64" s="122"/>
-      <c r="M64" s="124"/>
-      <c r="N64" s="124"/>
-      <c r="O64" s="122"/>
-      <c r="P64" s="124"/>
-      <c r="Q64" s="124"/>
-      <c r="R64" s="122"/>
-      <c r="S64" s="124"/>
-      <c r="T64" s="124"/>
-      <c r="U64" s="122"/>
-      <c r="V64" s="124"/>
-      <c r="W64" s="124"/>
-      <c r="X64" s="122"/>
-      <c r="Y64" s="125"/>
-      <c r="Z64" s="121"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="95"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="95"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="98"/>
+      <c r="N64" s="98"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="98"/>
+      <c r="Q64" s="98"/>
+      <c r="R64" s="96"/>
+      <c r="S64" s="98"/>
+      <c r="T64" s="98"/>
+      <c r="U64" s="96"/>
+      <c r="V64" s="98"/>
+      <c r="W64" s="98"/>
+      <c r="X64" s="96"/>
+      <c r="Y64" s="99"/>
+      <c r="Z64" s="95"/>
       <c r="AA64" s="25"/>
       <c r="AB64" s="25"/>
       <c r="AC64" s="25"/>
@@ -11092,31 +10295,31 @@
       <c r="AM64" s="25"/>
     </row>
     <row r="65" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B65" s="120"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="121"/>
-      <c r="E65" s="121"/>
-      <c r="F65" s="121"/>
-      <c r="G65" s="121"/>
-      <c r="H65" s="121"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="123"/>
-      <c r="K65" s="121"/>
-      <c r="L65" s="122"/>
-      <c r="M65" s="124"/>
-      <c r="N65" s="124"/>
-      <c r="O65" s="122"/>
-      <c r="P65" s="124"/>
-      <c r="Q65" s="124"/>
-      <c r="R65" s="122"/>
-      <c r="S65" s="124"/>
-      <c r="T65" s="124"/>
-      <c r="U65" s="122"/>
-      <c r="V65" s="124"/>
-      <c r="W65" s="124"/>
-      <c r="X65" s="122"/>
-      <c r="Y65" s="125"/>
-      <c r="Z65" s="121"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="96"/>
+      <c r="M65" s="98"/>
+      <c r="N65" s="98"/>
+      <c r="O65" s="96"/>
+      <c r="P65" s="98"/>
+      <c r="Q65" s="98"/>
+      <c r="R65" s="96"/>
+      <c r="S65" s="98"/>
+      <c r="T65" s="98"/>
+      <c r="U65" s="96"/>
+      <c r="V65" s="98"/>
+      <c r="W65" s="98"/>
+      <c r="X65" s="96"/>
+      <c r="Y65" s="99"/>
+      <c r="Z65" s="95"/>
       <c r="AA65" s="25"/>
       <c r="AB65" s="25"/>
       <c r="AC65" s="25"/>
@@ -11132,31 +10335,31 @@
       <c r="AM65" s="25"/>
     </row>
     <row r="66" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B66" s="120"/>
-      <c r="C66" s="121"/>
-      <c r="D66" s="121"/>
-      <c r="E66" s="121"/>
-      <c r="F66" s="121"/>
-      <c r="G66" s="121"/>
-      <c r="H66" s="121"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="123"/>
-      <c r="K66" s="121"/>
-      <c r="L66" s="122"/>
-      <c r="M66" s="124"/>
-      <c r="N66" s="124"/>
-      <c r="O66" s="122"/>
-      <c r="P66" s="124"/>
-      <c r="Q66" s="124"/>
-      <c r="R66" s="122"/>
-      <c r="S66" s="124"/>
-      <c r="T66" s="124"/>
-      <c r="U66" s="122"/>
-      <c r="V66" s="124"/>
-      <c r="W66" s="124"/>
-      <c r="X66" s="122"/>
-      <c r="Y66" s="125"/>
-      <c r="Z66" s="121"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="98"/>
+      <c r="Q66" s="98"/>
+      <c r="R66" s="96"/>
+      <c r="S66" s="98"/>
+      <c r="T66" s="98"/>
+      <c r="U66" s="96"/>
+      <c r="V66" s="98"/>
+      <c r="W66" s="98"/>
+      <c r="X66" s="96"/>
+      <c r="Y66" s="99"/>
+      <c r="Z66" s="95"/>
       <c r="AA66" s="25"/>
       <c r="AB66" s="25"/>
       <c r="AC66" s="25"/>
@@ -11172,31 +10375,31 @@
       <c r="AM66" s="25"/>
     </row>
     <row r="67" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B67" s="120"/>
-      <c r="C67" s="121"/>
-      <c r="D67" s="121"/>
-      <c r="E67" s="121"/>
-      <c r="F67" s="121"/>
-      <c r="G67" s="121"/>
-      <c r="H67" s="121"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="123"/>
-      <c r="K67" s="121"/>
-      <c r="L67" s="122"/>
-      <c r="M67" s="124"/>
-      <c r="N67" s="124"/>
-      <c r="O67" s="122"/>
-      <c r="P67" s="124"/>
-      <c r="Q67" s="124"/>
-      <c r="R67" s="122"/>
-      <c r="S67" s="124"/>
-      <c r="T67" s="124"/>
-      <c r="U67" s="122"/>
-      <c r="V67" s="124"/>
-      <c r="W67" s="124"/>
-      <c r="X67" s="122"/>
-      <c r="Y67" s="125"/>
-      <c r="Z67" s="121"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="97"/>
+      <c r="K67" s="95"/>
+      <c r="L67" s="96"/>
+      <c r="M67" s="98"/>
+      <c r="N67" s="98"/>
+      <c r="O67" s="96"/>
+      <c r="P67" s="98"/>
+      <c r="Q67" s="98"/>
+      <c r="R67" s="96"/>
+      <c r="S67" s="98"/>
+      <c r="T67" s="98"/>
+      <c r="U67" s="96"/>
+      <c r="V67" s="98"/>
+      <c r="W67" s="98"/>
+      <c r="X67" s="96"/>
+      <c r="Y67" s="99"/>
+      <c r="Z67" s="95"/>
       <c r="AA67" s="25"/>
       <c r="AB67" s="25"/>
       <c r="AC67" s="25"/>
@@ -11212,31 +10415,31 @@
       <c r="AM67" s="25"/>
     </row>
     <row r="68" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B68" s="120"/>
-      <c r="C68" s="121"/>
-      <c r="D68" s="121"/>
-      <c r="E68" s="121"/>
-      <c r="F68" s="121"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="123"/>
-      <c r="K68" s="121"/>
-      <c r="L68" s="122"/>
-      <c r="M68" s="124"/>
-      <c r="N68" s="124"/>
-      <c r="O68" s="122"/>
-      <c r="P68" s="124"/>
-      <c r="Q68" s="124"/>
-      <c r="R68" s="122"/>
-      <c r="S68" s="124"/>
-      <c r="T68" s="124"/>
-      <c r="U68" s="122"/>
-      <c r="V68" s="124"/>
-      <c r="W68" s="124"/>
-      <c r="X68" s="122"/>
-      <c r="Y68" s="125"/>
-      <c r="Z68" s="121"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="96"/>
+      <c r="M68" s="98"/>
+      <c r="N68" s="98"/>
+      <c r="O68" s="96"/>
+      <c r="P68" s="98"/>
+      <c r="Q68" s="98"/>
+      <c r="R68" s="96"/>
+      <c r="S68" s="98"/>
+      <c r="T68" s="98"/>
+      <c r="U68" s="96"/>
+      <c r="V68" s="98"/>
+      <c r="W68" s="98"/>
+      <c r="X68" s="96"/>
+      <c r="Y68" s="99"/>
+      <c r="Z68" s="95"/>
       <c r="AA68" s="25"/>
       <c r="AB68" s="25"/>
       <c r="AC68" s="25"/>
@@ -11252,31 +10455,31 @@
       <c r="AM68" s="25"/>
     </row>
     <row r="69" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B69" s="120"/>
-      <c r="C69" s="121"/>
-      <c r="D69" s="121"/>
-      <c r="E69" s="121"/>
-      <c r="F69" s="121"/>
-      <c r="G69" s="121"/>
-      <c r="H69" s="121"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="123"/>
-      <c r="K69" s="121"/>
-      <c r="L69" s="122"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="122"/>
-      <c r="P69" s="124"/>
-      <c r="Q69" s="124"/>
-      <c r="R69" s="122"/>
-      <c r="S69" s="124"/>
-      <c r="T69" s="124"/>
-      <c r="U69" s="122"/>
-      <c r="V69" s="124"/>
-      <c r="W69" s="124"/>
-      <c r="X69" s="122"/>
-      <c r="Y69" s="125"/>
-      <c r="Z69" s="121"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="95"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="98"/>
+      <c r="N69" s="98"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="98"/>
+      <c r="Q69" s="98"/>
+      <c r="R69" s="96"/>
+      <c r="S69" s="98"/>
+      <c r="T69" s="98"/>
+      <c r="U69" s="96"/>
+      <c r="V69" s="98"/>
+      <c r="W69" s="98"/>
+      <c r="X69" s="96"/>
+      <c r="Y69" s="99"/>
+      <c r="Z69" s="95"/>
       <c r="AA69" s="25"/>
       <c r="AB69" s="25"/>
       <c r="AC69" s="25"/>
@@ -11292,31 +10495,31 @@
       <c r="AM69" s="25"/>
     </row>
     <row r="70" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B70" s="120"/>
-      <c r="C70" s="121"/>
-      <c r="D70" s="121"/>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="121"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="123"/>
-      <c r="K70" s="121"/>
-      <c r="L70" s="122"/>
-      <c r="M70" s="124"/>
-      <c r="N70" s="124"/>
-      <c r="O70" s="122"/>
-      <c r="P70" s="124"/>
-      <c r="Q70" s="124"/>
-      <c r="R70" s="122"/>
-      <c r="S70" s="124"/>
-      <c r="T70" s="124"/>
-      <c r="U70" s="122"/>
-      <c r="V70" s="124"/>
-      <c r="W70" s="124"/>
-      <c r="X70" s="122"/>
-      <c r="Y70" s="125"/>
-      <c r="Z70" s="121"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="97"/>
+      <c r="K70" s="95"/>
+      <c r="L70" s="96"/>
+      <c r="M70" s="98"/>
+      <c r="N70" s="98"/>
+      <c r="O70" s="96"/>
+      <c r="P70" s="98"/>
+      <c r="Q70" s="98"/>
+      <c r="R70" s="96"/>
+      <c r="S70" s="98"/>
+      <c r="T70" s="98"/>
+      <c r="U70" s="96"/>
+      <c r="V70" s="98"/>
+      <c r="W70" s="98"/>
+      <c r="X70" s="96"/>
+      <c r="Y70" s="99"/>
+      <c r="Z70" s="95"/>
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
       <c r="AC70" s="25"/>
@@ -11332,31 +10535,31 @@
       <c r="AM70" s="25"/>
     </row>
     <row r="71" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B71" s="120"/>
-      <c r="C71" s="121"/>
-      <c r="D71" s="121"/>
-      <c r="E71" s="121"/>
-      <c r="F71" s="121"/>
-      <c r="G71" s="121"/>
-      <c r="H71" s="121"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="123"/>
-      <c r="K71" s="121"/>
-      <c r="L71" s="122"/>
-      <c r="M71" s="124"/>
-      <c r="N71" s="124"/>
-      <c r="O71" s="122"/>
-      <c r="P71" s="124"/>
-      <c r="Q71" s="124"/>
-      <c r="R71" s="122"/>
-      <c r="S71" s="124"/>
-      <c r="T71" s="124"/>
-      <c r="U71" s="122"/>
-      <c r="V71" s="124"/>
-      <c r="W71" s="124"/>
-      <c r="X71" s="122"/>
-      <c r="Y71" s="125"/>
-      <c r="Z71" s="121"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="95"/>
+      <c r="L71" s="96"/>
+      <c r="M71" s="98"/>
+      <c r="N71" s="98"/>
+      <c r="O71" s="96"/>
+      <c r="P71" s="98"/>
+      <c r="Q71" s="98"/>
+      <c r="R71" s="96"/>
+      <c r="S71" s="98"/>
+      <c r="T71" s="98"/>
+      <c r="U71" s="96"/>
+      <c r="V71" s="98"/>
+      <c r="W71" s="98"/>
+      <c r="X71" s="96"/>
+      <c r="Y71" s="99"/>
+      <c r="Z71" s="95"/>
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
       <c r="AC71" s="25"/>
@@ -11372,31 +10575,31 @@
       <c r="AM71" s="25"/>
     </row>
     <row r="72" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B72" s="120"/>
-      <c r="C72" s="121"/>
-      <c r="D72" s="121"/>
-      <c r="E72" s="121"/>
-      <c r="F72" s="121"/>
-      <c r="G72" s="121"/>
-      <c r="H72" s="121"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="123"/>
-      <c r="K72" s="121"/>
-      <c r="L72" s="122"/>
-      <c r="M72" s="124"/>
-      <c r="N72" s="124"/>
-      <c r="O72" s="122"/>
-      <c r="P72" s="124"/>
-      <c r="Q72" s="124"/>
-      <c r="R72" s="122"/>
-      <c r="S72" s="124"/>
-      <c r="T72" s="124"/>
-      <c r="U72" s="122"/>
-      <c r="V72" s="124"/>
-      <c r="W72" s="124"/>
-      <c r="X72" s="122"/>
-      <c r="Y72" s="125"/>
-      <c r="Z72" s="121"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="97"/>
+      <c r="K72" s="95"/>
+      <c r="L72" s="96"/>
+      <c r="M72" s="98"/>
+      <c r="N72" s="98"/>
+      <c r="O72" s="96"/>
+      <c r="P72" s="98"/>
+      <c r="Q72" s="98"/>
+      <c r="R72" s="96"/>
+      <c r="S72" s="98"/>
+      <c r="T72" s="98"/>
+      <c r="U72" s="96"/>
+      <c r="V72" s="98"/>
+      <c r="W72" s="98"/>
+      <c r="X72" s="96"/>
+      <c r="Y72" s="99"/>
+      <c r="Z72" s="95"/>
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
       <c r="AC72" s="25"/>
@@ -11412,31 +10615,31 @@
       <c r="AM72" s="25"/>
     </row>
     <row r="73" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B73" s="120"/>
-      <c r="C73" s="121"/>
-      <c r="D73" s="121"/>
-      <c r="E73" s="121"/>
-      <c r="F73" s="121"/>
-      <c r="G73" s="121"/>
-      <c r="H73" s="121"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="123"/>
-      <c r="K73" s="121"/>
-      <c r="L73" s="122"/>
-      <c r="M73" s="124"/>
-      <c r="N73" s="124"/>
-      <c r="O73" s="122"/>
-      <c r="P73" s="124"/>
-      <c r="Q73" s="124"/>
-      <c r="R73" s="122"/>
-      <c r="S73" s="124"/>
-      <c r="T73" s="124"/>
-      <c r="U73" s="122"/>
-      <c r="V73" s="124"/>
-      <c r="W73" s="124"/>
-      <c r="X73" s="122"/>
-      <c r="Y73" s="125"/>
-      <c r="Z73" s="121"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="95"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="97"/>
+      <c r="K73" s="95"/>
+      <c r="L73" s="96"/>
+      <c r="M73" s="98"/>
+      <c r="N73" s="98"/>
+      <c r="O73" s="96"/>
+      <c r="P73" s="98"/>
+      <c r="Q73" s="98"/>
+      <c r="R73" s="96"/>
+      <c r="S73" s="98"/>
+      <c r="T73" s="98"/>
+      <c r="U73" s="96"/>
+      <c r="V73" s="98"/>
+      <c r="W73" s="98"/>
+      <c r="X73" s="96"/>
+      <c r="Y73" s="99"/>
+      <c r="Z73" s="95"/>
       <c r="AA73" s="25"/>
       <c r="AB73" s="25"/>
       <c r="AC73" s="25"/>
@@ -11452,31 +10655,31 @@
       <c r="AM73" s="25"/>
     </row>
     <row r="74" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B74" s="120"/>
-      <c r="C74" s="121"/>
-      <c r="D74" s="121"/>
-      <c r="E74" s="121"/>
-      <c r="F74" s="121"/>
-      <c r="G74" s="121"/>
-      <c r="H74" s="121"/>
-      <c r="I74" s="122"/>
-      <c r="J74" s="123"/>
-      <c r="K74" s="121"/>
-      <c r="L74" s="122"/>
-      <c r="M74" s="124"/>
-      <c r="N74" s="124"/>
-      <c r="O74" s="122"/>
-      <c r="P74" s="124"/>
-      <c r="Q74" s="124"/>
-      <c r="R74" s="122"/>
-      <c r="S74" s="124"/>
-      <c r="T74" s="124"/>
-      <c r="U74" s="122"/>
-      <c r="V74" s="124"/>
-      <c r="W74" s="124"/>
-      <c r="X74" s="122"/>
-      <c r="Y74" s="125"/>
-      <c r="Z74" s="121"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="95"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="95"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="98"/>
+      <c r="N74" s="98"/>
+      <c r="O74" s="96"/>
+      <c r="P74" s="98"/>
+      <c r="Q74" s="98"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="98"/>
+      <c r="T74" s="98"/>
+      <c r="U74" s="96"/>
+      <c r="V74" s="98"/>
+      <c r="W74" s="98"/>
+      <c r="X74" s="96"/>
+      <c r="Y74" s="99"/>
+      <c r="Z74" s="95"/>
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
       <c r="AC74" s="25"/>
@@ -11660,11 +10863,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -11700,7 +10903,7 @@
       <c r="D3" s="82">
         <v>5</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="84">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="F3" s="82">
@@ -11725,37 +10928,37 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="111">
+      <c r="C20" s="85">
         <f>(F3-E3)/(20)</f>
         <v>3.5649999999999986E-5</v>
       </c>
@@ -11772,4 +10975,369 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="122"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="34"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D8" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="101"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D9" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="2">
+        <v>99</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f>(((200+8)/(20))+16.6)/0.78</f>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="E22">
+        <f>(((956+33.5)/(20))+92.28)/6</f>
+        <v>23.625833333333333</v>
+      </c>
+      <c r="F22">
+        <f>(70+1.4)/(15*0.99)</f>
+        <v>4.8080808080808088</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>4.6111111111111101E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D25" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="105"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28">
+        <v>42.4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30">
+        <v>62.28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f>86000*0.0036*0.2</f>
+        <v>61.919999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F32" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="93">
+        <f>16.06/3600</f>
+        <v>4.461111111111111E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f>E27/3600</f>
+        <v>4.6111111111111118E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f>E30/3600</f>
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D36" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Final Report/Figures & Tables/p2h- p-H tables.xlsx
+++ b/Final Report/Figures & Tables/p2h- p-H tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
   <si>
     <t>H2</t>
   </si>
@@ -925,6 +925,207 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>Tamb_avg</t>
+  </si>
+  <si>
+    <t>Industrial P2G</t>
+  </si>
+  <si>
+    <t>District Heating P2H</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">max </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/s]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/s]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">min </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[⁰C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">R </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Tur"/>
+        <charset val="162"/>
+      </rPr>
+      <t>⁰C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1391,7 +1592,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1556,9 +1757,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1609,6 +1807,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1686,6 +1885,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1902,11 +2107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162158592"/>
-        <c:axId val="221465984"/>
+        <c:axId val="204166656"/>
+        <c:axId val="183364992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162158592"/>
+        <c:axId val="204166656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +2158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221465984"/>
+        <c:crossAx val="183364992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1961,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221465984"/>
+        <c:axId val="183364992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +2195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162158592"/>
+        <c:crossAx val="204166656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2682,15 +2887,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>219656</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>53800</xdr:rowOff>
+      <xdr:rowOff>146564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>287744</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152478</xdr:rowOff>
+      <xdr:colOff>483704</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56203</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2713,8 +2918,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617220" y="2065480"/>
-          <a:ext cx="3848461" cy="830198"/>
+          <a:off x="829256" y="2200651"/>
+          <a:ext cx="3835509" cy="837291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5371,10 +5576,10 @@
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="93">
+      <c r="G32" s="92">
         <f>16.06/3600</f>
         <v>4.461111111111111E-3</v>
       </c>
@@ -7015,8 +7220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM200"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7107,16 +7312,16 @@
       <c r="P6" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="101">
+      <c r="Q6" s="100">
         <v>25</v>
       </c>
-      <c r="R6" s="101">
+      <c r="R6" s="100">
         <v>5</v>
       </c>
-      <c r="S6" s="84">
+      <c r="S6" s="83">
         <v>3.1372000000000001E-3</v>
       </c>
-      <c r="T6" s="101">
+      <c r="T6" s="100">
         <v>3.8501999999999998E-3</v>
       </c>
     </row>
@@ -7147,16 +7352,16 @@
       <c r="P7" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="101">
+      <c r="Q7" s="100">
         <v>25</v>
       </c>
-      <c r="R7" s="101">
+      <c r="R7" s="100">
         <v>5</v>
       </c>
-      <c r="S7" s="101">
+      <c r="S7" s="100">
         <v>3</v>
       </c>
-      <c r="T7" s="101">
+      <c r="T7" s="100">
         <v>4</v>
       </c>
       <c r="AA7" s="24"/>
@@ -7210,7 +7415,7 @@
       <c r="C9" s="27">
         <v>6.8</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="85">
         <f>0.0031372+(E79*(25-C9))</f>
         <v>3.7860300000000001E-3</v>
       </c>
@@ -7221,7 +7426,7 @@
       <c r="F9" s="27">
         <v>8.6</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="87">
         <f t="shared" ref="G9:G32" si="0">0.0031372+(E79*(25-F9))</f>
         <v>3.72186E-3</v>
       </c>
@@ -7232,7 +7437,7 @@
       <c r="I9" s="27">
         <v>5.3</v>
       </c>
-      <c r="J9" s="89">
+      <c r="J9" s="88">
         <f t="shared" ref="J9:J32" si="1">0.0031372+(E79*(25-I9))</f>
         <v>3.839505E-3</v>
       </c>
@@ -7243,7 +7448,7 @@
       <c r="L9" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="M9" s="88">
+      <c r="M9" s="87">
         <f t="shared" ref="M9:M24" si="2">0.0031372+(E79*(25-L9))</f>
         <v>3.4366600000000002E-3</v>
       </c>
@@ -7296,7 +7501,7 @@
       <c r="C10" s="29">
         <v>6.9</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="86">
         <f>0.0031372+(E79*(25-C10))</f>
         <v>3.782465E-3</v>
       </c>
@@ -7307,7 +7512,7 @@
       <c r="F10" s="29">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="87">
         <f t="shared" si="0"/>
         <v>3.7147300000000003E-3</v>
       </c>
@@ -7318,7 +7523,7 @@
       <c r="I10" s="29">
         <v>5.5</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="88">
         <f t="shared" si="1"/>
         <v>3.8323750000000003E-3</v>
       </c>
@@ -7329,7 +7534,7 @@
       <c r="L10" s="29">
         <v>17</v>
       </c>
-      <c r="M10" s="88">
+      <c r="M10" s="87">
         <f t="shared" si="2"/>
         <v>3.4223999999999999E-3</v>
       </c>
@@ -7382,7 +7587,7 @@
       <c r="C11" s="27">
         <v>7.3</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="85">
         <f>0.0031372+(E79*(25-C11))</f>
         <v>3.7682050000000002E-3</v>
       </c>
@@ -7393,7 +7598,7 @@
       <c r="F11" s="27">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="87">
         <f t="shared" si="0"/>
         <v>3.7147300000000003E-3</v>
       </c>
@@ -7404,7 +7609,7 @@
       <c r="I11" s="27">
         <v>5</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="88">
         <f t="shared" si="1"/>
         <v>3.8502000000000002E-3</v>
       </c>
@@ -7415,7 +7620,7 @@
       <c r="L11" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="87">
         <f t="shared" si="2"/>
         <v>3.4366600000000002E-3</v>
       </c>
@@ -7468,7 +7673,7 @@
       <c r="C12" s="29">
         <v>7.8</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="85">
         <f>0.0031372+(E82*(25-C12))</f>
         <v>3.7503800000000002E-3</v>
       </c>
@@ -7479,7 +7684,7 @@
       <c r="F12" s="29">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="87">
         <f t="shared" si="0"/>
         <v>3.7182949999999999E-3</v>
       </c>
@@ -7490,7 +7695,7 @@
       <c r="I12" s="29">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="88">
         <f t="shared" si="1"/>
         <v>3.8466350000000002E-3</v>
       </c>
@@ -7501,7 +7706,7 @@
       <c r="L12" s="29">
         <v>16</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="87">
         <f t="shared" si="2"/>
         <v>3.4580500000000003E-3</v>
       </c>
@@ -7554,7 +7759,7 @@
       <c r="C13" s="27">
         <v>8.1</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="86">
         <f>0.0031372+(E82*(25-C13))</f>
         <v>3.739685E-3</v>
       </c>
@@ -7565,7 +7770,7 @@
       <c r="F13" s="27">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="87">
         <f t="shared" si="0"/>
         <v>3.7182949999999999E-3</v>
       </c>
@@ -7576,7 +7781,7 @@
       <c r="I13" s="27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="88">
         <f t="shared" si="1"/>
         <v>3.8537650000000003E-3</v>
       </c>
@@ -7587,7 +7792,7 @@
       <c r="L13" s="27">
         <v>15.5</v>
       </c>
-      <c r="M13" s="88">
+      <c r="M13" s="87">
         <f t="shared" si="2"/>
         <v>3.4758750000000002E-3</v>
       </c>
@@ -7640,7 +7845,7 @@
       <c r="C14" s="29">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="85">
         <f>0.0031372+(E82*(25-C14))</f>
         <v>3.7147300000000003E-3</v>
       </c>
@@ -7651,7 +7856,7 @@
       <c r="F14" s="29">
         <v>9</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="87">
         <f t="shared" si="0"/>
         <v>3.7076000000000001E-3</v>
       </c>
@@ -7662,7 +7867,7 @@
       <c r="I14" s="29">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J14" s="89">
+      <c r="J14" s="88">
         <f t="shared" si="1"/>
         <v>3.8537650000000003E-3</v>
       </c>
@@ -7673,7 +7878,7 @@
       <c r="L14" s="29">
         <v>15</v>
       </c>
-      <c r="M14" s="88">
+      <c r="M14" s="87">
         <f t="shared" si="2"/>
         <v>3.4937000000000002E-3</v>
       </c>
@@ -7726,7 +7931,7 @@
       <c r="C15" s="27">
         <v>9</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="85">
         <f>0.0031372+(E85*(25-C15))</f>
         <v>3.7076000000000001E-3</v>
       </c>
@@ -7737,7 +7942,7 @@
       <c r="F15" s="27">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="87">
         <f t="shared" si="0"/>
         <v>3.70047E-3</v>
       </c>
@@ -7748,7 +7953,7 @@
       <c r="I15" s="27">
         <v>5.3</v>
       </c>
-      <c r="J15" s="89">
+      <c r="J15" s="88">
         <f t="shared" si="1"/>
         <v>3.839505E-3</v>
       </c>
@@ -7759,7 +7964,7 @@
       <c r="L15" s="27">
         <v>14.9</v>
       </c>
-      <c r="M15" s="88">
+      <c r="M15" s="87">
         <f t="shared" si="2"/>
         <v>3.4972650000000003E-3</v>
       </c>
@@ -7812,7 +8017,7 @@
       <c r="C16" s="29">
         <v>7.4</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D16" s="86">
         <f>0.0031372+(E85*(25-C16))</f>
         <v>3.7646400000000001E-3</v>
       </c>
@@ -7823,7 +8028,7 @@
       <c r="F16" s="29">
         <v>9.1</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="87">
         <f t="shared" si="0"/>
         <v>3.7040350000000001E-3</v>
       </c>
@@ -7834,7 +8039,7 @@
       <c r="I16" s="29">
         <v>6.1</v>
       </c>
-      <c r="J16" s="89">
+      <c r="J16" s="88">
         <f t="shared" si="1"/>
         <v>3.8109850000000002E-3</v>
       </c>
@@ -7845,7 +8050,7 @@
       <c r="L16" s="29">
         <v>16.3</v>
       </c>
-      <c r="M16" s="88">
+      <c r="M16" s="87">
         <f t="shared" si="2"/>
         <v>3.447355E-3</v>
       </c>
@@ -7898,7 +8103,7 @@
       <c r="C17" s="27">
         <v>6.8</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="85">
         <f>0.0031372+(E85*(25-C17))</f>
         <v>3.7860300000000001E-3</v>
       </c>
@@ -7909,7 +8114,7 @@
       <c r="F17" s="27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G17" s="88">
+      <c r="G17" s="87">
         <f t="shared" si="0"/>
         <v>3.6969050000000003E-3</v>
       </c>
@@ -7920,7 +8125,7 @@
       <c r="I17" s="27">
         <v>8</v>
       </c>
-      <c r="J17" s="89">
+      <c r="J17" s="88">
         <f t="shared" si="1"/>
         <v>3.74325E-3</v>
       </c>
@@ -7931,7 +8136,7 @@
       <c r="L17" s="27">
         <v>17.8</v>
       </c>
-      <c r="M17" s="88">
+      <c r="M17" s="87">
         <f t="shared" si="2"/>
         <v>3.3938800000000002E-3</v>
       </c>
@@ -7984,7 +8189,7 @@
       <c r="C18" s="29">
         <v>6.7</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="85">
         <f>0.0031372+(E88*(25-C18))</f>
         <v>3.7895950000000002E-3</v>
       </c>
@@ -7995,7 +8200,7 @@
       <c r="F18" s="29">
         <v>9.4</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="87">
         <f t="shared" si="0"/>
         <v>3.6933400000000003E-3</v>
       </c>
@@ -8006,7 +8211,7 @@
       <c r="I18" s="29">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J18" s="89">
+      <c r="J18" s="88">
         <f t="shared" si="1"/>
         <v>3.6969050000000003E-3</v>
       </c>
@@ -8017,7 +8222,7 @@
       <c r="L18" s="29">
         <v>19.899999999999999</v>
       </c>
-      <c r="M18" s="88">
+      <c r="M18" s="87">
         <f t="shared" si="2"/>
         <v>3.3190150000000002E-3</v>
       </c>
@@ -8070,7 +8275,7 @@
       <c r="C19" s="27">
         <v>7.1</v>
       </c>
-      <c r="D19" s="87">
+      <c r="D19" s="86">
         <f>0.0031372+(E88*(25-C19))</f>
         <v>3.7753350000000003E-3</v>
       </c>
@@ -8081,7 +8286,7 @@
       <c r="F19" s="27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="87">
         <f t="shared" si="0"/>
         <v>3.6969050000000003E-3</v>
       </c>
@@ -8092,7 +8297,7 @@
       <c r="I19" s="27">
         <v>11.5</v>
       </c>
-      <c r="J19" s="89">
+      <c r="J19" s="88">
         <f t="shared" si="1"/>
         <v>3.6184750000000003E-3</v>
       </c>
@@ -8103,7 +8308,7 @@
       <c r="L19" s="27">
         <v>22.2</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="87">
         <f t="shared" si="2"/>
         <v>3.2370200000000002E-3</v>
       </c>
@@ -8156,7 +8361,7 @@
       <c r="C20" s="29">
         <v>7.8</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="85">
         <f>0.0031372+(E88*(25-C20))</f>
         <v>3.7503800000000002E-3</v>
       </c>
@@ -8167,7 +8372,7 @@
       <c r="F20" s="29">
         <v>9.4</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="87">
         <f t="shared" si="0"/>
         <v>3.6933400000000003E-3</v>
       </c>
@@ -8178,7 +8383,7 @@
       <c r="I20" s="29">
         <v>10.3</v>
       </c>
-      <c r="J20" s="89">
+      <c r="J20" s="88">
         <f t="shared" si="1"/>
         <v>3.661255E-3</v>
       </c>
@@ -8189,7 +8394,7 @@
       <c r="L20" s="29">
         <v>24.4</v>
       </c>
-      <c r="M20" s="88">
+      <c r="M20" s="87">
         <f t="shared" si="2"/>
         <v>3.1585900000000002E-3</v>
       </c>
@@ -8242,7 +8447,7 @@
       <c r="C21" s="27">
         <v>8.1</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="85">
         <f>0.0031372+(E91*(25-C21))</f>
         <v>3.739685E-3</v>
       </c>
@@ -8253,7 +8458,7 @@
       <c r="F21" s="27">
         <v>9.1</v>
       </c>
-      <c r="G21" s="88">
+      <c r="G21" s="87">
         <f t="shared" si="0"/>
         <v>3.7040350000000001E-3</v>
       </c>
@@ -8264,7 +8469,7 @@
       <c r="I21" s="27">
         <v>12.5</v>
       </c>
-      <c r="J21" s="89">
+      <c r="J21" s="88">
         <f t="shared" si="1"/>
         <v>3.582825E-3</v>
       </c>
@@ -8275,7 +8480,7 @@
       <c r="L21" s="27">
         <v>23.3</v>
       </c>
-      <c r="M21" s="88">
+      <c r="M21" s="87">
         <f t="shared" si="2"/>
         <v>3.1978050000000002E-3</v>
       </c>
@@ -8328,7 +8533,7 @@
       <c r="C22" s="29">
         <v>8.6</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D22" s="86">
         <f>0.0031372+(E91*(25-C22))</f>
         <v>3.72186E-3</v>
       </c>
@@ -8339,7 +8544,7 @@
       <c r="F22" s="29">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G22" s="88">
+      <c r="G22" s="87">
         <f t="shared" si="0"/>
         <v>3.682645E-3</v>
       </c>
@@ -8350,7 +8555,7 @@
       <c r="I22" s="29">
         <v>13.5</v>
       </c>
-      <c r="J22" s="89">
+      <c r="J22" s="88">
         <f t="shared" si="1"/>
         <v>3.5471750000000001E-3</v>
       </c>
@@ -8361,7 +8566,7 @@
       <c r="L22" s="29">
         <v>22.8</v>
       </c>
-      <c r="M22" s="88">
+      <c r="M22" s="87">
         <f t="shared" si="2"/>
         <v>3.2156300000000001E-3</v>
       </c>
@@ -8414,7 +8619,7 @@
       <c r="C23" s="27">
         <v>8.6</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="85">
         <f>0.0031372+(E91*(25-C23))</f>
         <v>3.72186E-3</v>
       </c>
@@ -8425,7 +8630,7 @@
       <c r="F23" s="27">
         <v>9.9</v>
       </c>
-      <c r="G23" s="88">
+      <c r="G23" s="87">
         <f t="shared" si="0"/>
         <v>3.6755149999999999E-3</v>
       </c>
@@ -8436,7 +8641,7 @@
       <c r="I23" s="27">
         <v>12.7</v>
       </c>
-      <c r="J23" s="89">
+      <c r="J23" s="88">
         <f t="shared" si="1"/>
         <v>3.5756950000000003E-3</v>
       </c>
@@ -8447,7 +8652,7 @@
       <c r="L23" s="27">
         <v>24.2</v>
       </c>
-      <c r="M23" s="88">
+      <c r="M23" s="87">
         <f t="shared" si="2"/>
         <v>3.1657200000000003E-3</v>
       </c>
@@ -8500,7 +8705,7 @@
       <c r="C24" s="29">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="85">
         <f>0.0031372+(E94*(25-C24))</f>
         <v>3.7361199999999999E-3</v>
       </c>
@@ -8511,7 +8716,7 @@
       <c r="F24" s="29">
         <v>9.9</v>
       </c>
-      <c r="G24" s="88">
+      <c r="G24" s="87">
         <f t="shared" si="0"/>
         <v>3.6755149999999999E-3</v>
       </c>
@@ -8522,7 +8727,7 @@
       <c r="I24" s="29">
         <v>14</v>
       </c>
-      <c r="J24" s="89">
+      <c r="J24" s="88">
         <f t="shared" si="1"/>
         <v>3.5293500000000001E-3</v>
       </c>
@@ -8533,7 +8738,7 @@
       <c r="L24" s="29">
         <v>24</v>
       </c>
-      <c r="M24" s="88">
+      <c r="M24" s="87">
         <f t="shared" si="2"/>
         <v>3.1728500000000001E-3</v>
       </c>
@@ -8586,7 +8791,7 @@
       <c r="C25" s="31">
         <v>7.8</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="86">
         <f>0.0031372+(E94*(25-C25))</f>
         <v>3.7503800000000002E-3</v>
       </c>
@@ -8597,7 +8802,7 @@
       <c r="F25" s="27">
         <v>9.4</v>
       </c>
-      <c r="G25" s="88">
+      <c r="G25" s="87">
         <f t="shared" si="0"/>
         <v>3.6933400000000003E-3</v>
       </c>
@@ -8608,7 +8813,7 @@
       <c r="I25" s="27">
         <v>14.6</v>
       </c>
-      <c r="J25" s="89">
+      <c r="J25" s="88">
         <f t="shared" si="1"/>
         <v>3.5079600000000001E-3</v>
       </c>
@@ -8619,7 +8824,7 @@
       <c r="L25" s="27">
         <v>28.2</v>
       </c>
-      <c r="M25" s="88">
+      <c r="M25" s="87">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N25" s="27">
@@ -8670,7 +8875,7 @@
       <c r="C26" s="30">
         <v>7.2</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="85">
         <f>0.0031372+(E94*(25-C26))</f>
         <v>3.7717700000000002E-3</v>
       </c>
@@ -8681,7 +8886,7 @@
       <c r="F26" s="29">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="87">
         <f t="shared" si="0"/>
         <v>3.70047E-3</v>
       </c>
@@ -8692,7 +8897,7 @@
       <c r="I26" s="29">
         <v>14.4</v>
       </c>
-      <c r="J26" s="89">
+      <c r="J26" s="88">
         <f t="shared" si="1"/>
         <v>3.5150900000000002E-3</v>
       </c>
@@ -8703,7 +8908,7 @@
       <c r="L26" s="29">
         <v>28.7</v>
       </c>
-      <c r="M26" s="88">
+      <c r="M26" s="87">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N26" s="27">
@@ -8754,7 +8959,7 @@
       <c r="C27" s="27">
         <v>7</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="85">
         <f>0.0031372+(E97*(25-C27))</f>
         <v>3.7789E-3</v>
       </c>
@@ -8765,7 +8970,7 @@
       <c r="F27" s="27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G27" s="88">
+      <c r="G27" s="87">
         <f t="shared" si="0"/>
         <v>3.7361199999999999E-3</v>
       </c>
@@ -8776,7 +8981,7 @@
       <c r="I27" s="27">
         <v>14.6</v>
       </c>
-      <c r="J27" s="89">
+      <c r="J27" s="88">
         <f t="shared" si="1"/>
         <v>3.5079600000000001E-3</v>
       </c>
@@ -8787,7 +8992,7 @@
       <c r="L27" s="27">
         <v>28.6</v>
       </c>
-      <c r="M27" s="88">
+      <c r="M27" s="87">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N27" s="27">
@@ -8838,7 +9043,7 @@
       <c r="C28" s="29">
         <v>6.9</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="86">
         <f>0.0031372+(E97*(25-C28))</f>
         <v>3.782465E-3</v>
       </c>
@@ -8849,7 +9054,7 @@
       <c r="F28" s="29">
         <v>7.2</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="87">
         <f t="shared" si="0"/>
         <v>3.7717700000000002E-3</v>
       </c>
@@ -8860,7 +9065,7 @@
       <c r="I28" s="29">
         <v>14.1</v>
       </c>
-      <c r="J28" s="89">
+      <c r="J28" s="88">
         <f t="shared" si="1"/>
         <v>3.525785E-3</v>
       </c>
@@ -8871,7 +9076,7 @@
       <c r="L28" s="29">
         <v>27.8</v>
       </c>
-      <c r="M28" s="88">
+      <c r="M28" s="87">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N28" s="27">
@@ -8922,7 +9127,7 @@
       <c r="C29" s="27">
         <v>6.7</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="85">
         <f>0.0031372+(E97*(25-C29))</f>
         <v>3.7895950000000002E-3</v>
       </c>
@@ -8933,7 +9138,7 @@
       <c r="F29" s="27">
         <v>6.9</v>
       </c>
-      <c r="G29" s="88">
+      <c r="G29" s="87">
         <f t="shared" si="0"/>
         <v>3.782465E-3</v>
       </c>
@@ -8944,7 +9149,7 @@
       <c r="I29" s="27">
         <v>13.5</v>
       </c>
-      <c r="J29" s="89">
+      <c r="J29" s="88">
         <f t="shared" si="1"/>
         <v>3.5471750000000001E-3</v>
       </c>
@@ -8955,7 +9160,7 @@
       <c r="L29" s="27">
         <v>27.2</v>
       </c>
-      <c r="M29" s="88">
+      <c r="M29" s="87">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N29" s="27">
@@ -9006,7 +9211,7 @@
       <c r="C30" s="29">
         <v>6.5</v>
       </c>
-      <c r="D30" s="86">
+      <c r="D30" s="85">
         <f>0.0031372+(E100*(25-C30))</f>
         <v>3.7967249999999999E-3</v>
       </c>
@@ -9017,7 +9222,7 @@
       <c r="F30" s="29">
         <v>6.5</v>
       </c>
-      <c r="G30" s="88">
+      <c r="G30" s="87">
         <f t="shared" si="0"/>
         <v>3.7967249999999999E-3</v>
       </c>
@@ -9028,7 +9233,7 @@
       <c r="I30" s="29">
         <v>12.2</v>
       </c>
-      <c r="J30" s="89">
+      <c r="J30" s="88">
         <f t="shared" si="1"/>
         <v>3.5935200000000002E-3</v>
       </c>
@@ -9039,7 +9244,7 @@
       <c r="L30" s="29">
         <v>26.4</v>
       </c>
-      <c r="M30" s="88">
+      <c r="M30" s="87">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N30" s="27">
@@ -9090,7 +9295,7 @@
       <c r="C31" s="27">
         <v>6.4</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="86">
         <f>0.0031372+(E100*(25-C31))</f>
         <v>3.8002900000000004E-3</v>
       </c>
@@ -9101,7 +9306,7 @@
       <c r="F31" s="27">
         <v>5.8</v>
       </c>
-      <c r="G31" s="88">
+      <c r="G31" s="87">
         <f t="shared" si="0"/>
         <v>3.82168E-3</v>
       </c>
@@ -9112,7 +9317,7 @@
       <c r="I31" s="27">
         <v>11.2</v>
       </c>
-      <c r="J31" s="89">
+      <c r="J31" s="88">
         <f t="shared" si="1"/>
         <v>3.6291700000000001E-3</v>
       </c>
@@ -9123,7 +9328,7 @@
       <c r="L31" s="27">
         <v>24.9</v>
       </c>
-      <c r="M31" s="88">
+      <c r="M31" s="87">
         <f>0.0031372+(E101*(25-L31))</f>
         <v>3.1407650000000002E-3</v>
       </c>
@@ -9174,7 +9379,7 @@
       <c r="C32" s="29">
         <v>6.3</v>
       </c>
-      <c r="D32" s="86">
+      <c r="D32" s="85">
         <f>0.0031372+(E100*(25-C32))</f>
         <v>3.8038550000000001E-3</v>
       </c>
@@ -9185,7 +9390,7 @@
       <c r="F32" s="29">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G32" s="88">
+      <c r="G32" s="87">
         <f t="shared" si="0"/>
         <v>3.8466350000000002E-3</v>
       </c>
@@ -9196,7 +9401,7 @@
       <c r="I32" s="29">
         <v>11.1</v>
       </c>
-      <c r="J32" s="89">
+      <c r="J32" s="88">
         <f t="shared" si="1"/>
         <v>3.6327350000000002E-3</v>
       </c>
@@ -9207,7 +9412,7 @@
       <c r="L32" s="29">
         <v>24.2</v>
       </c>
-      <c r="M32" s="88">
+      <c r="M32" s="87">
         <f>0.0031372+(E102*(25-L32))</f>
         <v>3.1657200000000003E-3</v>
       </c>
@@ -9277,7 +9482,7 @@
         <f>SUM(I9:I32)/24</f>
         <v>9.9833333333333307</v>
       </c>
-      <c r="J33" s="90">
+      <c r="J33" s="89">
         <f>SUM(J9:J32)/24</f>
         <v>3.6725441666666677E-3</v>
       </c>
@@ -9289,7 +9494,7 @@
         <f t="shared" si="16"/>
         <v>21.770833333333332</v>
       </c>
-      <c r="M33" s="92">
+      <c r="M33" s="91">
         <f>SUM(M9:M32)/24</f>
         <v>3.2774233333333343E-3</v>
       </c>
@@ -9446,7 +9651,7 @@
       <c r="C36" s="27">
         <v>18.600000000000001</v>
       </c>
-      <c r="D36" s="88">
+      <c r="D36" s="87">
         <f t="shared" ref="D36:D59" si="17">0.0031372+(E79*(25-C36))</f>
         <v>3.36536E-3</v>
       </c>
@@ -9542,7 +9747,7 @@
       <c r="C37" s="29">
         <v>18.7</v>
       </c>
-      <c r="D37" s="88">
+      <c r="D37" s="87">
         <f t="shared" si="17"/>
         <v>3.3617950000000003E-3</v>
       </c>
@@ -9638,7 +9843,7 @@
       <c r="C38" s="27">
         <v>18.399999999999999</v>
       </c>
-      <c r="D38" s="88">
+      <c r="D38" s="87">
         <f t="shared" si="17"/>
         <v>3.3724900000000001E-3</v>
       </c>
@@ -9734,7 +9939,7 @@
       <c r="C39" s="29">
         <v>18.5</v>
       </c>
-      <c r="D39" s="88">
+      <c r="D39" s="87">
         <f t="shared" si="17"/>
         <v>3.368925E-3</v>
       </c>
@@ -9830,7 +10035,7 @@
       <c r="C40" s="27">
         <v>18.3</v>
       </c>
-      <c r="D40" s="88">
+      <c r="D40" s="87">
         <f t="shared" si="17"/>
         <v>3.3760550000000002E-3</v>
       </c>
@@ -9926,7 +10131,7 @@
       <c r="C41" s="29">
         <v>18</v>
       </c>
-      <c r="D41" s="88">
+      <c r="D41" s="87">
         <f t="shared" si="17"/>
         <v>3.38675E-3</v>
       </c>
@@ -10022,7 +10227,7 @@
       <c r="C42" s="27">
         <v>18</v>
       </c>
-      <c r="D42" s="88">
+      <c r="D42" s="87">
         <f t="shared" si="17"/>
         <v>3.38675E-3</v>
       </c>
@@ -10118,7 +10323,7 @@
       <c r="C43" s="29">
         <v>17.2</v>
       </c>
-      <c r="D43" s="88">
+      <c r="D43" s="87">
         <f t="shared" si="17"/>
         <v>3.4152700000000002E-3</v>
       </c>
@@ -10214,7 +10419,7 @@
       <c r="C44" s="27">
         <v>18.100000000000001</v>
       </c>
-      <c r="D44" s="88">
+      <c r="D44" s="87">
         <f t="shared" si="17"/>
         <v>3.3831849999999999E-3</v>
       </c>
@@ -10310,7 +10515,7 @@
       <c r="C45" s="29">
         <v>18.7</v>
       </c>
-      <c r="D45" s="88">
+      <c r="D45" s="87">
         <f t="shared" si="17"/>
         <v>3.3617950000000003E-3</v>
       </c>
@@ -10406,7 +10611,7 @@
       <c r="C46" s="27">
         <v>19.2</v>
       </c>
-      <c r="D46" s="88">
+      <c r="D46" s="87">
         <f t="shared" si="17"/>
         <v>3.3439700000000004E-3</v>
       </c>
@@ -10502,7 +10707,7 @@
       <c r="C47" s="29">
         <v>20.100000000000001</v>
       </c>
-      <c r="D47" s="88">
+      <c r="D47" s="87">
         <f t="shared" si="17"/>
         <v>3.3118850000000001E-3</v>
       </c>
@@ -10598,7 +10803,7 @@
       <c r="C48" s="27">
         <v>20.399999999999999</v>
       </c>
-      <c r="D48" s="88">
+      <c r="D48" s="87">
         <f t="shared" si="17"/>
         <v>3.3011900000000003E-3</v>
       </c>
@@ -10694,7 +10899,7 @@
       <c r="C49" s="29">
         <v>17.7</v>
       </c>
-      <c r="D49" s="88">
+      <c r="D49" s="87">
         <f t="shared" si="17"/>
         <v>3.3974450000000002E-3</v>
       </c>
@@ -10790,7 +10995,7 @@
       <c r="C50" s="27">
         <v>20.100000000000001</v>
       </c>
-      <c r="D50" s="88">
+      <c r="D50" s="87">
         <f t="shared" si="17"/>
         <v>3.3118850000000001E-3</v>
       </c>
@@ -10886,7 +11091,7 @@
       <c r="C51" s="29">
         <v>21.7</v>
       </c>
-      <c r="D51" s="88">
+      <c r="D51" s="87">
         <f t="shared" si="17"/>
         <v>3.2548450000000001E-3</v>
       </c>
@@ -10982,7 +11187,7 @@
       <c r="C52" s="27">
         <v>21.8</v>
       </c>
-      <c r="D52" s="88">
+      <c r="D52" s="87">
         <f t="shared" si="17"/>
         <v>3.2512800000000001E-3</v>
       </c>
@@ -11078,7 +11283,7 @@
       <c r="C53" s="29">
         <v>21.9</v>
       </c>
-      <c r="D53" s="88">
+      <c r="D53" s="87">
         <f t="shared" si="17"/>
         <v>3.247715E-3</v>
       </c>
@@ -11174,7 +11379,7 @@
       <c r="C54" s="27">
         <v>21.5</v>
       </c>
-      <c r="D54" s="88">
+      <c r="D54" s="87">
         <f t="shared" si="17"/>
         <v>3.2619750000000003E-3</v>
       </c>
@@ -11270,7 +11475,7 @@
       <c r="C55" s="29">
         <v>20.8</v>
       </c>
-      <c r="D55" s="88">
+      <c r="D55" s="87">
         <f t="shared" si="17"/>
         <v>3.28693E-3</v>
       </c>
@@ -11366,7 +11571,7 @@
       <c r="C56" s="27">
         <v>19.8</v>
       </c>
-      <c r="D56" s="88">
+      <c r="D56" s="87">
         <f t="shared" si="17"/>
         <v>3.3225800000000003E-3</v>
       </c>
@@ -11462,7 +11667,7 @@
       <c r="C57" s="29">
         <v>19</v>
       </c>
-      <c r="D57" s="88">
+      <c r="D57" s="87">
         <f t="shared" si="17"/>
         <v>3.3511000000000001E-3</v>
       </c>
@@ -11558,7 +11763,7 @@
       <c r="C58" s="27">
         <v>19</v>
       </c>
-      <c r="D58" s="88">
+      <c r="D58" s="87">
         <f t="shared" si="17"/>
         <v>3.3511000000000001E-3</v>
       </c>
@@ -11654,7 +11859,7 @@
       <c r="C59" s="29">
         <v>18.899999999999999</v>
       </c>
-      <c r="D59" s="88">
+      <c r="D59" s="87">
         <f t="shared" si="17"/>
         <v>3.3546650000000002E-3</v>
       </c>
@@ -11751,7 +11956,7 @@
         <f t="shared" ref="C60:E60" si="33">SUM(C36:C59)/24</f>
         <v>19.349999999999998</v>
       </c>
-      <c r="D60" s="92">
+      <c r="D60" s="91">
         <f>SUM(D36:D59)/24</f>
         <v>3.3386225000000005E-3</v>
       </c>
@@ -11763,7 +11968,7 @@
         <f t="shared" ref="F60" si="34">SUM(F36:F59)/24</f>
         <v>16.487500000000001</v>
       </c>
-      <c r="G60" s="92">
+      <c r="G60" s="91">
         <f>SUM(G36:G59)/24</f>
         <v>3.4406706249999999E-3</v>
       </c>
@@ -11775,7 +11980,7 @@
         <f t="shared" ref="I60" si="36">SUM(I36:I59)/24</f>
         <v>7.6750000000000007</v>
       </c>
-      <c r="J60" s="92">
+      <c r="J60" s="91">
         <f>SUM(J36:J59)/24</f>
         <v>3.7548362499999995E-3</v>
       </c>
@@ -11787,11 +11992,11 @@
         <f t="shared" ref="L60" si="38">SUM(L36:L59)/24</f>
         <v>8.404166666666665</v>
       </c>
-      <c r="M60" s="91">
+      <c r="M60" s="90">
         <f>SUM(M36:M59)/24</f>
         <v>3.7288414583333336E-3</v>
       </c>
-      <c r="N60" s="100">
+      <c r="N60" s="99">
         <f>SUM(N36:N59)/24</f>
         <v>3.8297916666666669</v>
       </c>
@@ -11963,31 +12168,31 @@
       <c r="AM67" s="25"/>
     </row>
     <row r="68" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B68" s="94"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="96"/>
-      <c r="J68" s="97"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="96"/>
-      <c r="M68" s="98"/>
-      <c r="N68" s="98"/>
-      <c r="O68" s="96"/>
-      <c r="P68" s="98"/>
-      <c r="Q68" s="98"/>
-      <c r="R68" s="96"/>
-      <c r="S68" s="98"/>
-      <c r="T68" s="98"/>
-      <c r="U68" s="96"/>
-      <c r="V68" s="98"/>
-      <c r="W68" s="98"/>
-      <c r="X68" s="96"/>
-      <c r="Y68" s="99"/>
-      <c r="Z68" s="95"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="94"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="94"/>
+      <c r="L68" s="95"/>
+      <c r="M68" s="97"/>
+      <c r="N68" s="97"/>
+      <c r="O68" s="95"/>
+      <c r="P68" s="97"/>
+      <c r="Q68" s="97"/>
+      <c r="R68" s="95"/>
+      <c r="S68" s="97"/>
+      <c r="T68" s="97"/>
+      <c r="U68" s="95"/>
+      <c r="V68" s="97"/>
+      <c r="W68" s="97"/>
+      <c r="X68" s="95"/>
+      <c r="Y68" s="98"/>
+      <c r="Z68" s="94"/>
       <c r="AA68" s="25"/>
       <c r="AB68" s="25"/>
       <c r="AC68" s="25"/>
@@ -12005,31 +12210,31 @@
       <c r="AM68" s="25"/>
     </row>
     <row r="69" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B69" s="94"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="95"/>
-      <c r="I69" s="96"/>
-      <c r="J69" s="97"/>
-      <c r="K69" s="95"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="98"/>
-      <c r="N69" s="98"/>
-      <c r="O69" s="96"/>
-      <c r="P69" s="98"/>
-      <c r="Q69" s="98"/>
-      <c r="R69" s="96"/>
-      <c r="S69" s="98"/>
-      <c r="T69" s="98"/>
-      <c r="U69" s="96"/>
-      <c r="V69" s="98"/>
-      <c r="W69" s="98"/>
-      <c r="X69" s="96"/>
-      <c r="Y69" s="99"/>
-      <c r="Z69" s="95"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="94"/>
+      <c r="H69" s="94"/>
+      <c r="I69" s="95"/>
+      <c r="J69" s="96"/>
+      <c r="K69" s="94"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="97"/>
+      <c r="N69" s="97"/>
+      <c r="O69" s="95"/>
+      <c r="P69" s="97"/>
+      <c r="Q69" s="97"/>
+      <c r="R69" s="95"/>
+      <c r="S69" s="97"/>
+      <c r="T69" s="97"/>
+      <c r="U69" s="95"/>
+      <c r="V69" s="97"/>
+      <c r="W69" s="97"/>
+      <c r="X69" s="95"/>
+      <c r="Y69" s="98"/>
+      <c r="Z69" s="94"/>
       <c r="AA69" s="25"/>
       <c r="AB69" s="25"/>
       <c r="AC69" s="25"/>
@@ -12047,31 +12252,31 @@
       <c r="AM69" s="25"/>
     </row>
     <row r="70" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B70" s="94"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="95"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="95"/>
-      <c r="I70" s="96"/>
-      <c r="J70" s="97"/>
-      <c r="K70" s="95"/>
-      <c r="L70" s="96"/>
-      <c r="M70" s="98"/>
-      <c r="N70" s="98"/>
-      <c r="O70" s="96"/>
-      <c r="P70" s="98"/>
-      <c r="Q70" s="98"/>
-      <c r="R70" s="96"/>
-      <c r="S70" s="98"/>
-      <c r="T70" s="98"/>
-      <c r="U70" s="96"/>
-      <c r="V70" s="98"/>
-      <c r="W70" s="98"/>
-      <c r="X70" s="96"/>
-      <c r="Y70" s="99"/>
-      <c r="Z70" s="95"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="95"/>
+      <c r="J70" s="96"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="95"/>
+      <c r="M70" s="97"/>
+      <c r="N70" s="97"/>
+      <c r="O70" s="95"/>
+      <c r="P70" s="97"/>
+      <c r="Q70" s="97"/>
+      <c r="R70" s="95"/>
+      <c r="S70" s="97"/>
+      <c r="T70" s="97"/>
+      <c r="U70" s="95"/>
+      <c r="V70" s="97"/>
+      <c r="W70" s="97"/>
+      <c r="X70" s="95"/>
+      <c r="Y70" s="98"/>
+      <c r="Z70" s="94"/>
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
       <c r="AC70" s="25"/>
@@ -12089,31 +12294,31 @@
       <c r="AM70" s="25"/>
     </row>
     <row r="71" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B71" s="94"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="95"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="97"/>
-      <c r="K71" s="95"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="98"/>
-      <c r="N71" s="98"/>
-      <c r="O71" s="96"/>
-      <c r="P71" s="98"/>
-      <c r="Q71" s="98"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="98"/>
-      <c r="T71" s="98"/>
-      <c r="U71" s="96"/>
-      <c r="V71" s="98"/>
-      <c r="W71" s="98"/>
-      <c r="X71" s="96"/>
-      <c r="Y71" s="99"/>
-      <c r="Z71" s="95"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="96"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="95"/>
+      <c r="M71" s="97"/>
+      <c r="N71" s="97"/>
+      <c r="O71" s="95"/>
+      <c r="P71" s="97"/>
+      <c r="Q71" s="97"/>
+      <c r="R71" s="95"/>
+      <c r="S71" s="97"/>
+      <c r="T71" s="97"/>
+      <c r="U71" s="95"/>
+      <c r="V71" s="97"/>
+      <c r="W71" s="97"/>
+      <c r="X71" s="95"/>
+      <c r="Y71" s="98"/>
+      <c r="Z71" s="94"/>
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
       <c r="AC71" s="25"/>
@@ -12131,31 +12336,31 @@
       <c r="AM71" s="25"/>
     </row>
     <row r="72" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B72" s="94"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="95"/>
-      <c r="E72" s="95"/>
-      <c r="F72" s="95"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="95"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="97"/>
-      <c r="K72" s="95"/>
-      <c r="L72" s="96"/>
-      <c r="M72" s="98"/>
-      <c r="N72" s="98"/>
-      <c r="O72" s="96"/>
-      <c r="P72" s="98"/>
-      <c r="Q72" s="98"/>
-      <c r="R72" s="96"/>
-      <c r="S72" s="98"/>
-      <c r="T72" s="98"/>
-      <c r="U72" s="96"/>
-      <c r="V72" s="98"/>
-      <c r="W72" s="98"/>
-      <c r="X72" s="96"/>
-      <c r="Y72" s="99"/>
-      <c r="Z72" s="95"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="96"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="95"/>
+      <c r="M72" s="97"/>
+      <c r="N72" s="97"/>
+      <c r="O72" s="95"/>
+      <c r="P72" s="97"/>
+      <c r="Q72" s="97"/>
+      <c r="R72" s="95"/>
+      <c r="S72" s="97"/>
+      <c r="T72" s="97"/>
+      <c r="U72" s="95"/>
+      <c r="V72" s="97"/>
+      <c r="W72" s="97"/>
+      <c r="X72" s="95"/>
+      <c r="Y72" s="98"/>
+      <c r="Z72" s="94"/>
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
       <c r="AC72" s="25"/>
@@ -12173,31 +12378,31 @@
       <c r="AM72" s="25"/>
     </row>
     <row r="73" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B73" s="94"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="95"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="95"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="97"/>
-      <c r="K73" s="95"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="98"/>
-      <c r="N73" s="98"/>
-      <c r="O73" s="96"/>
-      <c r="P73" s="98"/>
-      <c r="Q73" s="98"/>
-      <c r="R73" s="96"/>
-      <c r="S73" s="98"/>
-      <c r="T73" s="98"/>
-      <c r="U73" s="96"/>
-      <c r="V73" s="98"/>
-      <c r="W73" s="98"/>
-      <c r="X73" s="96"/>
-      <c r="Y73" s="99"/>
-      <c r="Z73" s="95"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="95"/>
+      <c r="M73" s="97"/>
+      <c r="N73" s="97"/>
+      <c r="O73" s="95"/>
+      <c r="P73" s="97"/>
+      <c r="Q73" s="97"/>
+      <c r="R73" s="95"/>
+      <c r="S73" s="97"/>
+      <c r="T73" s="97"/>
+      <c r="U73" s="95"/>
+      <c r="V73" s="97"/>
+      <c r="W73" s="97"/>
+      <c r="X73" s="95"/>
+      <c r="Y73" s="98"/>
+      <c r="Z73" s="94"/>
       <c r="AA73" s="25"/>
       <c r="AB73" s="25"/>
       <c r="AC73" s="25"/>
@@ -12215,31 +12420,31 @@
       <c r="AM73" s="25"/>
     </row>
     <row r="74" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B74" s="94"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="95"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="95"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="98"/>
-      <c r="N74" s="98"/>
-      <c r="O74" s="96"/>
-      <c r="P74" s="98"/>
-      <c r="Q74" s="98"/>
-      <c r="R74" s="96"/>
-      <c r="S74" s="98"/>
-      <c r="T74" s="98"/>
-      <c r="U74" s="96"/>
-      <c r="V74" s="98"/>
-      <c r="W74" s="98"/>
-      <c r="X74" s="96"/>
-      <c r="Y74" s="99"/>
-      <c r="Z74" s="95"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="95"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="94"/>
+      <c r="L74" s="95"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="97"/>
+      <c r="O74" s="95"/>
+      <c r="P74" s="97"/>
+      <c r="Q74" s="97"/>
+      <c r="R74" s="95"/>
+      <c r="S74" s="97"/>
+      <c r="T74" s="97"/>
+      <c r="U74" s="95"/>
+      <c r="V74" s="97"/>
+      <c r="W74" s="97"/>
+      <c r="X74" s="95"/>
+      <c r="Y74" s="98"/>
+      <c r="Z74" s="94"/>
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
       <c r="AC74" s="25"/>
@@ -12998,15 +13203,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H194"/>
+  <dimension ref="A2:J194"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
         <v>164</v>
       </c>
@@ -13019,12 +13224,18 @@
       <c r="E2" s="52" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="102" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="C3" s="102">
+      <c r="C3" s="101">
         <v>0</v>
       </c>
       <c r="D3">
@@ -13041,12 +13252,18 @@
         <f>E3*4</f>
         <v>3.8560000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>6.8</v>
+      </c>
+      <c r="J3">
+        <v>7.4499999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" s="102">
+      <c r="C4" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D4">
@@ -13063,12 +13280,18 @@
         <f t="shared" ref="H4:H67" si="1">E4*5</f>
         <v>4.8100000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>6.9</v>
+      </c>
+      <c r="J4">
+        <v>7.4499999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="C5" s="102">
+      <c r="C5" s="101">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D5">
@@ -13085,12 +13308,18 @@
         <f t="shared" si="1"/>
         <v>4.7699999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>7.3</v>
+      </c>
+      <c r="J5">
+        <v>7.4499999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="C6" s="102">
+      <c r="C6" s="101">
         <v>0.125</v>
       </c>
       <c r="D6">
@@ -13107,12 +13336,18 @@
         <f t="shared" si="1"/>
         <v>4.72</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>7.8</v>
+      </c>
+      <c r="J6">
+        <v>7.4499999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="C7" s="102">
+      <c r="C7" s="101">
         <v>0.16666666666666699</v>
       </c>
       <c r="D7">
@@ -13129,12 +13364,18 @@
         <f t="shared" si="1"/>
         <v>4.6899999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>8.1</v>
+      </c>
+      <c r="J7">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="C8" s="102">
+      <c r="C8" s="101">
         <v>0.20833333333333301</v>
       </c>
       <c r="D8">
@@ -13151,12 +13392,18 @@
         <f t="shared" si="1"/>
         <v>4.62</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J8">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="C9" s="102">
+      <c r="C9" s="101">
         <v>0.25</v>
       </c>
       <c r="D9">
@@ -13173,12 +13420,18 @@
         <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="C10" s="102">
+      <c r="C10" s="101">
         <v>0.29166666666666702</v>
       </c>
       <c r="D10">
@@ -13195,12 +13448,18 @@
         <f t="shared" si="1"/>
         <v>4.76</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>7.4</v>
+      </c>
+      <c r="J10">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="C11" s="102">
+      <c r="C11" s="101">
         <v>0.33333333333333298</v>
       </c>
       <c r="D11">
@@ -13217,12 +13476,18 @@
         <f t="shared" si="1"/>
         <v>4.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>6.8</v>
+      </c>
+      <c r="J11">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C12" s="101">
         <v>0.375</v>
       </c>
       <c r="D12">
@@ -13239,12 +13504,18 @@
         <f t="shared" si="1"/>
         <v>4.83</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>6.7</v>
+      </c>
+      <c r="J12">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="C13" s="102">
+      <c r="C13" s="101">
         <v>0.41666666666666702</v>
       </c>
       <c r="D13">
@@ -13261,12 +13532,18 @@
         <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>7.1</v>
+      </c>
+      <c r="J13">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="C14" s="102">
+      <c r="C14" s="101">
         <v>0.45833333333333298</v>
       </c>
       <c r="D14">
@@ -13283,12 +13560,18 @@
         <f t="shared" si="1"/>
         <v>4.72</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>7.8</v>
+      </c>
+      <c r="J14">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="C15" s="102">
+      <c r="C15" s="101">
         <v>0.5</v>
       </c>
       <c r="D15">
@@ -13305,12 +13588,18 @@
         <f t="shared" si="1"/>
         <v>4.6899999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>8.1</v>
+      </c>
+      <c r="J15">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="C16" s="102">
+      <c r="C16" s="101">
         <v>0.54166666666666696</v>
       </c>
       <c r="D16">
@@ -13327,12 +13616,18 @@
         <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>8.6</v>
+      </c>
+      <c r="J16">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="C17" s="102">
+      <c r="C17" s="101">
         <v>0.58333333333333304</v>
       </c>
       <c r="D17">
@@ -13349,12 +13644,18 @@
         <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>8.6</v>
+      </c>
+      <c r="J17">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="C18" s="102">
+      <c r="C18" s="101">
         <v>0.625</v>
       </c>
       <c r="D18">
@@ -13371,12 +13672,18 @@
         <f t="shared" si="1"/>
         <v>4.68</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J18">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="C19" s="102">
+      <c r="C19" s="101">
         <v>0.66666666666666696</v>
       </c>
       <c r="D19">
@@ -13393,12 +13700,18 @@
         <f t="shared" si="1"/>
         <v>4.72</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>7.8</v>
+      </c>
+      <c r="J19">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="C20" s="102">
+      <c r="C20" s="101">
         <v>0.70833333333333304</v>
       </c>
       <c r="D20">
@@ -13415,12 +13728,18 @@
         <f t="shared" si="1"/>
         <v>4.78</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>7.2</v>
+      </c>
+      <c r="J20">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="C21" s="102">
+      <c r="C21" s="101">
         <v>0.75</v>
       </c>
       <c r="D21">
@@ -13437,12 +13756,18 @@
         <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="C22" s="102">
+      <c r="C22" s="101">
         <v>0.79166666666666696</v>
       </c>
       <c r="D22">
@@ -13459,12 +13784,18 @@
         <f t="shared" si="1"/>
         <v>4.8100000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>6.9</v>
+      </c>
+      <c r="J22">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="C23" s="102">
+      <c r="C23" s="101">
         <v>0.83333333333333304</v>
       </c>
       <c r="D23">
@@ -13481,12 +13812,18 @@
         <f t="shared" si="1"/>
         <v>4.83</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>6.7</v>
+      </c>
+      <c r="J23">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="C24" s="102">
+      <c r="C24" s="101">
         <v>0.875</v>
       </c>
       <c r="D24">
@@ -13503,12 +13840,18 @@
         <f t="shared" si="1"/>
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>6.5</v>
+      </c>
+      <c r="J24">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="C25" s="102">
+      <c r="C25" s="101">
         <v>0.91666666666666696</v>
       </c>
       <c r="D25">
@@ -13525,12 +13868,18 @@
         <f t="shared" si="1"/>
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>6.4</v>
+      </c>
+      <c r="J25">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="C26" s="102">
+      <c r="C26" s="101">
         <v>0.95833333333333304</v>
       </c>
       <c r="D26">
@@ -13547,12 +13896,18 @@
         <f t="shared" si="1"/>
         <v>4.87</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>6.3</v>
+      </c>
+      <c r="J26">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="C27" s="102">
+      <c r="C27" s="101">
         <v>0</v>
       </c>
       <c r="D27">
@@ -13569,12 +13924,18 @@
         <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>8.6</v>
+      </c>
+      <c r="J27">
+        <v>8.5499999999999989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="C28" s="102">
+      <c r="C28" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D28">
@@ -13591,12 +13952,18 @@
         <f t="shared" si="1"/>
         <v>4.62</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J28">
+        <v>8.5499999999999989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="C29" s="102">
+      <c r="C29" s="101">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D29">
@@ -13613,12 +13980,18 @@
         <f t="shared" si="1"/>
         <v>4.62</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J29">
+        <v>8.5499999999999989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="C30" s="102">
+      <c r="C30" s="101">
         <v>0.125</v>
       </c>
       <c r="D30">
@@ -13635,12 +14008,18 @@
         <f t="shared" si="1"/>
         <v>4.63</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J30">
+        <v>8.5499999999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="C31" s="102">
+      <c r="C31" s="101">
         <v>0.16666666666666699</v>
       </c>
       <c r="D31">
@@ -13657,12 +14036,18 @@
         <f t="shared" si="1"/>
         <v>4.63</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J31">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="C32" s="102">
+      <c r="C32" s="101">
         <v>0.20833333333333301</v>
       </c>
       <c r="D32">
@@ -13679,12 +14064,18 @@
         <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="C33" s="102">
+      <c r="C33" s="101">
         <v>0.25</v>
       </c>
       <c r="D33">
@@ -13701,12 +14092,18 @@
         <f t="shared" si="1"/>
         <v>4.58</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J33">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="C34" s="102">
+      <c r="C34" s="101">
         <v>0.29166666666666702</v>
       </c>
       <c r="D34">
@@ -13723,12 +14120,18 @@
         <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>9.1</v>
+      </c>
+      <c r="J34">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="C35" s="102">
+      <c r="C35" s="101">
         <v>0.33333333333333298</v>
       </c>
       <c r="D35">
@@ -13745,12 +14148,18 @@
         <f t="shared" si="1"/>
         <v>4.57</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J35">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="C36" s="102">
+      <c r="C36" s="101">
         <v>0.375</v>
       </c>
       <c r="D36">
@@ -13767,12 +14176,18 @@
         <f t="shared" si="1"/>
         <v>4.5600000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>9.4</v>
+      </c>
+      <c r="J36">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="C37" s="102">
+      <c r="C37" s="101">
         <v>0.41666666666666702</v>
       </c>
       <c r="D37">
@@ -13789,12 +14204,18 @@
         <f t="shared" si="1"/>
         <v>4.57</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J37">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="C38" s="102">
+      <c r="C38" s="101">
         <v>0.45833333333333298</v>
       </c>
       <c r="D38">
@@ -13811,12 +14232,18 @@
         <f t="shared" si="1"/>
         <v>4.5600000000000005</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>9.4</v>
+      </c>
+      <c r="J38">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="C39" s="102">
+      <c r="C39" s="101">
         <v>0.5</v>
       </c>
       <c r="D39">
@@ -13833,12 +14260,18 @@
         <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>9.1</v>
+      </c>
+      <c r="J39">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="C40" s="102">
+      <c r="C40" s="101">
         <v>0.54166666666666696</v>
       </c>
       <c r="D40">
@@ -13855,12 +14288,18 @@
         <f t="shared" si="1"/>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J40">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="C41" s="102">
+      <c r="C41" s="101">
         <v>0.58333333333333304</v>
       </c>
       <c r="D41">
@@ -13877,12 +14316,18 @@
         <f t="shared" si="1"/>
         <v>4.51</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>9.9</v>
+      </c>
+      <c r="J41">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="C42" s="102">
+      <c r="C42" s="101">
         <v>0.625</v>
       </c>
       <c r="D42">
@@ -13899,12 +14344,18 @@
         <f t="shared" si="1"/>
         <v>4.51</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>9.9</v>
+      </c>
+      <c r="J42">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="C43" s="102">
+      <c r="C43" s="101">
         <v>0.66666666666666696</v>
       </c>
       <c r="D43">
@@ -13921,12 +14372,18 @@
         <f t="shared" si="1"/>
         <v>4.5600000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>9.4</v>
+      </c>
+      <c r="J43">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="C44" s="102">
+      <c r="C44" s="101">
         <v>0.70833333333333304</v>
       </c>
       <c r="D44">
@@ -13943,12 +14400,18 @@
         <f t="shared" si="1"/>
         <v>4.58</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J44">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="C45" s="102">
+      <c r="C45" s="101">
         <v>0.75</v>
       </c>
       <c r="D45">
@@ -13965,12 +14428,18 @@
         <f t="shared" si="1"/>
         <v>4.68</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J45">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="C46" s="102">
+      <c r="C46" s="101">
         <v>0.79166666666666696</v>
       </c>
       <c r="D46">
@@ -13987,12 +14456,18 @@
         <f t="shared" si="1"/>
         <v>4.78</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>7.2</v>
+      </c>
+      <c r="J46">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="C47" s="102">
+      <c r="C47" s="101">
         <v>0.83333333333333304</v>
       </c>
       <c r="D47">
@@ -14009,12 +14484,18 @@
         <f t="shared" si="1"/>
         <v>4.8100000000000005</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>6.9</v>
+      </c>
+      <c r="J47">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="C48" s="102">
+      <c r="C48" s="101">
         <v>0.875</v>
       </c>
       <c r="D48">
@@ -14031,12 +14512,18 @@
         <f t="shared" si="1"/>
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>6.5</v>
+      </c>
+      <c r="J48">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="C49" s="102">
+      <c r="C49" s="101">
         <v>0.91666666666666696</v>
       </c>
       <c r="D49">
@@ -14053,12 +14540,18 @@
         <f t="shared" si="1"/>
         <v>4.92</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>5.8</v>
+      </c>
+      <c r="J49">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="C50" s="102">
+      <c r="C50" s="101">
         <v>0.95833333333333304</v>
       </c>
       <c r="D50">
@@ -14075,12 +14568,18 @@
         <f t="shared" si="1"/>
         <v>4.99</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J50">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
-      <c r="C51" s="102">
+      <c r="C51" s="101">
         <v>0</v>
       </c>
       <c r="D51">
@@ -14097,12 +14596,18 @@
         <f t="shared" si="1"/>
         <v>4.97</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>5.3</v>
+      </c>
+      <c r="J51">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="C52" s="102">
+      <c r="C52" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D52">
@@ -14119,12 +14624,18 @@
         <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>5.5</v>
+      </c>
+      <c r="J52">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="C53" s="102">
+      <c r="C53" s="101">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D53">
@@ -14141,12 +14652,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
-      <c r="C54" s="102">
+      <c r="C54" s="101">
         <v>0.125</v>
       </c>
       <c r="D54">
@@ -14163,12 +14680,18 @@
         <f t="shared" si="1"/>
         <v>4.99</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J54">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
-      <c r="C55" s="102">
+      <c r="C55" s="101">
         <v>0.16666666666666699</v>
       </c>
       <c r="D55">
@@ -14185,12 +14708,18 @@
         <f t="shared" si="1"/>
         <v>5.01</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J55">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
-      <c r="C56" s="102">
+      <c r="C56" s="101">
         <v>0.20833333333333301</v>
       </c>
       <c r="D56">
@@ -14207,12 +14736,18 @@
         <f t="shared" si="1"/>
         <v>5.01</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J56">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="C57" s="102">
+      <c r="C57" s="101">
         <v>0.25</v>
       </c>
       <c r="D57">
@@ -14229,12 +14764,18 @@
         <f t="shared" si="1"/>
         <v>4.97</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>5.3</v>
+      </c>
+      <c r="J57">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
-      <c r="C58" s="102">
+      <c r="C58" s="101">
         <v>0.29166666666666702</v>
       </c>
       <c r="D58">
@@ -14251,12 +14792,18 @@
         <f t="shared" si="1"/>
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>6.1</v>
+      </c>
+      <c r="J58">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
-      <c r="C59" s="102">
+      <c r="C59" s="101">
         <v>0.33333333333333298</v>
       </c>
       <c r="D59">
@@ -14273,12 +14820,18 @@
         <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
-      <c r="C60" s="102">
+      <c r="C60" s="101">
         <v>0.375</v>
       </c>
       <c r="D60">
@@ -14295,12 +14848,18 @@
         <f t="shared" si="1"/>
         <v>4.57</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J60">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="C61" s="102">
+      <c r="C61" s="101">
         <v>0.41666666666666702</v>
       </c>
       <c r="D61">
@@ -14317,12 +14876,18 @@
         <f t="shared" si="1"/>
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>11.5</v>
+      </c>
+      <c r="J61">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
-      <c r="C62" s="102">
+      <c r="C62" s="101">
         <v>0.45833333333333298</v>
       </c>
       <c r="D62">
@@ -14339,12 +14904,18 @@
         <f t="shared" si="1"/>
         <v>4.47</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>10.3</v>
+      </c>
+      <c r="J62">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
-      <c r="C63" s="102">
+      <c r="C63" s="101">
         <v>0.5</v>
       </c>
       <c r="D63">
@@ -14361,12 +14932,18 @@
         <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>12.5</v>
+      </c>
+      <c r="J63">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>61</v>
       </c>
-      <c r="C64" s="102">
+      <c r="C64" s="101">
         <v>0.54166666666666696</v>
       </c>
       <c r="D64">
@@ -14383,12 +14960,18 @@
         <f t="shared" si="1"/>
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>13.5</v>
+      </c>
+      <c r="J64">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>62</v>
       </c>
-      <c r="C65" s="102">
+      <c r="C65" s="101">
         <v>0.58333333333333304</v>
       </c>
       <c r="D65">
@@ -14405,12 +14988,18 @@
         <f t="shared" si="1"/>
         <v>4.2300000000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>12.7</v>
+      </c>
+      <c r="J65">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="C66" s="102">
+      <c r="C66" s="101">
         <v>0.625</v>
       </c>
       <c r="D66">
@@ -14427,12 +15016,18 @@
         <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>14</v>
+      </c>
+      <c r="J66">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>64</v>
       </c>
-      <c r="C67" s="102">
+      <c r="C67" s="101">
         <v>0.66666666666666696</v>
       </c>
       <c r="D67">
@@ -14449,12 +15044,18 @@
         <f t="shared" si="1"/>
         <v>4.04</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>14.6</v>
+      </c>
+      <c r="J67">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>65</v>
       </c>
-      <c r="C68" s="102">
+      <c r="C68" s="101">
         <v>0.70833333333333304</v>
       </c>
       <c r="D68">
@@ -14471,12 +15072,18 @@
         <f t="shared" ref="H68:H131" si="3">E68*5</f>
         <v>4.0600000000000005</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>14.4</v>
+      </c>
+      <c r="J68">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="C69" s="102">
+      <c r="C69" s="101">
         <v>0.75</v>
       </c>
       <c r="D69">
@@ -14493,12 +15100,18 @@
         <f t="shared" si="3"/>
         <v>4.04</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>14.6</v>
+      </c>
+      <c r="J69">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="C70" s="102">
+      <c r="C70" s="101">
         <v>0.79166666666666696</v>
       </c>
       <c r="D70">
@@ -14515,12 +15128,18 @@
         <f t="shared" si="3"/>
         <v>4.09</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>14.1</v>
+      </c>
+      <c r="J70">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="C71" s="102">
+      <c r="C71" s="101">
         <v>0.83333333333333304</v>
       </c>
       <c r="D71">
@@ -14537,12 +15156,18 @@
         <f t="shared" si="3"/>
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>13.5</v>
+      </c>
+      <c r="J71">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="C72" s="102">
+      <c r="C72" s="101">
         <v>0.875</v>
       </c>
       <c r="D72">
@@ -14559,12 +15184,18 @@
         <f t="shared" si="3"/>
         <v>4.28</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>12.2</v>
+      </c>
+      <c r="J72">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>70</v>
       </c>
-      <c r="C73" s="102">
+      <c r="C73" s="101">
         <v>0.91666666666666696</v>
       </c>
       <c r="D73">
@@ -14581,12 +15212,18 @@
         <f t="shared" si="3"/>
         <v>4.38</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>11.2</v>
+      </c>
+      <c r="J73">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>71</v>
       </c>
-      <c r="C74" s="102">
+      <c r="C74" s="101">
         <v>0.95833333333333304</v>
       </c>
       <c r="D74">
@@ -14603,12 +15240,18 @@
         <f t="shared" si="3"/>
         <v>4.3900000000000006</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>11.1</v>
+      </c>
+      <c r="J74">
+        <v>9.9833333333333307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>72</v>
       </c>
-      <c r="C75" s="102">
+      <c r="C75" s="101">
         <v>0</v>
       </c>
       <c r="D75">
@@ -14625,12 +15268,18 @@
         <f t="shared" si="3"/>
         <v>3.84</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J75">
+        <v>21.770833333333332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>73</v>
       </c>
-      <c r="C76" s="102">
+      <c r="C76" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D76">
@@ -14647,12 +15296,18 @@
         <f t="shared" si="3"/>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>17</v>
+      </c>
+      <c r="J76">
+        <v>21.770833333333332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>74</v>
       </c>
-      <c r="C77" s="102">
+      <c r="C77" s="101">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D77">
@@ -14669,12 +15324,18 @@
         <f t="shared" si="3"/>
         <v>3.84</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J77">
+        <v>21.770833333333332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>75</v>
       </c>
-      <c r="C78" s="102">
+      <c r="C78" s="101">
         <v>0.125</v>
       </c>
       <c r="D78">
@@ -14691,12 +15352,18 @@
         <f t="shared" si="3"/>
         <v>3.9000000000000004</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>16</v>
+      </c>
+      <c r="J78">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>76</v>
       </c>
-      <c r="C79" s="102">
+      <c r="C79" s="101">
         <v>0.16666666666666699</v>
       </c>
       <c r="D79">
@@ -14713,12 +15380,18 @@
         <f t="shared" si="3"/>
         <v>3.95</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>15.5</v>
+      </c>
+      <c r="J79">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>77</v>
       </c>
-      <c r="C80" s="102">
+      <c r="C80" s="101">
         <v>0.20833333333333301</v>
       </c>
       <c r="D80">
@@ -14735,12 +15408,18 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>15</v>
+      </c>
+      <c r="J80">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>78</v>
       </c>
-      <c r="C81" s="102">
+      <c r="C81" s="101">
         <v>0.25</v>
       </c>
       <c r="D81">
@@ -14757,12 +15436,18 @@
         <f t="shared" si="3"/>
         <v>4.01</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>14.9</v>
+      </c>
+      <c r="J81">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>79</v>
       </c>
-      <c r="C82" s="102">
+      <c r="C82" s="101">
         <v>0.29166666666666702</v>
       </c>
       <c r="D82">
@@ -14779,12 +15464,18 @@
         <f t="shared" si="3"/>
         <v>3.87</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>16.3</v>
+      </c>
+      <c r="J82">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>80</v>
       </c>
-      <c r="C83" s="102">
+      <c r="C83" s="101">
         <v>0.33333333333333298</v>
       </c>
       <c r="D83">
@@ -14801,12 +15492,18 @@
         <f t="shared" si="3"/>
         <v>3.7199999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>17.8</v>
+      </c>
+      <c r="J83">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>81</v>
       </c>
-      <c r="C84" s="102">
+      <c r="C84" s="101">
         <v>0.375</v>
       </c>
       <c r="D84">
@@ -14823,12 +15520,18 @@
         <f t="shared" si="3"/>
         <v>3.5100000000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J84">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>82</v>
       </c>
-      <c r="C85" s="102">
+      <c r="C85" s="101">
         <v>0.41666666666666702</v>
       </c>
       <c r="D85">
@@ -14845,12 +15548,18 @@
         <f t="shared" si="3"/>
         <v>3.2800000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>22.2</v>
+      </c>
+      <c r="J85">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>83</v>
       </c>
-      <c r="C86" s="102">
+      <c r="C86" s="101">
         <v>0.45833333333333298</v>
       </c>
       <c r="D86">
@@ -14867,12 +15576,18 @@
         <f t="shared" si="3"/>
         <v>3.06</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>24.4</v>
+      </c>
+      <c r="J86">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>84</v>
       </c>
-      <c r="C87" s="102">
+      <c r="C87" s="101">
         <v>0.5</v>
       </c>
       <c r="D87">
@@ -14889,12 +15604,18 @@
         <f t="shared" si="3"/>
         <v>3.17</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>23.3</v>
+      </c>
+      <c r="J87">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>85</v>
       </c>
-      <c r="C88" s="102">
+      <c r="C88" s="101">
         <v>0.54166666666666696</v>
       </c>
       <c r="D88">
@@ -14911,12 +15632,18 @@
         <f t="shared" si="3"/>
         <v>3.2199999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>22.8</v>
+      </c>
+      <c r="J88">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>86</v>
       </c>
-      <c r="C89" s="102">
+      <c r="C89" s="101">
         <v>0.58333333333333304</v>
       </c>
       <c r="D89">
@@ -14933,12 +15660,18 @@
         <f t="shared" si="3"/>
         <v>3.08</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>24.2</v>
+      </c>
+      <c r="J89">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>87</v>
       </c>
-      <c r="C90" s="102">
+      <c r="C90" s="101">
         <v>0.625</v>
       </c>
       <c r="D90">
@@ -14955,12 +15688,18 @@
         <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>24</v>
+      </c>
+      <c r="J90">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>88</v>
       </c>
-      <c r="C91" s="102">
+      <c r="C91" s="101">
         <v>0.66666666666666696</v>
       </c>
       <c r="D91">
@@ -14977,12 +15716,18 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>28.2</v>
+      </c>
+      <c r="J91">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>89</v>
       </c>
-      <c r="C92" s="102">
+      <c r="C92" s="101">
         <v>0.70833333333333304</v>
       </c>
       <c r="D92">
@@ -14999,12 +15744,18 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>28.7</v>
+      </c>
+      <c r="J92">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>90</v>
       </c>
-      <c r="C93" s="102">
+      <c r="C93" s="101">
         <v>0.75</v>
       </c>
       <c r="D93">
@@ -15021,12 +15772,18 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>28.6</v>
+      </c>
+      <c r="J93">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>91</v>
       </c>
-      <c r="C94" s="102">
+      <c r="C94" s="101">
         <v>0.79166666666666696</v>
       </c>
       <c r="D94">
@@ -15043,12 +15800,18 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>27.8</v>
+      </c>
+      <c r="J94">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
-      <c r="C95" s="102">
+      <c r="C95" s="101">
         <v>0.83333333333333304</v>
       </c>
       <c r="D95">
@@ -15065,12 +15828,18 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>27.2</v>
+      </c>
+      <c r="J95">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>93</v>
       </c>
-      <c r="C96" s="102">
+      <c r="C96" s="101">
         <v>0.875</v>
       </c>
       <c r="D96">
@@ -15087,12 +15856,18 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>26.4</v>
+      </c>
+      <c r="J96">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>94</v>
       </c>
-      <c r="C97" s="102">
+      <c r="C97" s="101">
         <v>0.91666666666666696</v>
       </c>
       <c r="D97">
@@ -15109,12 +15884,18 @@
         <f t="shared" si="3"/>
         <v>3.0100000000000007</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>24.9</v>
+      </c>
+      <c r="J97">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>95</v>
       </c>
-      <c r="C98" s="102">
+      <c r="C98" s="101">
         <v>0.95833333333333304</v>
       </c>
       <c r="D98">
@@ -15131,12 +15912,18 @@
         <f t="shared" si="3"/>
         <v>3.08</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>24.2</v>
+      </c>
+      <c r="J98">
+        <v>21.7708333333333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>96</v>
       </c>
-      <c r="C99" s="102">
+      <c r="C99" s="101">
         <v>0</v>
       </c>
       <c r="D99">
@@ -15153,12 +15940,18 @@
         <f t="shared" si="3"/>
         <v>3.6399999999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J99">
+        <v>19.349999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>97</v>
       </c>
-      <c r="C100" s="102">
+      <c r="C100" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D100">
@@ -15175,12 +15968,18 @@
         <f t="shared" si="3"/>
         <v>3.63</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>18.7</v>
+      </c>
+      <c r="J100">
+        <v>19.349999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>98</v>
       </c>
-      <c r="C101" s="102">
+      <c r="C101" s="101">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D101">
@@ -15197,12 +15996,18 @@
         <f t="shared" si="3"/>
         <v>3.66</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J101">
+        <v>19.349999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>99</v>
       </c>
-      <c r="C102" s="102">
+      <c r="C102" s="101">
         <v>0.125</v>
       </c>
       <c r="D102">
@@ -15219,12 +16024,18 @@
         <f t="shared" si="3"/>
         <v>3.65</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>18.5</v>
+      </c>
+      <c r="J102">
+        <v>19.349999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>100</v>
       </c>
-      <c r="C103" s="102">
+      <c r="C103" s="101">
         <v>0.16666666666666699</v>
       </c>
       <c r="D103">
@@ -15241,12 +16052,18 @@
         <f t="shared" si="3"/>
         <v>3.67</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>18.3</v>
+      </c>
+      <c r="J103">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>101</v>
       </c>
-      <c r="C104" s="102">
+      <c r="C104" s="101">
         <v>0.20833333333333301</v>
       </c>
       <c r="D104">
@@ -15263,12 +16080,18 @@
         <f t="shared" si="3"/>
         <v>3.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>18</v>
+      </c>
+      <c r="J104">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>102</v>
       </c>
-      <c r="C105" s="102">
+      <c r="C105" s="101">
         <v>0.25</v>
       </c>
       <c r="D105">
@@ -15285,12 +16108,18 @@
         <f t="shared" si="3"/>
         <v>3.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>18</v>
+      </c>
+      <c r="J105">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>103</v>
       </c>
-      <c r="C106" s="102">
+      <c r="C106" s="101">
         <v>0.29166666666666702</v>
       </c>
       <c r="D106">
@@ -15307,12 +16136,18 @@
         <f t="shared" si="3"/>
         <v>3.7800000000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>17.2</v>
+      </c>
+      <c r="J106">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>104</v>
       </c>
-      <c r="C107" s="102">
+      <c r="C107" s="101">
         <v>0.33333333333333298</v>
       </c>
       <c r="D107">
@@ -15329,12 +16164,18 @@
         <f t="shared" si="3"/>
         <v>3.69</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J107">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>105</v>
       </c>
-      <c r="C108" s="102">
+      <c r="C108" s="101">
         <v>0.375</v>
       </c>
       <c r="D108">
@@ -15351,12 +16192,18 @@
         <f t="shared" si="3"/>
         <v>3.63</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>18.7</v>
+      </c>
+      <c r="J108">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>106</v>
       </c>
-      <c r="C109" s="102">
+      <c r="C109" s="101">
         <v>0.41666666666666702</v>
       </c>
       <c r="D109">
@@ -15373,12 +16220,18 @@
         <f t="shared" si="3"/>
         <v>3.58</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>19.2</v>
+      </c>
+      <c r="J109">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>107</v>
       </c>
-      <c r="C110" s="102">
+      <c r="C110" s="101">
         <v>0.45833333333333298</v>
       </c>
       <c r="D110">
@@ -15395,12 +16248,18 @@
         <f t="shared" si="3"/>
         <v>3.4899999999999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J110">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>108</v>
       </c>
-      <c r="C111" s="102">
+      <c r="C111" s="101">
         <v>0.5</v>
       </c>
       <c r="D111">
@@ -15417,12 +16276,18 @@
         <f t="shared" si="3"/>
         <v>3.46</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J111">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>109</v>
       </c>
-      <c r="C112" s="102">
+      <c r="C112" s="101">
         <v>0.54166666666666696</v>
       </c>
       <c r="D112">
@@ -15439,12 +16304,18 @@
         <f t="shared" si="3"/>
         <v>3.73</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>17.7</v>
+      </c>
+      <c r="J112">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>110</v>
       </c>
-      <c r="C113" s="102">
+      <c r="C113" s="101">
         <v>0.58333333333333304</v>
       </c>
       <c r="D113">
@@ -15461,12 +16332,18 @@
         <f t="shared" si="3"/>
         <v>3.4899999999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J113">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>111</v>
       </c>
-      <c r="C114" s="102">
+      <c r="C114" s="101">
         <v>0.625</v>
       </c>
       <c r="D114">
@@ -15483,12 +16360,18 @@
         <f t="shared" si="3"/>
         <v>3.33</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>21.7</v>
+      </c>
+      <c r="J114">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>112</v>
       </c>
-      <c r="C115" s="102">
+      <c r="C115" s="101">
         <v>0.66666666666666696</v>
       </c>
       <c r="D115">
@@ -15505,12 +16388,18 @@
         <f t="shared" si="3"/>
         <v>3.3199999999999994</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>21.8</v>
+      </c>
+      <c r="J115">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>113</v>
       </c>
-      <c r="C116" s="102">
+      <c r="C116" s="101">
         <v>0.70833333333333304</v>
       </c>
       <c r="D116">
@@ -15527,12 +16416,18 @@
         <f t="shared" si="3"/>
         <v>3.31</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>21.9</v>
+      </c>
+      <c r="J116">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>114</v>
       </c>
-      <c r="C117" s="102">
+      <c r="C117" s="101">
         <v>0.75</v>
       </c>
       <c r="D117">
@@ -15549,12 +16444,18 @@
         <f t="shared" si="3"/>
         <v>3.35</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <v>21.5</v>
+      </c>
+      <c r="J117">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>115</v>
       </c>
-      <c r="C118" s="102">
+      <c r="C118" s="101">
         <v>0.79166666666666696</v>
       </c>
       <c r="D118">
@@ -15571,12 +16472,18 @@
         <f t="shared" si="3"/>
         <v>3.42</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>20.8</v>
+      </c>
+      <c r="J118">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>116</v>
       </c>
-      <c r="C119" s="102">
+      <c r="C119" s="101">
         <v>0.83333333333333304</v>
       </c>
       <c r="D119">
@@ -15593,12 +16500,18 @@
         <f t="shared" si="3"/>
         <v>3.5199999999999996</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <v>19.8</v>
+      </c>
+      <c r="J119">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>117</v>
       </c>
-      <c r="C120" s="102">
+      <c r="C120" s="101">
         <v>0.875</v>
       </c>
       <c r="D120">
@@ -15615,12 +16528,18 @@
         <f t="shared" si="3"/>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>19</v>
+      </c>
+      <c r="J120">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>118</v>
       </c>
-      <c r="C121" s="102">
+      <c r="C121" s="101">
         <v>0.91666666666666696</v>
       </c>
       <c r="D121">
@@ -15637,12 +16556,18 @@
         <f t="shared" si="3"/>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <v>19</v>
+      </c>
+      <c r="J121">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>119</v>
       </c>
-      <c r="C122" s="102">
+      <c r="C122" s="101">
         <v>0.95833333333333304</v>
       </c>
       <c r="D122">
@@ -15659,12 +16584,18 @@
         <f t="shared" si="3"/>
         <v>3.6100000000000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J122">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>120</v>
       </c>
-      <c r="C123" s="102">
+      <c r="C123" s="101">
         <v>0</v>
       </c>
       <c r="D123">
@@ -15681,12 +16612,18 @@
         <f t="shared" si="3"/>
         <v>3.8899999999999997</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J123">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>121</v>
       </c>
-      <c r="C124" s="102">
+      <c r="C124" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D124">
@@ -15703,12 +16640,18 @@
         <f t="shared" si="3"/>
         <v>3.9000000000000004</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <v>16</v>
+      </c>
+      <c r="J124">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>122</v>
       </c>
-      <c r="C125" s="102">
+      <c r="C125" s="101">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D125">
@@ -15725,12 +16668,18 @@
         <f t="shared" si="3"/>
         <v>3.91</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <v>15.9</v>
+      </c>
+      <c r="J125">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>123</v>
       </c>
-      <c r="C126" s="102">
+      <c r="C126" s="101">
         <v>0.125</v>
       </c>
       <c r="D126">
@@ -15747,12 +16696,18 @@
         <f t="shared" si="3"/>
         <v>3.91</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>15.9</v>
+      </c>
+      <c r="J126">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>124</v>
       </c>
-      <c r="C127" s="102">
+      <c r="C127" s="101">
         <v>0.16666666666666699</v>
       </c>
       <c r="D127">
@@ -15769,12 +16724,18 @@
         <f t="shared" si="3"/>
         <v>3.92</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>15.8</v>
+      </c>
+      <c r="J127">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>125</v>
       </c>
-      <c r="C128" s="102">
+      <c r="C128" s="101">
         <v>0.20833333333333301</v>
       </c>
       <c r="D128">
@@ -15791,12 +16752,18 @@
         <f t="shared" si="3"/>
         <v>3.93</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>15.7</v>
+      </c>
+      <c r="J128">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>126</v>
       </c>
-      <c r="C129" s="102">
+      <c r="C129" s="101">
         <v>0.25</v>
       </c>
       <c r="D129">
@@ -15813,12 +16780,18 @@
         <f t="shared" si="3"/>
         <v>3.92</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>15.8</v>
+      </c>
+      <c r="J129">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>127</v>
       </c>
-      <c r="C130" s="102">
+      <c r="C130" s="101">
         <v>0.29166666666666702</v>
       </c>
       <c r="D130">
@@ -15835,12 +16808,18 @@
         <f t="shared" si="3"/>
         <v>3.93</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <v>15.7</v>
+      </c>
+      <c r="J130">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>128</v>
       </c>
-      <c r="C131" s="102">
+      <c r="C131" s="101">
         <v>0.33333333333333298</v>
       </c>
       <c r="D131">
@@ -15857,12 +16836,18 @@
         <f t="shared" si="3"/>
         <v>3.93</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <v>15.7</v>
+      </c>
+      <c r="J131">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>129</v>
       </c>
-      <c r="C132" s="102">
+      <c r="C132" s="101">
         <v>0.375</v>
       </c>
       <c r="D132">
@@ -15879,12 +16864,18 @@
         <f t="shared" ref="H132:H194" si="5">E132*5</f>
         <v>3.93</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <v>15.7</v>
+      </c>
+      <c r="J132">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>130</v>
       </c>
-      <c r="C133" s="102">
+      <c r="C133" s="101">
         <v>0.41666666666666702</v>
       </c>
       <c r="D133">
@@ -15901,12 +16892,18 @@
         <f t="shared" si="5"/>
         <v>3.9000000000000004</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>16</v>
+      </c>
+      <c r="J133">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>131</v>
       </c>
-      <c r="C134" s="102">
+      <c r="C134" s="101">
         <v>0.45833333333333298</v>
       </c>
       <c r="D134">
@@ -15923,12 +16920,18 @@
         <f t="shared" si="5"/>
         <v>3.8899999999999997</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J134">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>132</v>
       </c>
-      <c r="C135" s="102">
+      <c r="C135" s="101">
         <v>0.5</v>
       </c>
       <c r="D135">
@@ -15945,12 +16948,18 @@
         <f t="shared" si="5"/>
         <v>3.73</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>17.7</v>
+      </c>
+      <c r="J135">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>133</v>
       </c>
-      <c r="C136" s="102">
+      <c r="C136" s="101">
         <v>0.54166666666666696</v>
       </c>
       <c r="D136">
@@ -15967,12 +16976,18 @@
         <f t="shared" si="5"/>
         <v>3.8200000000000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <v>16.8</v>
+      </c>
+      <c r="J136">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>134</v>
       </c>
-      <c r="C137" s="102">
+      <c r="C137" s="101">
         <v>0.58333333333333304</v>
       </c>
       <c r="D137">
@@ -15989,12 +17004,18 @@
         <f t="shared" si="5"/>
         <v>3.71</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J137">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>135</v>
       </c>
-      <c r="C138" s="102">
+      <c r="C138" s="101">
         <v>0.625</v>
       </c>
       <c r="D138">
@@ -16011,12 +17032,18 @@
         <f t="shared" si="5"/>
         <v>3.59</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J138">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>136</v>
       </c>
-      <c r="C139" s="102">
+      <c r="C139" s="101">
         <v>0.66666666666666696</v>
       </c>
       <c r="D139">
@@ -16033,12 +17060,18 @@
         <f t="shared" si="5"/>
         <v>3.59</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J139">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>137</v>
       </c>
-      <c r="C140" s="102">
+      <c r="C140" s="101">
         <v>0.70833333333333304</v>
       </c>
       <c r="D140">
@@ -16055,12 +17088,18 @@
         <f t="shared" si="5"/>
         <v>3.66</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J140">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>138</v>
       </c>
-      <c r="C141" s="102">
+      <c r="C141" s="101">
         <v>0.75</v>
       </c>
       <c r="D141">
@@ -16077,12 +17116,18 @@
         <f t="shared" si="5"/>
         <v>3.6399999999999997</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J141">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>139</v>
       </c>
-      <c r="C142" s="102">
+      <c r="C142" s="101">
         <v>0.79166666666666696</v>
       </c>
       <c r="D142">
@@ -16099,12 +17144,18 @@
         <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>17.5</v>
+      </c>
+      <c r="J142">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>140</v>
       </c>
-      <c r="C143" s="102">
+      <c r="C143" s="101">
         <v>0.83333333333333304</v>
       </c>
       <c r="D143">
@@ -16121,12 +17172,18 @@
         <f t="shared" si="5"/>
         <v>3.9400000000000004</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>15.6</v>
+      </c>
+      <c r="J143">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>141</v>
       </c>
-      <c r="C144" s="102">
+      <c r="C144" s="101">
         <v>0.875</v>
       </c>
       <c r="D144">
@@ -16143,12 +17200,18 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>15</v>
+      </c>
+      <c r="J144">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>142</v>
       </c>
-      <c r="C145" s="102">
+      <c r="C145" s="101">
         <v>0.91666666666666696</v>
       </c>
       <c r="D145">
@@ -16165,12 +17228,18 @@
         <f t="shared" si="5"/>
         <v>4.12</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <v>13.8</v>
+      </c>
+      <c r="J145">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>143</v>
       </c>
-      <c r="C146" s="102">
+      <c r="C146" s="101">
         <v>0.95833333333333304</v>
       </c>
       <c r="D146">
@@ -16187,12 +17256,18 @@
         <f t="shared" si="5"/>
         <v>3.92</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <v>15.8</v>
+      </c>
+      <c r="J146">
+        <v>16.487500000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>144</v>
       </c>
-      <c r="C147" s="102">
+      <c r="C147" s="101">
         <v>0</v>
       </c>
       <c r="D147">
@@ -16209,12 +17284,18 @@
         <f t="shared" si="5"/>
         <v>4.79</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>7.1</v>
+      </c>
+      <c r="J147">
+        <v>7.6750000000000007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>145</v>
       </c>
-      <c r="C148" s="102">
+      <c r="C148" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D148">
@@ -16231,12 +17312,18 @@
         <f t="shared" si="5"/>
         <v>4.82</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <v>6.8</v>
+      </c>
+      <c r="J148">
+        <v>7.6750000000000007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>146</v>
       </c>
-      <c r="C149" s="102">
+      <c r="C149" s="101">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D149">
@@ -16253,12 +17340,18 @@
         <f t="shared" si="5"/>
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <v>6.1</v>
+      </c>
+      <c r="J149">
+        <v>7.6750000000000007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>147</v>
       </c>
-      <c r="C150" s="102">
+      <c r="C150" s="101">
         <v>0.125</v>
       </c>
       <c r="D150">
@@ -16275,12 +17368,18 @@
         <f t="shared" si="5"/>
         <v>4.88</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <v>6.2</v>
+      </c>
+      <c r="J150">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>148</v>
       </c>
-      <c r="C151" s="102">
+      <c r="C151" s="101">
         <v>0.16666666666666699</v>
       </c>
       <c r="D151">
@@ -16297,12 +17396,18 @@
         <f t="shared" si="5"/>
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <v>6.1</v>
+      </c>
+      <c r="J151">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>149</v>
       </c>
-      <c r="C152" s="102">
+      <c r="C152" s="101">
         <v>0.20833333333333301</v>
       </c>
       <c r="D152">
@@ -16319,12 +17424,18 @@
         <f t="shared" si="5"/>
         <v>4.78</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <v>7.2</v>
+      </c>
+      <c r="J152">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>150</v>
       </c>
-      <c r="C153" s="102">
+      <c r="C153" s="101">
         <v>0.25</v>
       </c>
       <c r="D153">
@@ -16341,12 +17452,18 @@
         <f t="shared" si="5"/>
         <v>4.74</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <v>7.6</v>
+      </c>
+      <c r="J153">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>151</v>
       </c>
-      <c r="C154" s="102">
+      <c r="C154" s="101">
         <v>0.29166666666666702</v>
       </c>
       <c r="D154">
@@ -16363,12 +17480,18 @@
         <f t="shared" si="5"/>
         <v>4.7</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <v>8</v>
+      </c>
+      <c r="J154">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>152</v>
       </c>
-      <c r="C155" s="102">
+      <c r="C155" s="101">
         <v>0.33333333333333298</v>
       </c>
       <c r="D155">
@@ -16385,12 +17508,18 @@
         <f t="shared" si="5"/>
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <v>7.7</v>
+      </c>
+      <c r="J155">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>153</v>
       </c>
-      <c r="C156" s="102">
+      <c r="C156" s="101">
         <v>0.375</v>
       </c>
       <c r="D156">
@@ -16407,12 +17536,18 @@
         <f t="shared" si="5"/>
         <v>4.67</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J156">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>154</v>
       </c>
-      <c r="C157" s="102">
+      <c r="C157" s="101">
         <v>0.41666666666666702</v>
       </c>
       <c r="D157">
@@ -16429,12 +17564,18 @@
         <f t="shared" si="5"/>
         <v>4.63</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J157">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>155</v>
       </c>
-      <c r="C158" s="102">
+      <c r="C158" s="101">
         <v>0.45833333333333298</v>
       </c>
       <c r="D158">
@@ -16451,12 +17592,18 @@
         <f t="shared" si="5"/>
         <v>4.63</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J158">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>156</v>
       </c>
-      <c r="C159" s="102">
+      <c r="C159" s="101">
         <v>0.5</v>
       </c>
       <c r="D159">
@@ -16473,12 +17620,18 @@
         <f t="shared" si="5"/>
         <v>4.63</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J159">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>157</v>
       </c>
-      <c r="C160" s="102">
+      <c r="C160" s="101">
         <v>0.54166666666666696</v>
       </c>
       <c r="D160">
@@ -16495,12 +17648,18 @@
         <f t="shared" si="5"/>
         <v>4.67</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J160">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>158</v>
       </c>
-      <c r="C161" s="102">
+      <c r="C161" s="101">
         <v>0.58333333333333304</v>
       </c>
       <c r="D161">
@@ -16517,12 +17676,18 @@
         <f t="shared" si="5"/>
         <v>4.66</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <v>8.4</v>
+      </c>
+      <c r="J161">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>159</v>
       </c>
-      <c r="C162" s="102">
+      <c r="C162" s="101">
         <v>0.625</v>
       </c>
       <c r="D162">
@@ -16539,12 +17704,18 @@
         <f t="shared" si="5"/>
         <v>4.6899999999999995</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <v>8.1</v>
+      </c>
+      <c r="J162">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>160</v>
       </c>
-      <c r="C163" s="102">
+      <c r="C163" s="101">
         <v>0.66666666666666696</v>
       </c>
       <c r="D163">
@@ -16561,12 +17732,18 @@
         <f t="shared" si="5"/>
         <v>4.67</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J163">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>161</v>
       </c>
-      <c r="C164" s="102">
+      <c r="C164" s="101">
         <v>0.70833333333333304</v>
       </c>
       <c r="D164">
@@ -16583,12 +17760,18 @@
         <f t="shared" si="5"/>
         <v>4.62</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J164">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>162</v>
       </c>
-      <c r="C165" s="102">
+      <c r="C165" s="101">
         <v>0.75</v>
       </c>
       <c r="D165">
@@ -16605,12 +17788,18 @@
         <f t="shared" si="5"/>
         <v>4.58</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J165">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>163</v>
       </c>
-      <c r="C166" s="102">
+      <c r="C166" s="101">
         <v>0.79166666666666696</v>
       </c>
       <c r="D166">
@@ -16627,12 +17816,18 @@
         <f t="shared" si="5"/>
         <v>4.71</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166">
+        <v>7.9</v>
+      </c>
+      <c r="J166">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>164</v>
       </c>
-      <c r="C167" s="102">
+      <c r="C167" s="101">
         <v>0.83333333333333304</v>
       </c>
       <c r="D167">
@@ -16649,12 +17844,18 @@
         <f t="shared" si="5"/>
         <v>4.76</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <v>7.4</v>
+      </c>
+      <c r="J167">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>165</v>
       </c>
-      <c r="C168" s="102">
+      <c r="C168" s="101">
         <v>0.875</v>
       </c>
       <c r="D168">
@@ -16671,12 +17872,18 @@
         <f t="shared" si="5"/>
         <v>4.78</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168">
+        <v>7.2</v>
+      </c>
+      <c r="J168">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>166</v>
       </c>
-      <c r="C169" s="102">
+      <c r="C169" s="101">
         <v>0.91666666666666696</v>
       </c>
       <c r="D169">
@@ -16693,12 +17900,18 @@
         <f t="shared" si="5"/>
         <v>4.8100000000000005</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169">
+        <v>6.9</v>
+      </c>
+      <c r="J169">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>167</v>
       </c>
-      <c r="C170" s="102">
+      <c r="C170" s="101">
         <v>0.95833333333333304</v>
       </c>
       <c r="D170">
@@ -16715,12 +17928,18 @@
         <f t="shared" si="5"/>
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <v>6.5</v>
+      </c>
+      <c r="J170">
+        <v>7.6749999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>168</v>
       </c>
-      <c r="C171" s="102">
+      <c r="C171" s="101">
         <v>0</v>
       </c>
       <c r="D171">
@@ -16737,12 +17956,18 @@
         <f t="shared" si="5"/>
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171">
+        <v>8.6</v>
+      </c>
+      <c r="J171">
+        <v>8.404166666666665</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>169</v>
       </c>
-      <c r="C172" s="102">
+      <c r="C172" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D172">
@@ -16759,12 +17984,18 @@
         <f t="shared" si="5"/>
         <v>4.63</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J172">
+        <v>8.404166666666665</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>170</v>
       </c>
-      <c r="C173" s="102">
+      <c r="C173" s="101">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D173">
@@ -16781,12 +18012,18 @@
         <f t="shared" si="5"/>
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <v>8.9</v>
+      </c>
+      <c r="J173">
+        <v>8.404166666666665</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>171</v>
       </c>
-      <c r="C174" s="102">
+      <c r="C174" s="101">
         <v>0.125</v>
       </c>
       <c r="D174">
@@ -16803,12 +18040,18 @@
         <f t="shared" si="5"/>
         <v>4.63</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J174">
+        <v>8.404166666666665</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>172</v>
       </c>
-      <c r="C175" s="102">
+      <c r="C175" s="101">
         <v>0.16666666666666699</v>
       </c>
       <c r="D175">
@@ -16825,12 +18068,18 @@
         <f t="shared" si="5"/>
         <v>4.66</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175">
+        <v>8.4</v>
+      </c>
+      <c r="J175">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>173</v>
       </c>
-      <c r="C176" s="102">
+      <c r="C176" s="101">
         <v>0.20833333333333301</v>
       </c>
       <c r="D176">
@@ -16847,12 +18096,18 @@
         <f t="shared" si="5"/>
         <v>4.68</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J176">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>174</v>
       </c>
-      <c r="C177" s="102">
+      <c r="C177" s="101">
         <v>0.25</v>
       </c>
       <c r="D177">
@@ -16869,12 +18124,18 @@
         <f t="shared" si="5"/>
         <v>4.66</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <v>8.4</v>
+      </c>
+      <c r="J177">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>175</v>
       </c>
-      <c r="C178" s="102">
+      <c r="C178" s="101">
         <v>0.29166666666666702</v>
       </c>
       <c r="D178">
@@ -16891,12 +18152,18 @@
         <f t="shared" si="5"/>
         <v>4.75</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <v>7.5</v>
+      </c>
+      <c r="J178">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>176</v>
       </c>
-      <c r="C179" s="102">
+      <c r="C179" s="101">
         <v>0.33333333333333298</v>
       </c>
       <c r="D179">
@@ -16913,12 +18180,18 @@
         <f t="shared" si="5"/>
         <v>4.76</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <v>7.4</v>
+      </c>
+      <c r="J179">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>177</v>
       </c>
-      <c r="C180" s="102">
+      <c r="C180" s="101">
         <v>0.375</v>
       </c>
       <c r="D180">
@@ -16935,12 +18208,18 @@
         <f t="shared" si="5"/>
         <v>4.67</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J180">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>178</v>
       </c>
-      <c r="C181" s="102">
+      <c r="C181" s="101">
         <v>0.41666666666666702</v>
       </c>
       <c r="D181">
@@ -16957,12 +18236,18 @@
         <f t="shared" si="5"/>
         <v>4.6899999999999995</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <v>8.1</v>
+      </c>
+      <c r="J181">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>179</v>
       </c>
-      <c r="C182" s="102">
+      <c r="C182" s="101">
         <v>0.45833333333333298</v>
       </c>
       <c r="D182">
@@ -16979,12 +18264,18 @@
         <f t="shared" si="5"/>
         <v>4.67</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J182">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>180</v>
       </c>
-      <c r="C183" s="102">
+      <c r="C183" s="101">
         <v>0.5</v>
       </c>
       <c r="D183">
@@ -17001,12 +18292,18 @@
         <f t="shared" si="5"/>
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <v>8.5</v>
+      </c>
+      <c r="J183">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>181</v>
       </c>
-      <c r="C184" s="102">
+      <c r="C184" s="101">
         <v>0.54166666666666696</v>
       </c>
       <c r="D184">
@@ -17023,12 +18320,18 @@
         <f t="shared" si="5"/>
         <v>4.62</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J184">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>182</v>
       </c>
-      <c r="C185" s="102">
+      <c r="C185" s="101">
         <v>0.58333333333333304</v>
       </c>
       <c r="D185">
@@ -17045,12 +18348,18 @@
         <f t="shared" si="5"/>
         <v>4.62</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J185">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>183</v>
       </c>
-      <c r="C186" s="102">
+      <c r="C186" s="101">
         <v>0.625</v>
       </c>
       <c r="D186">
@@ -17067,12 +18376,18 @@
         <f t="shared" si="5"/>
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <v>8.9</v>
+      </c>
+      <c r="J186">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>184</v>
       </c>
-      <c r="C187" s="102">
+      <c r="C187" s="101">
         <v>0.66666666666666696</v>
       </c>
       <c r="D187">
@@ -17089,12 +18404,18 @@
         <f t="shared" si="5"/>
         <v>4.66</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <v>8.4</v>
+      </c>
+      <c r="J187">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>185</v>
       </c>
-      <c r="C188" s="102">
+      <c r="C188" s="101">
         <v>0.70833333333333304</v>
       </c>
       <c r="D188">
@@ -17111,12 +18432,18 @@
         <f t="shared" si="5"/>
         <v>4.66</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <v>8.4</v>
+      </c>
+      <c r="J188">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>186</v>
       </c>
-      <c r="C189" s="102">
+      <c r="C189" s="101">
         <v>0.75</v>
       </c>
       <c r="D189">
@@ -17133,12 +18460,18 @@
         <f t="shared" si="5"/>
         <v>4.68</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J189">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>187</v>
       </c>
-      <c r="C190" s="102">
+      <c r="C190" s="101">
         <v>0.79166666666666696</v>
       </c>
       <c r="D190">
@@ -17155,12 +18488,18 @@
         <f t="shared" si="5"/>
         <v>4.6899999999999995</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190">
+        <v>8.1</v>
+      </c>
+      <c r="J190">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>188</v>
       </c>
-      <c r="C191" s="102">
+      <c r="C191" s="101">
         <v>0.83333333333333304</v>
       </c>
       <c r="D191">
@@ -17177,12 +18516,18 @@
         <f t="shared" si="5"/>
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I191">
+        <v>8.5</v>
+      </c>
+      <c r="J191">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>189</v>
       </c>
-      <c r="C192" s="102">
+      <c r="C192" s="101">
         <v>0.875</v>
       </c>
       <c r="D192">
@@ -17199,12 +18544,18 @@
         <f t="shared" si="5"/>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I192">
+        <v>9</v>
+      </c>
+      <c r="J192">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>190</v>
       </c>
-      <c r="C193" s="102">
+      <c r="C193" s="101">
         <v>0.91666666666666696</v>
       </c>
       <c r="D193">
@@ -17221,12 +18572,18 @@
         <f t="shared" si="5"/>
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I193">
+        <v>8.6</v>
+      </c>
+      <c r="J193">
+        <v>8.4041666666666703</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>191</v>
       </c>
-      <c r="C194" s="102">
+      <c r="C194" s="101">
         <v>0.95833333333333304</v>
       </c>
       <c r="D194">
@@ -17242,6 +18599,12 @@
       <c r="H194">
         <f t="shared" si="5"/>
         <v>4.7</v>
+      </c>
+      <c r="I194">
+        <v>8</v>
+      </c>
+      <c r="J194">
+        <v>8.4041666666666703</v>
       </c>
     </row>
   </sheetData>
@@ -17254,8 +18617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17265,52 +18628,52 @@
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>153</v>
+    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="129"/>
+      <c r="C2" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="82">
+        <v>167</v>
+      </c>
+      <c r="C3" s="129">
         <v>25</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="129">
         <v>5</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="130">
         <v>3.1372000000000001E-3</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="130">
         <v>3.8501999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="82">
+        <v>168</v>
+      </c>
+      <c r="C4" s="129">
         <v>25</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="129">
         <v>5</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="129">
         <v>3</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="129">
         <v>4</v>
       </c>
     </row>
@@ -17345,7 +18708,7 @@
       <c r="F11" s="122"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="85">
+      <c r="C20" s="84">
         <f>(F3-E3)/(20)</f>
         <v>3.5649999999999986E-5</v>
       </c>

--- a/Final Report/Figures & Tables/p2h- p-H tables.xlsx
+++ b/Final Report/Figures & Tables/p2h- p-H tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="709" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="709"/>
   </bookViews>
   <sheets>
     <sheet name="HP Calculations" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="180">
   <si>
     <t>H2</t>
   </si>
@@ -1126,6 +1126,27 @@
       <t>]</t>
     </r>
   </si>
+  <si>
+    <t>COP at 40</t>
+  </si>
+  <si>
+    <t>at 40 celcius</t>
+  </si>
+  <si>
+    <t>H3 at 40</t>
+  </si>
+  <si>
+    <t>at40</t>
+  </si>
+  <si>
+    <t>at 40 p=1.2</t>
+  </si>
+  <si>
+    <t>at 40 p=1.0</t>
+  </si>
+  <si>
+    <t>final at 40</t>
+  </si>
 </sst>
 </file>
 
@@ -1325,7 +1346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1566,17 +1587,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -1592,7 +1602,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1733,7 +1743,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1811,6 +1820,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,7 +1868,7 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1859,7 +1880,7 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,12 +1907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1951,6 +1967,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2107,11 +2124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204166656"/>
-        <c:axId val="183364992"/>
+        <c:axId val="191653888"/>
+        <c:axId val="170847616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204166656"/>
+        <c:axId val="191653888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,13 +2169,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183364992"/>
+        <c:crossAx val="170847616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2166,7 +2184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183364992"/>
+        <c:axId val="170847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,13 +2207,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204166656"/>
+        <c:crossAx val="191653888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3218,44 +3237,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AE55"/>
+  <dimension ref="A2:AJ59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38:S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="20" max="20" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:36" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="5">
         <v>-20</v>
@@ -3308,18 +3328,23 @@
       <c r="S3" s="13">
         <v>44</v>
       </c>
-      <c r="T3" s="106" t="s">
+      <c r="T3" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="X3" s="106" t="s">
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="X3" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AB3" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -3386,8 +3411,17 @@
       <c r="Z4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AB4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="103">
+        <v>1.0165999999999999</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -3460,8 +3494,17 @@
       <c r="Z5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AB5" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>419.43</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -3530,8 +3573,15 @@
         <v>271.62</v>
       </c>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AB6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>256.41000000000003</v>
+      </c>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>94</v>
       </c>
@@ -3604,8 +3654,17 @@
       <c r="Z7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AB7" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1.7111000000000001</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>95</v>
       </c>
@@ -3674,28 +3733,61 @@
         <v>1.2375</v>
       </c>
       <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="AB8" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1.1904999999999999</v>
+      </c>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="2">
+        <v>425.10716022951794</v>
+      </c>
+      <c r="D9" s="2">
+        <v>424.05510541969835</v>
+      </c>
+      <c r="E9" s="2">
+        <v>423.09587897545106</v>
+      </c>
+      <c r="F9" s="2">
+        <v>422.22948089677612</v>
+      </c>
+      <c r="G9" s="2">
+        <v>421.42496839514945</v>
+      </c>
+      <c r="H9" s="2">
+        <v>420.71328425909496</v>
+      </c>
+      <c r="I9" s="2">
+        <v>420.06348570008879</v>
+      </c>
+      <c r="J9" s="2">
+        <v>419.44462992960672</v>
+      </c>
+      <c r="K9" s="2">
+        <v>418.87743210173625</v>
+      </c>
+      <c r="L9" s="2">
+        <v>418.37065876028021</v>
+      </c>
+      <c r="M9" s="2">
+        <v>417.86388541882428</v>
+      </c>
+      <c r="N9" s="2">
+        <v>417.42045874505033</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -3713,7 +3805,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -3731,7 +3823,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3772,8 +3864,16 @@
       </c>
       <c r="AD14" s="58"/>
       <c r="AE14" s="58"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AG14" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH14" s="102">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
@@ -3797,10 +3897,10 @@
       <c r="S15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T15" s="108" t="s">
+      <c r="T15" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="109"/>
+      <c r="U15" s="112"/>
       <c r="W15" s="5" t="s">
         <v>13</v>
       </c>
@@ -3821,8 +3921,18 @@
         <v>11</v>
       </c>
       <c r="AE15" s="58"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AG15" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH15" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI15" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ15" s="102"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
         <v>67.489999999999995</v>
       </c>
@@ -3866,8 +3976,18 @@
         <v>1.7068000000000001</v>
       </c>
       <c r="AE16" s="2"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG16" s="7">
+        <v>39.39</v>
+      </c>
+      <c r="AH16" s="8">
+        <v>419.31</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>1.7117</v>
+      </c>
+      <c r="AJ16" s="2"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C17" s="7">
         <v>70</v>
       </c>
@@ -3905,8 +4025,18 @@
         <v>1.7346999999999999</v>
       </c>
       <c r="AE17" s="2"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG17" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>419.99</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>1.7139</v>
+      </c>
+      <c r="AJ17" s="2"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C18" s="7">
         <v>80</v>
       </c>
@@ -3950,8 +4080,18 @@
         <v>1.7690999999999999</v>
       </c>
       <c r="AE18" s="2"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG18" s="7">
+        <v>50</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>430.91</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>1.7482</v>
+      </c>
+      <c r="AJ18" s="2"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>90</v>
       </c>
@@ -3981,14 +4121,24 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AB19" s="76">
+      <c r="AB19" s="75">
         <v>80</v>
       </c>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
       <c r="AE19" s="2"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG19" s="75">
+        <v>60</v>
+      </c>
+      <c r="AH19" s="76">
+        <v>441.56</v>
+      </c>
+      <c r="AI19" s="76">
+        <v>1.7806999999999999</v>
+      </c>
+      <c r="AJ19" s="2"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C20" s="4">
         <v>100</v>
       </c>
@@ -4020,29 +4170,39 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG20" s="103">
+        <v>70</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>452.05</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>1.8117000000000001</v>
+      </c>
+      <c r="AJ20" s="2"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="104" t="s">
+      <c r="G23" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
@@ -4050,22 +4210,22 @@
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
@@ -4073,18 +4233,18 @@
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="E28" s="105" t="s">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="E28" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="105"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="F28" s="108"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>100</v>
       </c>
@@ -4157,7 +4317,7 @@
         <v>432.39397959183674</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
@@ -4230,11 +4390,61 @@
         <v>422.34805970149256</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="15"/>
+      <c r="B31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31">
+        <f>AH18-((AI18-C6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>428.71326530612248</v>
+      </c>
+      <c r="D31">
+        <f>AH18-((AI18-D6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>427.63081632653063</v>
+      </c>
+      <c r="E31">
+        <f>AH18-((AI18-E6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>426.64387755102041</v>
+      </c>
+      <c r="F31">
+        <f>AH18-((AI18-F6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>425.75244897959186</v>
+      </c>
+      <c r="G31">
+        <f>AH18-((AI18-G6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>424.92469387755108</v>
+      </c>
+      <c r="H31">
+        <f>AH18-((AI18-H6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>424.19244897959186</v>
+      </c>
+      <c r="I31">
+        <f>AH18-((AI18-I6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>423.52387755102046</v>
+      </c>
+      <c r="J31">
+        <f>AH18-((AI18-J6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>422.88714285714292</v>
+      </c>
+      <c r="K31">
+        <f>AH18-((AI18-K6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>422.31408163265309</v>
+      </c>
+      <c r="L31">
+        <f>AH18-((AI18-L6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>421.80469387755102</v>
+      </c>
+      <c r="M31">
+        <f>AH18-((AI18-M6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>421.29530612244901</v>
+      </c>
+      <c r="N31">
+        <f>AH18-((AI18-N6)/(AI18-AI17)*(AH18-AH17))</f>
+        <v>420.8495918367347</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -4390,82 +4600,82 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
       <c r="P35" s="45"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="71">
         <f>C34/C33</f>
         <v>2.4173893825935386</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="71">
         <f>D34/D33</f>
         <v>2.5585606187899956</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E36" s="71">
         <f t="shared" ref="E36:O36" si="2">E34/E33</f>
         <v>2.714989004779675</v>
       </c>
-      <c r="F36" s="72">
+      <c r="F36" s="71">
         <f t="shared" si="2"/>
         <v>2.8887404751622192</v>
       </c>
-      <c r="G36" s="72">
+      <c r="G36" s="71">
         <f t="shared" si="2"/>
         <v>3.0836737494638502</v>
       </c>
-      <c r="H36" s="72">
+      <c r="H36" s="71">
         <f t="shared" si="2"/>
         <v>3.3012787711657898</v>
       </c>
-      <c r="I36" s="72">
+      <c r="I36" s="71">
         <f t="shared" si="2"/>
         <v>3.5476357631295592</v>
       </c>
-      <c r="J36" s="72">
+      <c r="J36" s="71">
         <f t="shared" si="2"/>
         <v>3.8298917616100274</v>
       </c>
-      <c r="K36" s="72">
+      <c r="K36" s="71">
         <f t="shared" si="2"/>
         <v>4.1513482556896895</v>
       </c>
-      <c r="L36" s="72">
+      <c r="L36" s="71">
         <f t="shared" si="2"/>
         <v>4.5195189330867835</v>
       </c>
-      <c r="M36" s="72">
+      <c r="M36" s="71">
         <f t="shared" si="2"/>
         <v>4.9559835616884129</v>
       </c>
-      <c r="N36" s="72">
+      <c r="N36" s="71">
         <f t="shared" si="2"/>
         <v>5.4617938786010338</v>
       </c>
-      <c r="O36" s="72">
+      <c r="O36" s="71">
         <f t="shared" si="2"/>
         <v>6.0736439444007138</v>
       </c>
-      <c r="P36" s="72">
+      <c r="P36" s="71">
         <f>P34/P33</f>
         <v>6.8177510907046814</v>
       </c>
@@ -4483,7 +4693,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="70" t="s">
         <v>92</v>
       </c>
       <c r="B37" s="65"/>
@@ -4557,22 +4767,63 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
+      <c r="A38" s="67" t="s">
+        <v>173</v>
+      </c>
       <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
+      <c r="C38" s="69">
+        <f>C59/C58</f>
+        <v>4.3752485718688803</v>
+      </c>
+      <c r="D38" s="69">
+        <f t="shared" ref="D38:S38" si="5">D59/D58</f>
+        <v>4.7850606816053833</v>
+      </c>
+      <c r="E38" s="69">
+        <f t="shared" si="5"/>
+        <v>5.2688872373293796</v>
+      </c>
+      <c r="F38" s="69">
+        <f t="shared" si="5"/>
+        <v>5.8470562807666306</v>
+      </c>
+      <c r="G38" s="69">
+        <f t="shared" si="5"/>
+        <v>6.5547239545668488</v>
+      </c>
+      <c r="H38" s="69">
+        <f t="shared" si="5"/>
+        <v>7.4300715503857768</v>
+      </c>
+      <c r="I38" s="69">
+        <f t="shared" si="5"/>
+        <v>8.5487819858914129</v>
+      </c>
+      <c r="J38" s="69">
+        <f t="shared" si="5"/>
+        <v>10.036216930523429</v>
+      </c>
+      <c r="K38" s="69">
+        <f t="shared" si="5"/>
+        <v>12.081669635703872</v>
+      </c>
+      <c r="L38" s="69">
+        <f t="shared" si="5"/>
+        <v>15.051184352960835</v>
+      </c>
+      <c r="M38" s="69">
+        <f t="shared" si="5"/>
+        <v>19.898467514003823</v>
+      </c>
+      <c r="N38" s="69">
+        <f t="shared" si="5"/>
+        <v>28.74951250865848</v>
+      </c>
       <c r="O38" s="69"/>
-      <c r="P38" s="70"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
     </row>
     <row r="39" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
@@ -4590,51 +4841,51 @@
         <v>0.8556726160448751</v>
       </c>
       <c r="E39" s="59">
-        <f t="shared" ref="E39:P39" si="5">E36*(70-E3)/(E3+273.15)</f>
+        <f t="shared" ref="E39:P39" si="6">E36*(70-E3)/(E3+273.15)</f>
         <v>0.8524951115907845</v>
       </c>
       <c r="F39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8497897682921105</v>
       </c>
       <c r="G39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84782410351226056</v>
       </c>
       <c r="H39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84601689175033978</v>
       </c>
       <c r="I39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84482756762240996</v>
       </c>
       <c r="J39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84457865630382967</v>
       </c>
       <c r="K39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84439136885850263</v>
       </c>
       <c r="L39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84403950332590816</v>
       </c>
       <c r="M39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84529823668572635</v>
       </c>
       <c r="N39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8455073815098354</v>
       </c>
       <c r="O39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84706307708726547</v>
       </c>
       <c r="P39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84900718153949839</v>
       </c>
       <c r="Q39" s="2">
@@ -4646,7 +4897,7 @@
         <v>0.85275686101811266</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" ref="S39" si="6">S36*(70-S3)/(S3+273.15)</f>
+        <f t="shared" ref="S39" si="7">S36*(70-S3)/(S3+273.15)</f>
         <v>0.85624647548453814</v>
       </c>
     </row>
@@ -4663,63 +4914,63 @@
         <v>0.93498963254879819</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:S40" si="7">E37*(50-E3)/(E3+273.15)</f>
+        <f t="shared" ref="E40:S40" si="8">E37*(50-E3)/(E3+273.15)</f>
         <v>0.93226698371889238</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92968037836064765</v>
       </c>
       <c r="G40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92794891647303412</v>
       </c>
       <c r="H40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9262993553742116</v>
       </c>
       <c r="I40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92530933814361538</v>
       </c>
       <c r="J40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92555846472033509</v>
       </c>
       <c r="K40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92553904386426789</v>
       </c>
       <c r="L40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9249317108784465</v>
       </c>
       <c r="M40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92680384952404582</v>
       </c>
       <c r="N40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92659669423942603</v>
       </c>
       <c r="O40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92861380726100073</v>
       </c>
       <c r="P40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93134794914907537</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93629089776966223</v>
       </c>
       <c r="R40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93639012367436769</v>
       </c>
       <c r="S40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.94607524454635084</v>
       </c>
     </row>
@@ -4743,47 +4994,47 @@
         <v>362.28170631045333</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" ref="F42:P42" si="8">50000/F34</f>
+        <f t="shared" ref="F42:P42" si="9">50000/F34</f>
         <v>364.90030674792905</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>367.35428880337867</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>369.53301403198969</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>371.5449780155592</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>373.48160901774122</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>375.24191977508866</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>376.82062944846774</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>378.41267907164871</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>379.81679883362318</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>381.23137752156782</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>382.65653243109819</v>
       </c>
       <c r="Q42" s="2">
@@ -4815,63 +5066,63 @@
         <v>44.420599763397377</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:S44" si="9">E8-E5</f>
+        <f t="shared" ref="E44:S44" si="10">E8-E5</f>
         <v>40.945760210903302</v>
       </c>
       <c r="F44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.614436308087875</v>
       </c>
       <c r="G44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34.379381066386202</v>
       </c>
       <c r="H44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.272986044880781</v>
       </c>
       <c r="I44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.262364503506376</v>
       </c>
       <c r="J44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.324629702197342</v>
       </c>
       <c r="K44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.50724683678385</v>
       </c>
       <c r="L44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.806291516610486</v>
       </c>
       <c r="M44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17.145336196437142</v>
       </c>
       <c r="N44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.619500291285476</v>
       </c>
       <c r="O44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.143664386133878</v>
       </c>
       <c r="P44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.7478284809822071</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.4219925758305294</v>
       </c>
       <c r="R44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.218716378189697</v>
       </c>
       <c r="S44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0503207655272035</v>
       </c>
     </row>
@@ -5024,7 +5275,7 @@
         <v>434.25374647887321</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>98</v>
       </c>
@@ -5097,7 +5348,63 @@
         <v>425.42229390681001</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B50" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50">
+        <v>432.64576811594202</v>
+      </c>
+      <c r="D50">
+        <v>431.53017391304348</v>
+      </c>
+      <c r="E50">
+        <v>430.5130144927536</v>
+      </c>
+      <c r="F50">
+        <v>429.59428985507247</v>
+      </c>
+      <c r="G50">
+        <v>428.74118840579712</v>
+      </c>
+      <c r="H50">
+        <v>427.98652173913047</v>
+      </c>
+      <c r="I50">
+        <v>427.29747826086964</v>
+      </c>
+      <c r="J50">
+        <v>426.64124637681164</v>
+      </c>
+      <c r="K50">
+        <v>426.06179104477616</v>
+      </c>
+      <c r="L50">
+        <v>425.54955223880597</v>
+      </c>
+      <c r="M50">
+        <v>425.03731343283584</v>
+      </c>
+      <c r="N50">
+        <v>424.5891044776119</v>
+      </c>
+      <c r="O50">
+        <v>424.14089552238812</v>
+      </c>
+      <c r="P50">
+        <v>423.69268656716417</v>
+      </c>
+      <c r="Q50">
+        <v>423.24447761194028</v>
+      </c>
+      <c r="R50">
+        <v>422.82828358208957</v>
+      </c>
+      <c r="S50">
+        <v>422.34805970149256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>102</v>
       </c>
@@ -5170,7 +5477,7 @@
         <v>433.48008345386603</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>103</v>
       </c>
@@ -5243,8 +5550,179 @@
         <v>424.16032076552722</v>
       </c>
     </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56">
+        <f>C31+((AC4-X14)/(X14-AH14))*(C50-C31)</f>
+        <v>425.10716022951794</v>
+      </c>
+      <c r="D56">
+        <f>D31+((AC4-X14)/(X14-AH14))*(D50-D31)</f>
+        <v>424.05510541969835</v>
+      </c>
+      <c r="E56">
+        <f>E31+((AC4-X14)/(X14-AH14))*(E50-E31)</f>
+        <v>423.09587897545106</v>
+      </c>
+      <c r="F56">
+        <f>F31+((AC4-X14)/(X14-AH14))*(F50-F31)</f>
+        <v>422.22948089677612</v>
+      </c>
+      <c r="G56">
+        <f>G31+((AC4-X14)/(X14-AH14))*(G50-G31)</f>
+        <v>421.42496839514945</v>
+      </c>
+      <c r="H56">
+        <f>H31+((AC4-X14)/(X14-AH14))*(H50-H31)</f>
+        <v>420.71328425909496</v>
+      </c>
+      <c r="I56">
+        <f>I31+((AC4-X14)/(X14-AH14))*(I50-I31)</f>
+        <v>420.06348570008879</v>
+      </c>
+      <c r="J56">
+        <f>J31+((AC4-X14)/(X14-AH14))*(J50-J31)</f>
+        <v>419.44462992960672</v>
+      </c>
+      <c r="K56">
+        <f>K31+((AC4-X14)/(X14-AH14))*(K50-K31)</f>
+        <v>418.87743210173625</v>
+      </c>
+      <c r="L56">
+        <f>L31+((AC4-X14)/(X14-AH14))*(L50-L31)</f>
+        <v>418.37065876028021</v>
+      </c>
+      <c r="M56">
+        <f>M31+((AC4-X14)/(X14-AH14))*(M50-M31)</f>
+        <v>417.86388541882428</v>
+      </c>
+      <c r="N56">
+        <f>N31+((AC4-X14)/(X14-AH14))*(N50-N31)</f>
+        <v>417.42045874505033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <f>C9-C5</f>
+        <v>38.557160229517933</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:N58" si="11">D9-D5</f>
+        <v>35.035105419698368</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="11"/>
+        <v>31.635878975451078</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="11"/>
+        <v>28.35948089677612</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="11"/>
+        <v>25.174968395149449</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="11"/>
+        <v>22.113284259094939</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="11"/>
+        <v>19.143485700088775</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="11"/>
+        <v>16.244629929606731</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="11"/>
+        <v>13.44743210173624</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="11"/>
+        <v>10.760658760280194</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="11"/>
+        <v>8.1138854188242817</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="11"/>
+        <v>5.6004587450503323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <f>C9-AC6</f>
+        <v>168.69716022951792</v>
+      </c>
+      <c r="D59">
+        <f>D9-AC6</f>
+        <v>167.64510541969833</v>
+      </c>
+      <c r="E59">
+        <f>E9-AC6</f>
+        <v>166.68587897545103</v>
+      </c>
+      <c r="F59">
+        <f>F9-AC6</f>
+        <v>165.8194808967761</v>
+      </c>
+      <c r="G59">
+        <f>G9-AC6</f>
+        <v>165.01496839514942</v>
+      </c>
+      <c r="H59">
+        <f>H9-AC6</f>
+        <v>164.30328425909494</v>
+      </c>
+      <c r="I59">
+        <f>I9-AC6</f>
+        <v>163.65348570008877</v>
+      </c>
+      <c r="J59">
+        <f>J9-AC6</f>
+        <v>163.03462992960669</v>
+      </c>
+      <c r="K59">
+        <f>K9-AC6</f>
+        <v>162.46743210173622</v>
+      </c>
+      <c r="L59">
+        <f>L9-AC6</f>
+        <v>161.96065876028018</v>
+      </c>
+      <c r="M59">
+        <f>M9-AC6</f>
+        <v>161.45388541882426</v>
+      </c>
+      <c r="N59">
+        <f>N9-AC6</f>
+        <v>161.0104587450503</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="C2:P2"/>
     <mergeCell ref="G23:P24"/>
     <mergeCell ref="E28:F28"/>
@@ -5256,9 +5734,10 @@
   <hyperlinks>
     <hyperlink ref="T4" r:id="rId1" display="pressure@70"/>
     <hyperlink ref="X4" r:id="rId2" display="pressure@70"/>
+    <hyperlink ref="AB4" r:id="rId3" display="pressure@70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5282,32 +5761,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="124"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,10 +5826,10 @@
       <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="103"/>
+      <c r="E8" s="106"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D9" s="52" t="s">
@@ -5362,18 +5841,18 @@
       <c r="F9" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="79" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="103"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="2" t="s">
         <v>113</v>
       </c>
@@ -5391,10 +5870,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="2" t="s">
         <v>115</v>
       </c>
@@ -5412,10 +5891,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="2" t="s">
         <v>120</v>
       </c>
@@ -5433,23 +5912,23 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="125" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="103"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5514,10 +5993,10 @@
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="107"/>
+      <c r="E25" s="110"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="K26">
@@ -5576,10 +6055,10 @@
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F32" s="82" t="s">
+      <c r="F32" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="92">
+      <c r="G32" s="91">
         <f>16.06/3600</f>
         <v>4.461111111111111E-3</v>
       </c>
@@ -5597,7 +6076,7 @@
       </c>
     </row>
     <row r="36" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D36" s="81" t="s">
+      <c r="D36" s="80" t="s">
         <v>137</v>
       </c>
       <c r="I36" t="s">
@@ -5643,11 +6122,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="109"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="112"/>
       <c r="H3" s="2" t="s">
         <v>59</v>
       </c>
@@ -5732,10 +6211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:W27"/>
+  <dimension ref="B4:W38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5885,14 +6364,14 @@
       <c r="D11">
         <v>4.2500819365918225</v>
       </c>
-      <c r="R11" s="110" t="s">
+      <c r="R11" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
@@ -5901,12 +6380,12 @@
       <c r="D12">
         <v>4.6251379790503169</v>
       </c>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
@@ -5915,12 +6394,12 @@
       <c r="D13">
         <v>5.0603733784093174</v>
       </c>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
@@ -5929,12 +6408,12 @@
       <c r="D14">
         <v>5.5749887623152823</v>
       </c>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
@@ -5943,12 +6422,12 @@
       <c r="D15">
         <v>6.1957324370505278</v>
       </c>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
@@ -5957,12 +6436,12 @@
       <c r="D16">
         <v>6.9451962725762089</v>
       </c>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
@@ -5971,12 +6450,12 @@
       <c r="D17">
         <v>7.8660001235441985</v>
       </c>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
@@ -5985,12 +6464,12 @@
       <c r="D18">
         <v>9.0564182829324675</v>
       </c>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C19" s="43">
@@ -5999,12 +6478,12 @@
       <c r="D19">
         <v>10.589931065124823</v>
       </c>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C20" s="43">
@@ -6013,12 +6492,12 @@
       <c r="D20">
         <v>12.711456729847743</v>
       </c>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C21" s="43">
@@ -6027,12 +6506,12 @@
       <c r="D21">
         <v>15.788934815713352</v>
       </c>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C22" s="43">
@@ -6041,12 +6520,12 @@
       <c r="D22">
         <v>20.67530936039222</v>
       </c>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C23" s="43">
@@ -6055,12 +6534,12 @@
       <c r="D23">
         <v>29.32305672286282</v>
       </c>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="110"/>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C24" s="43">
@@ -6069,36 +6548,121 @@
       <c r="D24">
         <v>50.007960634645855</v>
       </c>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="107"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-24</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-20</v>
+      </c>
+      <c r="F37" s="5">
+        <v>-16</v>
+      </c>
+      <c r="G37" s="5">
+        <v>-12</v>
+      </c>
+      <c r="H37" s="5">
+        <v>-8</v>
+      </c>
+      <c r="I37" s="5">
+        <v>-4</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>4</v>
+      </c>
+      <c r="L37" s="5">
+        <v>8</v>
+      </c>
+      <c r="M37" s="5">
+        <v>12</v>
+      </c>
+      <c r="N37" s="43">
+        <v>16</v>
+      </c>
+      <c r="O37" s="43">
+        <v>20</v>
+      </c>
+      <c r="P37" s="43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>4.3752485718688803</v>
+      </c>
+      <c r="F38">
+        <v>4.7850606816053833</v>
+      </c>
+      <c r="G38">
+        <v>5.2688872373293796</v>
+      </c>
+      <c r="H38">
+        <v>5.8470562807666306</v>
+      </c>
+      <c r="I38">
+        <v>6.5547239545668488</v>
+      </c>
+      <c r="J38">
+        <v>7.4300715503857768</v>
+      </c>
+      <c r="K38">
+        <v>8.5487819858914129</v>
+      </c>
+      <c r="L38">
+        <v>10.036216930523429</v>
+      </c>
+      <c r="M38">
+        <v>12.081669635703872</v>
+      </c>
+      <c r="N38">
+        <v>15.051184352960835</v>
+      </c>
+      <c r="O38">
+        <v>19.898467514003823</v>
+      </c>
+      <c r="P38">
+        <v>28.74951250865848</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6330,18 +6894,18 @@
       <c r="R10" s="11"/>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="S12" s="111" t="s">
+      <c r="S12" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
     </row>
     <row r="13" spans="3:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S13" s="110" t="s">
+      <c r="S13" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D14" s="18" t="s">
@@ -6350,9 +6914,9 @@
       <c r="E14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D15" s="38">
@@ -6361,9 +6925,9 @@
       <c r="E15">
         <v>2.4173893825935386</v>
       </c>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D16" s="38">
@@ -6372,9 +6936,9 @@
       <c r="E16">
         <v>2.5585606187899956</v>
       </c>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="38">
@@ -6383,9 +6947,9 @@
       <c r="E17">
         <v>2.714989004779675</v>
       </c>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="38">
@@ -6394,9 +6958,9 @@
       <c r="E18">
         <v>2.8887404751622192</v>
       </c>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="113"/>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="38">
@@ -6405,9 +6969,9 @@
       <c r="E19">
         <v>3.0836737494638502</v>
       </c>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="38">
@@ -6416,9 +6980,9 @@
       <c r="E20">
         <v>3.3012787711657898</v>
       </c>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D21" s="38">
@@ -6427,9 +6991,9 @@
       <c r="E21">
         <v>3.5476357631295592</v>
       </c>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D22" s="38">
@@ -6438,9 +7002,9 @@
       <c r="E22">
         <v>3.8298917616100274</v>
       </c>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D23" s="38">
@@ -6449,9 +7013,9 @@
       <c r="E23">
         <v>4.1513482556896895</v>
       </c>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
     </row>
     <row r="24" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="38">
@@ -6460,9 +7024,9 @@
       <c r="E24">
         <v>4.5195189330867835</v>
       </c>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="113"/>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D25" s="38">
@@ -6471,9 +7035,9 @@
       <c r="E25">
         <v>4.9559835616884129</v>
       </c>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="113"/>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D26" s="39">
@@ -6482,9 +7046,9 @@
       <c r="E26">
         <v>5.4617938786010338</v>
       </c>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D27" s="39">
@@ -6493,9 +7057,9 @@
       <c r="E27">
         <v>6.0736439444007138</v>
       </c>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="110"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="113"/>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D28" s="39">
@@ -6504,9 +7068,9 @@
       <c r="E28">
         <v>6.8177510907046814</v>
       </c>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D29" s="44">
@@ -6515,9 +7079,9 @@
       <c r="E29">
         <v>7.7453975275855589</v>
       </c>
-      <c r="S29" s="110"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="110"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D30" s="44">
@@ -6526,30 +7090,30 @@
       <c r="E30">
         <v>8.9013603675940658</v>
       </c>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="110"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D31" s="75">
+      <c r="D31" s="74">
         <v>44</v>
       </c>
       <c r="E31">
         <v>10.444560373073895</v>
       </c>
-      <c r="S31" s="110"/>
-      <c r="T31" s="110"/>
-      <c r="U31" s="110"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
-      <c r="U32" s="110"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
     </row>
     <row r="33" spans="19:21" x14ac:dyDescent="0.3">
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6578,12 +7142,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
@@ -6680,22 +7244,22 @@
       <c r="B12" s="52">
         <v>50</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="78">
         <v>3.4609999999999997E-8</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="78">
         <v>1.2899999999999999E-6</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="78">
         <v>4.3529999999999998E-5</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="77">
         <v>2.3869999999999998E-3</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="77">
         <v>0.1186</v>
       </c>
-      <c r="H12" s="78">
+      <c r="H12" s="77">
         <v>5.0629999999999997</v>
       </c>
     </row>
@@ -6703,22 +7267,22 @@
       <c r="B13" s="52">
         <v>70</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="78">
         <v>1.4570000000000001E-8</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="78">
         <v>-9.6579999999999995E-8</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="78">
         <v>6.6089999999999997E-6</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="77">
         <v>1.01E-3</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="77">
         <v>5.8639999999999998E-2</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="77">
         <v>3.2949999999999999</v>
       </c>
     </row>
@@ -6795,33 +7359,33 @@
       <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -7254,41 +7818,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -7312,16 +7876,16 @@
       <c r="P6" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="100">
+      <c r="Q6" s="99">
         <v>25</v>
       </c>
-      <c r="R6" s="100">
+      <c r="R6" s="99">
         <v>5</v>
       </c>
-      <c r="S6" s="83">
+      <c r="S6" s="82">
         <v>3.1372000000000001E-3</v>
       </c>
-      <c r="T6" s="100">
+      <c r="T6" s="99">
         <v>3.8501999999999998E-3</v>
       </c>
     </row>
@@ -7329,39 +7893,39 @@
       <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="119">
+      <c r="C7" s="122">
         <v>43503</v>
       </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="115">
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="118">
         <v>43547</v>
       </c>
-      <c r="G7" s="116"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="115">
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="118">
         <v>43592</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="115">
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="118">
         <v>43639</v>
       </c>
-      <c r="M7" s="116"/>
-      <c r="N7" s="117"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="120"/>
       <c r="P7" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="100">
+      <c r="Q7" s="99">
         <v>25</v>
       </c>
-      <c r="R7" s="100">
+      <c r="R7" s="99">
         <v>5</v>
       </c>
-      <c r="S7" s="100">
+      <c r="S7" s="99">
         <v>3</v>
       </c>
-      <c r="T7" s="100">
+      <c r="T7" s="99">
         <v>4</v>
       </c>
       <c r="AA7" s="24"/>
@@ -7415,7 +7979,7 @@
       <c r="C9" s="27">
         <v>6.8</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="84">
         <f>0.0031372+(E79*(25-C9))</f>
         <v>3.7860300000000001E-3</v>
       </c>
@@ -7426,7 +7990,7 @@
       <c r="F9" s="27">
         <v>8.6</v>
       </c>
-      <c r="G9" s="87">
+      <c r="G9" s="86">
         <f t="shared" ref="G9:G32" si="0">0.0031372+(E79*(25-F9))</f>
         <v>3.72186E-3</v>
       </c>
@@ -7437,7 +8001,7 @@
       <c r="I9" s="27">
         <v>5.3</v>
       </c>
-      <c r="J9" s="88">
+      <c r="J9" s="87">
         <f t="shared" ref="J9:J32" si="1">0.0031372+(E79*(25-I9))</f>
         <v>3.839505E-3</v>
       </c>
@@ -7448,7 +8012,7 @@
       <c r="L9" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="M9" s="87">
+      <c r="M9" s="86">
         <f t="shared" ref="M9:M24" si="2">0.0031372+(E79*(25-L9))</f>
         <v>3.4366600000000002E-3</v>
       </c>
@@ -7501,7 +8065,7 @@
       <c r="C10" s="29">
         <v>6.9</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="85">
         <f>0.0031372+(E79*(25-C10))</f>
         <v>3.782465E-3</v>
       </c>
@@ -7512,7 +8076,7 @@
       <c r="F10" s="29">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="86">
         <f t="shared" si="0"/>
         <v>3.7147300000000003E-3</v>
       </c>
@@ -7523,7 +8087,7 @@
       <c r="I10" s="29">
         <v>5.5</v>
       </c>
-      <c r="J10" s="88">
+      <c r="J10" s="87">
         <f t="shared" si="1"/>
         <v>3.8323750000000003E-3</v>
       </c>
@@ -7534,7 +8098,7 @@
       <c r="L10" s="29">
         <v>17</v>
       </c>
-      <c r="M10" s="87">
+      <c r="M10" s="86">
         <f t="shared" si="2"/>
         <v>3.4223999999999999E-3</v>
       </c>
@@ -7587,7 +8151,7 @@
       <c r="C11" s="27">
         <v>7.3</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="84">
         <f>0.0031372+(E79*(25-C11))</f>
         <v>3.7682050000000002E-3</v>
       </c>
@@ -7598,7 +8162,7 @@
       <c r="F11" s="27">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="86">
         <f t="shared" si="0"/>
         <v>3.7147300000000003E-3</v>
       </c>
@@ -7609,7 +8173,7 @@
       <c r="I11" s="27">
         <v>5</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="87">
         <f t="shared" si="1"/>
         <v>3.8502000000000002E-3</v>
       </c>
@@ -7620,7 +8184,7 @@
       <c r="L11" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="M11" s="87">
+      <c r="M11" s="86">
         <f t="shared" si="2"/>
         <v>3.4366600000000002E-3</v>
       </c>
@@ -7673,7 +8237,7 @@
       <c r="C12" s="29">
         <v>7.8</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="84">
         <f>0.0031372+(E82*(25-C12))</f>
         <v>3.7503800000000002E-3</v>
       </c>
@@ -7684,7 +8248,7 @@
       <c r="F12" s="29">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="86">
         <f t="shared" si="0"/>
         <v>3.7182949999999999E-3</v>
       </c>
@@ -7695,7 +8259,7 @@
       <c r="I12" s="29">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="87">
         <f t="shared" si="1"/>
         <v>3.8466350000000002E-3</v>
       </c>
@@ -7706,7 +8270,7 @@
       <c r="L12" s="29">
         <v>16</v>
       </c>
-      <c r="M12" s="87">
+      <c r="M12" s="86">
         <f t="shared" si="2"/>
         <v>3.4580500000000003E-3</v>
       </c>
@@ -7759,7 +8323,7 @@
       <c r="C13" s="27">
         <v>8.1</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="85">
         <f>0.0031372+(E82*(25-C13))</f>
         <v>3.739685E-3</v>
       </c>
@@ -7770,7 +8334,7 @@
       <c r="F13" s="27">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="86">
         <f t="shared" si="0"/>
         <v>3.7182949999999999E-3</v>
       </c>
@@ -7781,7 +8345,7 @@
       <c r="I13" s="27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="87">
         <f t="shared" si="1"/>
         <v>3.8537650000000003E-3</v>
       </c>
@@ -7792,7 +8356,7 @@
       <c r="L13" s="27">
         <v>15.5</v>
       </c>
-      <c r="M13" s="87">
+      <c r="M13" s="86">
         <f t="shared" si="2"/>
         <v>3.4758750000000002E-3</v>
       </c>
@@ -7845,7 +8409,7 @@
       <c r="C14" s="29">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="84">
         <f>0.0031372+(E82*(25-C14))</f>
         <v>3.7147300000000003E-3</v>
       </c>
@@ -7856,7 +8420,7 @@
       <c r="F14" s="29">
         <v>9</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="86">
         <f t="shared" si="0"/>
         <v>3.7076000000000001E-3</v>
       </c>
@@ -7867,7 +8431,7 @@
       <c r="I14" s="29">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J14" s="87">
         <f t="shared" si="1"/>
         <v>3.8537650000000003E-3</v>
       </c>
@@ -7878,7 +8442,7 @@
       <c r="L14" s="29">
         <v>15</v>
       </c>
-      <c r="M14" s="87">
+      <c r="M14" s="86">
         <f t="shared" si="2"/>
         <v>3.4937000000000002E-3</v>
       </c>
@@ -7931,7 +8495,7 @@
       <c r="C15" s="27">
         <v>9</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="84">
         <f>0.0031372+(E85*(25-C15))</f>
         <v>3.7076000000000001E-3</v>
       </c>
@@ -7942,7 +8506,7 @@
       <c r="F15" s="27">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G15" s="87">
+      <c r="G15" s="86">
         <f t="shared" si="0"/>
         <v>3.70047E-3</v>
       </c>
@@ -7953,7 +8517,7 @@
       <c r="I15" s="27">
         <v>5.3</v>
       </c>
-      <c r="J15" s="88">
+      <c r="J15" s="87">
         <f t="shared" si="1"/>
         <v>3.839505E-3</v>
       </c>
@@ -7964,7 +8528,7 @@
       <c r="L15" s="27">
         <v>14.9</v>
       </c>
-      <c r="M15" s="87">
+      <c r="M15" s="86">
         <f t="shared" si="2"/>
         <v>3.4972650000000003E-3</v>
       </c>
@@ -8017,7 +8581,7 @@
       <c r="C16" s="29">
         <v>7.4</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="85">
         <f>0.0031372+(E85*(25-C16))</f>
         <v>3.7646400000000001E-3</v>
       </c>
@@ -8028,7 +8592,7 @@
       <c r="F16" s="29">
         <v>9.1</v>
       </c>
-      <c r="G16" s="87">
+      <c r="G16" s="86">
         <f t="shared" si="0"/>
         <v>3.7040350000000001E-3</v>
       </c>
@@ -8039,7 +8603,7 @@
       <c r="I16" s="29">
         <v>6.1</v>
       </c>
-      <c r="J16" s="88">
+      <c r="J16" s="87">
         <f t="shared" si="1"/>
         <v>3.8109850000000002E-3</v>
       </c>
@@ -8050,7 +8614,7 @@
       <c r="L16" s="29">
         <v>16.3</v>
       </c>
-      <c r="M16" s="87">
+      <c r="M16" s="86">
         <f t="shared" si="2"/>
         <v>3.447355E-3</v>
       </c>
@@ -8103,7 +8667,7 @@
       <c r="C17" s="27">
         <v>6.8</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="84">
         <f>0.0031372+(E85*(25-C17))</f>
         <v>3.7860300000000001E-3</v>
       </c>
@@ -8114,7 +8678,7 @@
       <c r="F17" s="27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="86">
         <f t="shared" si="0"/>
         <v>3.6969050000000003E-3</v>
       </c>
@@ -8125,7 +8689,7 @@
       <c r="I17" s="27">
         <v>8</v>
       </c>
-      <c r="J17" s="88">
+      <c r="J17" s="87">
         <f t="shared" si="1"/>
         <v>3.74325E-3</v>
       </c>
@@ -8136,7 +8700,7 @@
       <c r="L17" s="27">
         <v>17.8</v>
       </c>
-      <c r="M17" s="87">
+      <c r="M17" s="86">
         <f t="shared" si="2"/>
         <v>3.3938800000000002E-3</v>
       </c>
@@ -8189,7 +8753,7 @@
       <c r="C18" s="29">
         <v>6.7</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="84">
         <f>0.0031372+(E88*(25-C18))</f>
         <v>3.7895950000000002E-3</v>
       </c>
@@ -8200,7 +8764,7 @@
       <c r="F18" s="29">
         <v>9.4</v>
       </c>
-      <c r="G18" s="87">
+      <c r="G18" s="86">
         <f t="shared" si="0"/>
         <v>3.6933400000000003E-3</v>
       </c>
@@ -8211,7 +8775,7 @@
       <c r="I18" s="29">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J18" s="88">
+      <c r="J18" s="87">
         <f t="shared" si="1"/>
         <v>3.6969050000000003E-3</v>
       </c>
@@ -8222,7 +8786,7 @@
       <c r="L18" s="29">
         <v>19.899999999999999</v>
       </c>
-      <c r="M18" s="87">
+      <c r="M18" s="86">
         <f t="shared" si="2"/>
         <v>3.3190150000000002E-3</v>
       </c>
@@ -8275,7 +8839,7 @@
       <c r="C19" s="27">
         <v>7.1</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="85">
         <f>0.0031372+(E88*(25-C19))</f>
         <v>3.7753350000000003E-3</v>
       </c>
@@ -8286,7 +8850,7 @@
       <c r="F19" s="27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="86">
         <f t="shared" si="0"/>
         <v>3.6969050000000003E-3</v>
       </c>
@@ -8297,7 +8861,7 @@
       <c r="I19" s="27">
         <v>11.5</v>
       </c>
-      <c r="J19" s="88">
+      <c r="J19" s="87">
         <f t="shared" si="1"/>
         <v>3.6184750000000003E-3</v>
       </c>
@@ -8308,7 +8872,7 @@
       <c r="L19" s="27">
         <v>22.2</v>
       </c>
-      <c r="M19" s="87">
+      <c r="M19" s="86">
         <f t="shared" si="2"/>
         <v>3.2370200000000002E-3</v>
       </c>
@@ -8361,7 +8925,7 @@
       <c r="C20" s="29">
         <v>7.8</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="84">
         <f>0.0031372+(E88*(25-C20))</f>
         <v>3.7503800000000002E-3</v>
       </c>
@@ -8372,7 +8936,7 @@
       <c r="F20" s="29">
         <v>9.4</v>
       </c>
-      <c r="G20" s="87">
+      <c r="G20" s="86">
         <f t="shared" si="0"/>
         <v>3.6933400000000003E-3</v>
       </c>
@@ -8383,7 +8947,7 @@
       <c r="I20" s="29">
         <v>10.3</v>
       </c>
-      <c r="J20" s="88">
+      <c r="J20" s="87">
         <f t="shared" si="1"/>
         <v>3.661255E-3</v>
       </c>
@@ -8394,7 +8958,7 @@
       <c r="L20" s="29">
         <v>24.4</v>
       </c>
-      <c r="M20" s="87">
+      <c r="M20" s="86">
         <f t="shared" si="2"/>
         <v>3.1585900000000002E-3</v>
       </c>
@@ -8447,7 +9011,7 @@
       <c r="C21" s="27">
         <v>8.1</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="84">
         <f>0.0031372+(E91*(25-C21))</f>
         <v>3.739685E-3</v>
       </c>
@@ -8458,7 +9022,7 @@
       <c r="F21" s="27">
         <v>9.1</v>
       </c>
-      <c r="G21" s="87">
+      <c r="G21" s="86">
         <f t="shared" si="0"/>
         <v>3.7040350000000001E-3</v>
       </c>
@@ -8469,7 +9033,7 @@
       <c r="I21" s="27">
         <v>12.5</v>
       </c>
-      <c r="J21" s="88">
+      <c r="J21" s="87">
         <f t="shared" si="1"/>
         <v>3.582825E-3</v>
       </c>
@@ -8480,7 +9044,7 @@
       <c r="L21" s="27">
         <v>23.3</v>
       </c>
-      <c r="M21" s="87">
+      <c r="M21" s="86">
         <f t="shared" si="2"/>
         <v>3.1978050000000002E-3</v>
       </c>
@@ -8533,7 +9097,7 @@
       <c r="C22" s="29">
         <v>8.6</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="85">
         <f>0.0031372+(E91*(25-C22))</f>
         <v>3.72186E-3</v>
       </c>
@@ -8544,7 +9108,7 @@
       <c r="F22" s="29">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G22" s="87">
+      <c r="G22" s="86">
         <f t="shared" si="0"/>
         <v>3.682645E-3</v>
       </c>
@@ -8555,7 +9119,7 @@
       <c r="I22" s="29">
         <v>13.5</v>
       </c>
-      <c r="J22" s="88">
+      <c r="J22" s="87">
         <f t="shared" si="1"/>
         <v>3.5471750000000001E-3</v>
       </c>
@@ -8566,7 +9130,7 @@
       <c r="L22" s="29">
         <v>22.8</v>
       </c>
-      <c r="M22" s="87">
+      <c r="M22" s="86">
         <f t="shared" si="2"/>
         <v>3.2156300000000001E-3</v>
       </c>
@@ -8619,7 +9183,7 @@
       <c r="C23" s="27">
         <v>8.6</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="84">
         <f>0.0031372+(E91*(25-C23))</f>
         <v>3.72186E-3</v>
       </c>
@@ -8630,7 +9194,7 @@
       <c r="F23" s="27">
         <v>9.9</v>
       </c>
-      <c r="G23" s="87">
+      <c r="G23" s="86">
         <f t="shared" si="0"/>
         <v>3.6755149999999999E-3</v>
       </c>
@@ -8641,7 +9205,7 @@
       <c r="I23" s="27">
         <v>12.7</v>
       </c>
-      <c r="J23" s="88">
+      <c r="J23" s="87">
         <f t="shared" si="1"/>
         <v>3.5756950000000003E-3</v>
       </c>
@@ -8652,7 +9216,7 @@
       <c r="L23" s="27">
         <v>24.2</v>
       </c>
-      <c r="M23" s="87">
+      <c r="M23" s="86">
         <f t="shared" si="2"/>
         <v>3.1657200000000003E-3</v>
       </c>
@@ -8705,7 +9269,7 @@
       <c r="C24" s="29">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="84">
         <f>0.0031372+(E94*(25-C24))</f>
         <v>3.7361199999999999E-3</v>
       </c>
@@ -8716,7 +9280,7 @@
       <c r="F24" s="29">
         <v>9.9</v>
       </c>
-      <c r="G24" s="87">
+      <c r="G24" s="86">
         <f t="shared" si="0"/>
         <v>3.6755149999999999E-3</v>
       </c>
@@ -8727,7 +9291,7 @@
       <c r="I24" s="29">
         <v>14</v>
       </c>
-      <c r="J24" s="88">
+      <c r="J24" s="87">
         <f t="shared" si="1"/>
         <v>3.5293500000000001E-3</v>
       </c>
@@ -8738,7 +9302,7 @@
       <c r="L24" s="29">
         <v>24</v>
       </c>
-      <c r="M24" s="87">
+      <c r="M24" s="86">
         <f t="shared" si="2"/>
         <v>3.1728500000000001E-3</v>
       </c>
@@ -8791,7 +9355,7 @@
       <c r="C25" s="31">
         <v>7.8</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="85">
         <f>0.0031372+(E94*(25-C25))</f>
         <v>3.7503800000000002E-3</v>
       </c>
@@ -8802,7 +9366,7 @@
       <c r="F25" s="27">
         <v>9.4</v>
       </c>
-      <c r="G25" s="87">
+      <c r="G25" s="86">
         <f t="shared" si="0"/>
         <v>3.6933400000000003E-3</v>
       </c>
@@ -8813,7 +9377,7 @@
       <c r="I25" s="27">
         <v>14.6</v>
       </c>
-      <c r="J25" s="88">
+      <c r="J25" s="87">
         <f t="shared" si="1"/>
         <v>3.5079600000000001E-3</v>
       </c>
@@ -8824,7 +9388,7 @@
       <c r="L25" s="27">
         <v>28.2</v>
       </c>
-      <c r="M25" s="87">
+      <c r="M25" s="86">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N25" s="27">
@@ -8875,7 +9439,7 @@
       <c r="C26" s="30">
         <v>7.2</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="84">
         <f>0.0031372+(E94*(25-C26))</f>
         <v>3.7717700000000002E-3</v>
       </c>
@@ -8886,7 +9450,7 @@
       <c r="F26" s="29">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G26" s="87">
+      <c r="G26" s="86">
         <f t="shared" si="0"/>
         <v>3.70047E-3</v>
       </c>
@@ -8897,7 +9461,7 @@
       <c r="I26" s="29">
         <v>14.4</v>
       </c>
-      <c r="J26" s="88">
+      <c r="J26" s="87">
         <f t="shared" si="1"/>
         <v>3.5150900000000002E-3</v>
       </c>
@@ -8908,7 +9472,7 @@
       <c r="L26" s="29">
         <v>28.7</v>
       </c>
-      <c r="M26" s="87">
+      <c r="M26" s="86">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N26" s="27">
@@ -8959,7 +9523,7 @@
       <c r="C27" s="27">
         <v>7</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="84">
         <f>0.0031372+(E97*(25-C27))</f>
         <v>3.7789E-3</v>
       </c>
@@ -8970,7 +9534,7 @@
       <c r="F27" s="27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G27" s="87">
+      <c r="G27" s="86">
         <f t="shared" si="0"/>
         <v>3.7361199999999999E-3</v>
       </c>
@@ -8981,7 +9545,7 @@
       <c r="I27" s="27">
         <v>14.6</v>
       </c>
-      <c r="J27" s="88">
+      <c r="J27" s="87">
         <f t="shared" si="1"/>
         <v>3.5079600000000001E-3</v>
       </c>
@@ -8992,7 +9556,7 @@
       <c r="L27" s="27">
         <v>28.6</v>
       </c>
-      <c r="M27" s="87">
+      <c r="M27" s="86">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N27" s="27">
@@ -9043,7 +9607,7 @@
       <c r="C28" s="29">
         <v>6.9</v>
       </c>
-      <c r="D28" s="86">
+      <c r="D28" s="85">
         <f>0.0031372+(E97*(25-C28))</f>
         <v>3.782465E-3</v>
       </c>
@@ -9054,7 +9618,7 @@
       <c r="F28" s="29">
         <v>7.2</v>
       </c>
-      <c r="G28" s="87">
+      <c r="G28" s="86">
         <f t="shared" si="0"/>
         <v>3.7717700000000002E-3</v>
       </c>
@@ -9065,7 +9629,7 @@
       <c r="I28" s="29">
         <v>14.1</v>
       </c>
-      <c r="J28" s="88">
+      <c r="J28" s="87">
         <f t="shared" si="1"/>
         <v>3.525785E-3</v>
       </c>
@@ -9076,7 +9640,7 @@
       <c r="L28" s="29">
         <v>27.8</v>
       </c>
-      <c r="M28" s="87">
+      <c r="M28" s="86">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N28" s="27">
@@ -9127,7 +9691,7 @@
       <c r="C29" s="27">
         <v>6.7</v>
       </c>
-      <c r="D29" s="85">
+      <c r="D29" s="84">
         <f>0.0031372+(E97*(25-C29))</f>
         <v>3.7895950000000002E-3</v>
       </c>
@@ -9138,7 +9702,7 @@
       <c r="F29" s="27">
         <v>6.9</v>
       </c>
-      <c r="G29" s="87">
+      <c r="G29" s="86">
         <f t="shared" si="0"/>
         <v>3.782465E-3</v>
       </c>
@@ -9149,7 +9713,7 @@
       <c r="I29" s="27">
         <v>13.5</v>
       </c>
-      <c r="J29" s="88">
+      <c r="J29" s="87">
         <f t="shared" si="1"/>
         <v>3.5471750000000001E-3</v>
       </c>
@@ -9160,7 +9724,7 @@
       <c r="L29" s="27">
         <v>27.2</v>
       </c>
-      <c r="M29" s="87">
+      <c r="M29" s="86">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N29" s="27">
@@ -9211,7 +9775,7 @@
       <c r="C30" s="29">
         <v>6.5</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="84">
         <f>0.0031372+(E100*(25-C30))</f>
         <v>3.7967249999999999E-3</v>
       </c>
@@ -9222,7 +9786,7 @@
       <c r="F30" s="29">
         <v>6.5</v>
       </c>
-      <c r="G30" s="87">
+      <c r="G30" s="86">
         <f t="shared" si="0"/>
         <v>3.7967249999999999E-3</v>
       </c>
@@ -9233,7 +9797,7 @@
       <c r="I30" s="29">
         <v>12.2</v>
       </c>
-      <c r="J30" s="88">
+      <c r="J30" s="87">
         <f t="shared" si="1"/>
         <v>3.5935200000000002E-3</v>
       </c>
@@ -9244,7 +9808,7 @@
       <c r="L30" s="29">
         <v>26.4</v>
       </c>
-      <c r="M30" s="87">
+      <c r="M30" s="86">
         <v>3.1372000000000001E-3</v>
       </c>
       <c r="N30" s="27">
@@ -9295,7 +9859,7 @@
       <c r="C31" s="27">
         <v>6.4</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="85">
         <f>0.0031372+(E100*(25-C31))</f>
         <v>3.8002900000000004E-3</v>
       </c>
@@ -9306,7 +9870,7 @@
       <c r="F31" s="27">
         <v>5.8</v>
       </c>
-      <c r="G31" s="87">
+      <c r="G31" s="86">
         <f t="shared" si="0"/>
         <v>3.82168E-3</v>
       </c>
@@ -9317,7 +9881,7 @@
       <c r="I31" s="27">
         <v>11.2</v>
       </c>
-      <c r="J31" s="88">
+      <c r="J31" s="87">
         <f t="shared" si="1"/>
         <v>3.6291700000000001E-3</v>
       </c>
@@ -9328,7 +9892,7 @@
       <c r="L31" s="27">
         <v>24.9</v>
       </c>
-      <c r="M31" s="87">
+      <c r="M31" s="86">
         <f>0.0031372+(E101*(25-L31))</f>
         <v>3.1407650000000002E-3</v>
       </c>
@@ -9379,7 +9943,7 @@
       <c r="C32" s="29">
         <v>6.3</v>
       </c>
-      <c r="D32" s="85">
+      <c r="D32" s="84">
         <f>0.0031372+(E100*(25-C32))</f>
         <v>3.8038550000000001E-3</v>
       </c>
@@ -9390,7 +9954,7 @@
       <c r="F32" s="29">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G32" s="87">
+      <c r="G32" s="86">
         <f t="shared" si="0"/>
         <v>3.8466350000000002E-3</v>
       </c>
@@ -9401,7 +9965,7 @@
       <c r="I32" s="29">
         <v>11.1</v>
       </c>
-      <c r="J32" s="88">
+      <c r="J32" s="87">
         <f t="shared" si="1"/>
         <v>3.6327350000000002E-3</v>
       </c>
@@ -9412,7 +9976,7 @@
       <c r="L32" s="29">
         <v>24.2</v>
       </c>
-      <c r="M32" s="87">
+      <c r="M32" s="86">
         <f>0.0031372+(E102*(25-L32))</f>
         <v>3.1657200000000003E-3</v>
       </c>
@@ -9482,7 +10046,7 @@
         <f>SUM(I9:I32)/24</f>
         <v>9.9833333333333307</v>
       </c>
-      <c r="J33" s="89">
+      <c r="J33" s="88">
         <f>SUM(J9:J32)/24</f>
         <v>3.6725441666666677E-3</v>
       </c>
@@ -9494,7 +10058,7 @@
         <f t="shared" si="16"/>
         <v>21.770833333333332</v>
       </c>
-      <c r="M33" s="91">
+      <c r="M33" s="90">
         <f>SUM(M9:M32)/24</f>
         <v>3.2774233333333343E-3</v>
       </c>
@@ -9554,26 +10118,26 @@
       <c r="B34" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="115">
+      <c r="C34" s="118">
         <v>43684</v>
       </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="115">
+      <c r="D34" s="119"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="118">
         <v>43731</v>
       </c>
-      <c r="G34" s="116"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="115">
+      <c r="G34" s="119"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="118">
         <v>43776</v>
       </c>
-      <c r="J34" s="116"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="115">
+      <c r="J34" s="119"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="118">
         <v>43822</v>
       </c>
-      <c r="M34" s="116"/>
-      <c r="N34" s="118"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="121"/>
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
       <c r="AC34" s="25"/>
@@ -9651,7 +10215,7 @@
       <c r="C36" s="27">
         <v>18.600000000000001</v>
       </c>
-      <c r="D36" s="87">
+      <c r="D36" s="86">
         <f t="shared" ref="D36:D59" si="17">0.0031372+(E79*(25-C36))</f>
         <v>3.36536E-3</v>
       </c>
@@ -9747,7 +10311,7 @@
       <c r="C37" s="29">
         <v>18.7</v>
       </c>
-      <c r="D37" s="87">
+      <c r="D37" s="86">
         <f t="shared" si="17"/>
         <v>3.3617950000000003E-3</v>
       </c>
@@ -9843,7 +10407,7 @@
       <c r="C38" s="27">
         <v>18.399999999999999</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="86">
         <f t="shared" si="17"/>
         <v>3.3724900000000001E-3</v>
       </c>
@@ -9939,7 +10503,7 @@
       <c r="C39" s="29">
         <v>18.5</v>
       </c>
-      <c r="D39" s="87">
+      <c r="D39" s="86">
         <f t="shared" si="17"/>
         <v>3.368925E-3</v>
       </c>
@@ -10035,7 +10599,7 @@
       <c r="C40" s="27">
         <v>18.3</v>
       </c>
-      <c r="D40" s="87">
+      <c r="D40" s="86">
         <f t="shared" si="17"/>
         <v>3.3760550000000002E-3</v>
       </c>
@@ -10131,7 +10695,7 @@
       <c r="C41" s="29">
         <v>18</v>
       </c>
-      <c r="D41" s="87">
+      <c r="D41" s="86">
         <f t="shared" si="17"/>
         <v>3.38675E-3</v>
       </c>
@@ -10227,7 +10791,7 @@
       <c r="C42" s="27">
         <v>18</v>
       </c>
-      <c r="D42" s="87">
+      <c r="D42" s="86">
         <f t="shared" si="17"/>
         <v>3.38675E-3</v>
       </c>
@@ -10323,7 +10887,7 @@
       <c r="C43" s="29">
         <v>17.2</v>
       </c>
-      <c r="D43" s="87">
+      <c r="D43" s="86">
         <f t="shared" si="17"/>
         <v>3.4152700000000002E-3</v>
       </c>
@@ -10419,7 +10983,7 @@
       <c r="C44" s="27">
         <v>18.100000000000001</v>
       </c>
-      <c r="D44" s="87">
+      <c r="D44" s="86">
         <f t="shared" si="17"/>
         <v>3.3831849999999999E-3</v>
       </c>
@@ -10515,7 +11079,7 @@
       <c r="C45" s="29">
         <v>18.7</v>
       </c>
-      <c r="D45" s="87">
+      <c r="D45" s="86">
         <f t="shared" si="17"/>
         <v>3.3617950000000003E-3</v>
       </c>
@@ -10611,7 +11175,7 @@
       <c r="C46" s="27">
         <v>19.2</v>
       </c>
-      <c r="D46" s="87">
+      <c r="D46" s="86">
         <f t="shared" si="17"/>
         <v>3.3439700000000004E-3</v>
       </c>
@@ -10707,7 +11271,7 @@
       <c r="C47" s="29">
         <v>20.100000000000001</v>
       </c>
-      <c r="D47" s="87">
+      <c r="D47" s="86">
         <f t="shared" si="17"/>
         <v>3.3118850000000001E-3</v>
       </c>
@@ -10803,7 +11367,7 @@
       <c r="C48" s="27">
         <v>20.399999999999999</v>
       </c>
-      <c r="D48" s="87">
+      <c r="D48" s="86">
         <f t="shared" si="17"/>
         <v>3.3011900000000003E-3</v>
       </c>
@@ -10899,7 +11463,7 @@
       <c r="C49" s="29">
         <v>17.7</v>
       </c>
-      <c r="D49" s="87">
+      <c r="D49" s="86">
         <f t="shared" si="17"/>
         <v>3.3974450000000002E-3</v>
       </c>
@@ -10995,7 +11559,7 @@
       <c r="C50" s="27">
         <v>20.100000000000001</v>
       </c>
-      <c r="D50" s="87">
+      <c r="D50" s="86">
         <f t="shared" si="17"/>
         <v>3.3118850000000001E-3</v>
       </c>
@@ -11091,7 +11655,7 @@
       <c r="C51" s="29">
         <v>21.7</v>
       </c>
-      <c r="D51" s="87">
+      <c r="D51" s="86">
         <f t="shared" si="17"/>
         <v>3.2548450000000001E-3</v>
       </c>
@@ -11187,7 +11751,7 @@
       <c r="C52" s="27">
         <v>21.8</v>
       </c>
-      <c r="D52" s="87">
+      <c r="D52" s="86">
         <f t="shared" si="17"/>
         <v>3.2512800000000001E-3</v>
       </c>
@@ -11283,7 +11847,7 @@
       <c r="C53" s="29">
         <v>21.9</v>
       </c>
-      <c r="D53" s="87">
+      <c r="D53" s="86">
         <f t="shared" si="17"/>
         <v>3.247715E-3</v>
       </c>
@@ -11379,7 +11943,7 @@
       <c r="C54" s="27">
         <v>21.5</v>
       </c>
-      <c r="D54" s="87">
+      <c r="D54" s="86">
         <f t="shared" si="17"/>
         <v>3.2619750000000003E-3</v>
       </c>
@@ -11475,7 +12039,7 @@
       <c r="C55" s="29">
         <v>20.8</v>
       </c>
-      <c r="D55" s="87">
+      <c r="D55" s="86">
         <f t="shared" si="17"/>
         <v>3.28693E-3</v>
       </c>
@@ -11571,7 +12135,7 @@
       <c r="C56" s="27">
         <v>19.8</v>
       </c>
-      <c r="D56" s="87">
+      <c r="D56" s="86">
         <f t="shared" si="17"/>
         <v>3.3225800000000003E-3</v>
       </c>
@@ -11667,7 +12231,7 @@
       <c r="C57" s="29">
         <v>19</v>
       </c>
-      <c r="D57" s="87">
+      <c r="D57" s="86">
         <f t="shared" si="17"/>
         <v>3.3511000000000001E-3</v>
       </c>
@@ -11763,7 +12327,7 @@
       <c r="C58" s="27">
         <v>19</v>
       </c>
-      <c r="D58" s="87">
+      <c r="D58" s="86">
         <f t="shared" si="17"/>
         <v>3.3511000000000001E-3</v>
       </c>
@@ -11859,7 +12423,7 @@
       <c r="C59" s="29">
         <v>18.899999999999999</v>
       </c>
-      <c r="D59" s="87">
+      <c r="D59" s="86">
         <f t="shared" si="17"/>
         <v>3.3546650000000002E-3</v>
       </c>
@@ -11956,7 +12520,7 @@
         <f t="shared" ref="C60:E60" si="33">SUM(C36:C59)/24</f>
         <v>19.349999999999998</v>
       </c>
-      <c r="D60" s="91">
+      <c r="D60" s="90">
         <f>SUM(D36:D59)/24</f>
         <v>3.3386225000000005E-3</v>
       </c>
@@ -11968,7 +12532,7 @@
         <f t="shared" ref="F60" si="34">SUM(F36:F59)/24</f>
         <v>16.487500000000001</v>
       </c>
-      <c r="G60" s="91">
+      <c r="G60" s="90">
         <f>SUM(G36:G59)/24</f>
         <v>3.4406706249999999E-3</v>
       </c>
@@ -11980,7 +12544,7 @@
         <f t="shared" ref="I60" si="36">SUM(I36:I59)/24</f>
         <v>7.6750000000000007</v>
       </c>
-      <c r="J60" s="91">
+      <c r="J60" s="90">
         <f>SUM(J36:J59)/24</f>
         <v>3.7548362499999995E-3</v>
       </c>
@@ -11992,11 +12556,11 @@
         <f t="shared" ref="L60" si="38">SUM(L36:L59)/24</f>
         <v>8.404166666666665</v>
       </c>
-      <c r="M60" s="90">
+      <c r="M60" s="89">
         <f>SUM(M36:M59)/24</f>
         <v>3.7288414583333336E-3</v>
       </c>
-      <c r="N60" s="99">
+      <c r="N60" s="98">
         <f>SUM(N36:N59)/24</f>
         <v>3.8297916666666669</v>
       </c>
@@ -12168,31 +12732,31 @@
       <c r="AM67" s="25"/>
     </row>
     <row r="68" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B68" s="93"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="96"/>
-      <c r="K68" s="94"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="97"/>
-      <c r="N68" s="97"/>
-      <c r="O68" s="95"/>
-      <c r="P68" s="97"/>
-      <c r="Q68" s="97"/>
-      <c r="R68" s="95"/>
-      <c r="S68" s="97"/>
-      <c r="T68" s="97"/>
-      <c r="U68" s="95"/>
-      <c r="V68" s="97"/>
-      <c r="W68" s="97"/>
-      <c r="X68" s="95"/>
-      <c r="Y68" s="98"/>
-      <c r="Z68" s="94"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="93"/>
+      <c r="I68" s="94"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="93"/>
+      <c r="L68" s="94"/>
+      <c r="M68" s="96"/>
+      <c r="N68" s="96"/>
+      <c r="O68" s="94"/>
+      <c r="P68" s="96"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="96"/>
+      <c r="T68" s="96"/>
+      <c r="U68" s="94"/>
+      <c r="V68" s="96"/>
+      <c r="W68" s="96"/>
+      <c r="X68" s="94"/>
+      <c r="Y68" s="97"/>
+      <c r="Z68" s="93"/>
       <c r="AA68" s="25"/>
       <c r="AB68" s="25"/>
       <c r="AC68" s="25"/>
@@ -12210,31 +12774,31 @@
       <c r="AM68" s="25"/>
     </row>
     <row r="69" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B69" s="93"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="95"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="95"/>
-      <c r="M69" s="97"/>
-      <c r="N69" s="97"/>
-      <c r="O69" s="95"/>
-      <c r="P69" s="97"/>
-      <c r="Q69" s="97"/>
-      <c r="R69" s="95"/>
-      <c r="S69" s="97"/>
-      <c r="T69" s="97"/>
-      <c r="U69" s="95"/>
-      <c r="V69" s="97"/>
-      <c r="W69" s="97"/>
-      <c r="X69" s="95"/>
-      <c r="Y69" s="98"/>
-      <c r="Z69" s="94"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="95"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="94"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="96"/>
+      <c r="O69" s="94"/>
+      <c r="P69" s="96"/>
+      <c r="Q69" s="96"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="96"/>
+      <c r="T69" s="96"/>
+      <c r="U69" s="94"/>
+      <c r="V69" s="96"/>
+      <c r="W69" s="96"/>
+      <c r="X69" s="94"/>
+      <c r="Y69" s="97"/>
+      <c r="Z69" s="93"/>
       <c r="AA69" s="25"/>
       <c r="AB69" s="25"/>
       <c r="AC69" s="25"/>
@@ -12252,31 +12816,31 @@
       <c r="AM69" s="25"/>
     </row>
     <row r="70" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B70" s="93"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="95"/>
-      <c r="J70" s="96"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="95"/>
-      <c r="M70" s="97"/>
-      <c r="N70" s="97"/>
-      <c r="O70" s="95"/>
-      <c r="P70" s="97"/>
-      <c r="Q70" s="97"/>
-      <c r="R70" s="95"/>
-      <c r="S70" s="97"/>
-      <c r="T70" s="97"/>
-      <c r="U70" s="95"/>
-      <c r="V70" s="97"/>
-      <c r="W70" s="97"/>
-      <c r="X70" s="95"/>
-      <c r="Y70" s="98"/>
-      <c r="Z70" s="94"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="95"/>
+      <c r="K70" s="93"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="96"/>
+      <c r="N70" s="96"/>
+      <c r="O70" s="94"/>
+      <c r="P70" s="96"/>
+      <c r="Q70" s="96"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="96"/>
+      <c r="T70" s="96"/>
+      <c r="U70" s="94"/>
+      <c r="V70" s="96"/>
+      <c r="W70" s="96"/>
+      <c r="X70" s="94"/>
+      <c r="Y70" s="97"/>
+      <c r="Z70" s="93"/>
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
       <c r="AC70" s="25"/>
@@ -12294,31 +12858,31 @@
       <c r="AM70" s="25"/>
     </row>
     <row r="71" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B71" s="93"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="95"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="95"/>
-      <c r="M71" s="97"/>
-      <c r="N71" s="97"/>
-      <c r="O71" s="95"/>
-      <c r="P71" s="97"/>
-      <c r="Q71" s="97"/>
-      <c r="R71" s="95"/>
-      <c r="S71" s="97"/>
-      <c r="T71" s="97"/>
-      <c r="U71" s="95"/>
-      <c r="V71" s="97"/>
-      <c r="W71" s="97"/>
-      <c r="X71" s="95"/>
-      <c r="Y71" s="98"/>
-      <c r="Z71" s="94"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="96"/>
+      <c r="O71" s="94"/>
+      <c r="P71" s="96"/>
+      <c r="Q71" s="96"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="96"/>
+      <c r="T71" s="96"/>
+      <c r="U71" s="94"/>
+      <c r="V71" s="96"/>
+      <c r="W71" s="96"/>
+      <c r="X71" s="94"/>
+      <c r="Y71" s="97"/>
+      <c r="Z71" s="93"/>
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
       <c r="AC71" s="25"/>
@@ -12336,31 +12900,31 @@
       <c r="AM71" s="25"/>
     </row>
     <row r="72" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B72" s="93"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="95"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="95"/>
-      <c r="M72" s="97"/>
-      <c r="N72" s="97"/>
-      <c r="O72" s="95"/>
-      <c r="P72" s="97"/>
-      <c r="Q72" s="97"/>
-      <c r="R72" s="95"/>
-      <c r="S72" s="97"/>
-      <c r="T72" s="97"/>
-      <c r="U72" s="95"/>
-      <c r="V72" s="97"/>
-      <c r="W72" s="97"/>
-      <c r="X72" s="95"/>
-      <c r="Y72" s="98"/>
-      <c r="Z72" s="94"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="96"/>
+      <c r="N72" s="96"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="96"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="96"/>
+      <c r="T72" s="96"/>
+      <c r="U72" s="94"/>
+      <c r="V72" s="96"/>
+      <c r="W72" s="96"/>
+      <c r="X72" s="94"/>
+      <c r="Y72" s="97"/>
+      <c r="Z72" s="93"/>
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
       <c r="AC72" s="25"/>
@@ -12378,31 +12942,31 @@
       <c r="AM72" s="25"/>
     </row>
     <row r="73" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B73" s="93"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="95"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="95"/>
-      <c r="M73" s="97"/>
-      <c r="N73" s="97"/>
-      <c r="O73" s="95"/>
-      <c r="P73" s="97"/>
-      <c r="Q73" s="97"/>
-      <c r="R73" s="95"/>
-      <c r="S73" s="97"/>
-      <c r="T73" s="97"/>
-      <c r="U73" s="95"/>
-      <c r="V73" s="97"/>
-      <c r="W73" s="97"/>
-      <c r="X73" s="95"/>
-      <c r="Y73" s="98"/>
-      <c r="Z73" s="94"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="93"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="96"/>
+      <c r="N73" s="96"/>
+      <c r="O73" s="94"/>
+      <c r="P73" s="96"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="96"/>
+      <c r="T73" s="96"/>
+      <c r="U73" s="94"/>
+      <c r="V73" s="96"/>
+      <c r="W73" s="96"/>
+      <c r="X73" s="94"/>
+      <c r="Y73" s="97"/>
+      <c r="Z73" s="93"/>
       <c r="AA73" s="25"/>
       <c r="AB73" s="25"/>
       <c r="AC73" s="25"/>
@@ -12420,31 +12984,31 @@
       <c r="AM73" s="25"/>
     </row>
     <row r="74" spans="2:39" x14ac:dyDescent="0.3">
-      <c r="B74" s="93"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="94"/>
-      <c r="I74" s="95"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="95"/>
-      <c r="M74" s="97"/>
-      <c r="N74" s="97"/>
-      <c r="O74" s="95"/>
-      <c r="P74" s="97"/>
-      <c r="Q74" s="97"/>
-      <c r="R74" s="95"/>
-      <c r="S74" s="97"/>
-      <c r="T74" s="97"/>
-      <c r="U74" s="95"/>
-      <c r="V74" s="97"/>
-      <c r="W74" s="97"/>
-      <c r="X74" s="95"/>
-      <c r="Y74" s="98"/>
-      <c r="Z74" s="94"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="95"/>
+      <c r="K74" s="93"/>
+      <c r="L74" s="94"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="96"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="96"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="96"/>
+      <c r="T74" s="96"/>
+      <c r="U74" s="94"/>
+      <c r="V74" s="96"/>
+      <c r="W74" s="96"/>
+      <c r="X74" s="94"/>
+      <c r="Y74" s="97"/>
+      <c r="Z74" s="93"/>
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
       <c r="AC74" s="25"/>
@@ -13224,10 +13788,10 @@
       <c r="E2" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="101" t="s">
         <v>166</v>
       </c>
     </row>
@@ -13235,7 +13799,7 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="C3" s="101">
+      <c r="C3" s="100">
         <v>0</v>
       </c>
       <c r="D3">
@@ -13263,7 +13827,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" s="101">
+      <c r="C4" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D4">
@@ -13291,7 +13855,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="100">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D5">
@@ -13319,7 +13883,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="100">
         <v>0.125</v>
       </c>
       <c r="D6">
@@ -13347,7 +13911,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="100">
         <v>0.16666666666666699</v>
       </c>
       <c r="D7">
@@ -13375,7 +13939,7 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="100">
         <v>0.20833333333333301</v>
       </c>
       <c r="D8">
@@ -13403,7 +13967,7 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="100">
         <v>0.25</v>
       </c>
       <c r="D9">
@@ -13431,7 +13995,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="100">
         <v>0.29166666666666702</v>
       </c>
       <c r="D10">
@@ -13459,7 +14023,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="100">
         <v>0.33333333333333298</v>
       </c>
       <c r="D11">
@@ -13487,7 +14051,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="100">
         <v>0.375</v>
       </c>
       <c r="D12">
@@ -13515,7 +14079,7 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="100">
         <v>0.41666666666666702</v>
       </c>
       <c r="D13">
@@ -13543,7 +14107,7 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="100">
         <v>0.45833333333333298</v>
       </c>
       <c r="D14">
@@ -13571,7 +14135,7 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="100">
         <v>0.5</v>
       </c>
       <c r="D15">
@@ -13599,7 +14163,7 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C16" s="100">
         <v>0.54166666666666696</v>
       </c>
       <c r="D16">
@@ -13627,7 +14191,7 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="100">
         <v>0.58333333333333304</v>
       </c>
       <c r="D17">
@@ -13655,7 +14219,7 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="C18" s="101">
+      <c r="C18" s="100">
         <v>0.625</v>
       </c>
       <c r="D18">
@@ -13683,7 +14247,7 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="C19" s="101">
+      <c r="C19" s="100">
         <v>0.66666666666666696</v>
       </c>
       <c r="D19">
@@ -13711,7 +14275,7 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="C20" s="101">
+      <c r="C20" s="100">
         <v>0.70833333333333304</v>
       </c>
       <c r="D20">
@@ -13739,7 +14303,7 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="C21" s="101">
+      <c r="C21" s="100">
         <v>0.75</v>
       </c>
       <c r="D21">
@@ -13767,7 +14331,7 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="100">
         <v>0.79166666666666696</v>
       </c>
       <c r="D22">
@@ -13795,7 +14359,7 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="C23" s="101">
+      <c r="C23" s="100">
         <v>0.83333333333333304</v>
       </c>
       <c r="D23">
@@ -13823,7 +14387,7 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="100">
         <v>0.875</v>
       </c>
       <c r="D24">
@@ -13851,7 +14415,7 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="C25" s="101">
+      <c r="C25" s="100">
         <v>0.91666666666666696</v>
       </c>
       <c r="D25">
@@ -13879,7 +14443,7 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="100">
         <v>0.95833333333333304</v>
       </c>
       <c r="D26">
@@ -13907,7 +14471,7 @@
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="C27" s="101">
+      <c r="C27" s="100">
         <v>0</v>
       </c>
       <c r="D27">
@@ -13935,7 +14499,7 @@
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="C28" s="101">
+      <c r="C28" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D28">
@@ -13963,7 +14527,7 @@
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="C29" s="101">
+      <c r="C29" s="100">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D29">
@@ -13991,7 +14555,7 @@
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="C30" s="101">
+      <c r="C30" s="100">
         <v>0.125</v>
       </c>
       <c r="D30">
@@ -14019,7 +14583,7 @@
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="C31" s="101">
+      <c r="C31" s="100">
         <v>0.16666666666666699</v>
       </c>
       <c r="D31">
@@ -14047,7 +14611,7 @@
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="100">
         <v>0.20833333333333301</v>
       </c>
       <c r="D32">
@@ -14075,7 +14639,7 @@
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="C33" s="101">
+      <c r="C33" s="100">
         <v>0.25</v>
       </c>
       <c r="D33">
@@ -14103,7 +14667,7 @@
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="C34" s="101">
+      <c r="C34" s="100">
         <v>0.29166666666666702</v>
       </c>
       <c r="D34">
@@ -14131,7 +14695,7 @@
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="C35" s="101">
+      <c r="C35" s="100">
         <v>0.33333333333333298</v>
       </c>
       <c r="D35">
@@ -14159,7 +14723,7 @@
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="C36" s="101">
+      <c r="C36" s="100">
         <v>0.375</v>
       </c>
       <c r="D36">
@@ -14187,7 +14751,7 @@
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="C37" s="101">
+      <c r="C37" s="100">
         <v>0.41666666666666702</v>
       </c>
       <c r="D37">
@@ -14215,7 +14779,7 @@
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="C38" s="101">
+      <c r="C38" s="100">
         <v>0.45833333333333298</v>
       </c>
       <c r="D38">
@@ -14243,7 +14807,7 @@
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="C39" s="101">
+      <c r="C39" s="100">
         <v>0.5</v>
       </c>
       <c r="D39">
@@ -14271,7 +14835,7 @@
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="C40" s="101">
+      <c r="C40" s="100">
         <v>0.54166666666666696</v>
       </c>
       <c r="D40">
@@ -14299,7 +14863,7 @@
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="C41" s="101">
+      <c r="C41" s="100">
         <v>0.58333333333333304</v>
       </c>
       <c r="D41">
@@ -14327,7 +14891,7 @@
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="C42" s="101">
+      <c r="C42" s="100">
         <v>0.625</v>
       </c>
       <c r="D42">
@@ -14355,7 +14919,7 @@
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="C43" s="101">
+      <c r="C43" s="100">
         <v>0.66666666666666696</v>
       </c>
       <c r="D43">
@@ -14383,7 +14947,7 @@
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="C44" s="101">
+      <c r="C44" s="100">
         <v>0.70833333333333304</v>
       </c>
       <c r="D44">
@@ -14411,7 +14975,7 @@
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="C45" s="101">
+      <c r="C45" s="100">
         <v>0.75</v>
       </c>
       <c r="D45">
@@ -14439,7 +15003,7 @@
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="C46" s="101">
+      <c r="C46" s="100">
         <v>0.79166666666666696</v>
       </c>
       <c r="D46">
@@ -14467,7 +15031,7 @@
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="C47" s="101">
+      <c r="C47" s="100">
         <v>0.83333333333333304</v>
       </c>
       <c r="D47">
@@ -14495,7 +15059,7 @@
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="C48" s="101">
+      <c r="C48" s="100">
         <v>0.875</v>
       </c>
       <c r="D48">
@@ -14523,7 +15087,7 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="C49" s="101">
+      <c r="C49" s="100">
         <v>0.91666666666666696</v>
       </c>
       <c r="D49">
@@ -14551,7 +15115,7 @@
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="C50" s="101">
+      <c r="C50" s="100">
         <v>0.95833333333333304</v>
       </c>
       <c r="D50">
@@ -14579,7 +15143,7 @@
       <c r="A51">
         <v>48</v>
       </c>
-      <c r="C51" s="101">
+      <c r="C51" s="100">
         <v>0</v>
       </c>
       <c r="D51">
@@ -14607,7 +15171,7 @@
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="C52" s="101">
+      <c r="C52" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D52">
@@ -14635,7 +15199,7 @@
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="C53" s="101">
+      <c r="C53" s="100">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D53">
@@ -14663,7 +15227,7 @@
       <c r="A54">
         <v>51</v>
       </c>
-      <c r="C54" s="101">
+      <c r="C54" s="100">
         <v>0.125</v>
       </c>
       <c r="D54">
@@ -14691,7 +15255,7 @@
       <c r="A55">
         <v>52</v>
       </c>
-      <c r="C55" s="101">
+      <c r="C55" s="100">
         <v>0.16666666666666699</v>
       </c>
       <c r="D55">
@@ -14719,7 +15283,7 @@
       <c r="A56">
         <v>53</v>
       </c>
-      <c r="C56" s="101">
+      <c r="C56" s="100">
         <v>0.20833333333333301</v>
       </c>
       <c r="D56">
@@ -14747,7 +15311,7 @@
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="C57" s="101">
+      <c r="C57" s="100">
         <v>0.25</v>
       </c>
       <c r="D57">
@@ -14775,7 +15339,7 @@
       <c r="A58">
         <v>55</v>
       </c>
-      <c r="C58" s="101">
+      <c r="C58" s="100">
         <v>0.29166666666666702</v>
       </c>
       <c r="D58">
@@ -14803,7 +15367,7 @@
       <c r="A59">
         <v>56</v>
       </c>
-      <c r="C59" s="101">
+      <c r="C59" s="100">
         <v>0.33333333333333298</v>
       </c>
       <c r="D59">
@@ -14831,7 +15395,7 @@
       <c r="A60">
         <v>57</v>
       </c>
-      <c r="C60" s="101">
+      <c r="C60" s="100">
         <v>0.375</v>
       </c>
       <c r="D60">
@@ -14859,7 +15423,7 @@
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="C61" s="101">
+      <c r="C61" s="100">
         <v>0.41666666666666702</v>
       </c>
       <c r="D61">
@@ -14887,7 +15451,7 @@
       <c r="A62">
         <v>59</v>
       </c>
-      <c r="C62" s="101">
+      <c r="C62" s="100">
         <v>0.45833333333333298</v>
       </c>
       <c r="D62">
@@ -14915,7 +15479,7 @@
       <c r="A63">
         <v>60</v>
       </c>
-      <c r="C63" s="101">
+      <c r="C63" s="100">
         <v>0.5</v>
       </c>
       <c r="D63">
@@ -14943,7 +15507,7 @@
       <c r="A64">
         <v>61</v>
       </c>
-      <c r="C64" s="101">
+      <c r="C64" s="100">
         <v>0.54166666666666696</v>
       </c>
       <c r="D64">
@@ -14971,7 +15535,7 @@
       <c r="A65">
         <v>62</v>
       </c>
-      <c r="C65" s="101">
+      <c r="C65" s="100">
         <v>0.58333333333333304</v>
       </c>
       <c r="D65">
@@ -14999,7 +15563,7 @@
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="C66" s="101">
+      <c r="C66" s="100">
         <v>0.625</v>
       </c>
       <c r="D66">
@@ -15027,7 +15591,7 @@
       <c r="A67">
         <v>64</v>
       </c>
-      <c r="C67" s="101">
+      <c r="C67" s="100">
         <v>0.66666666666666696</v>
       </c>
       <c r="D67">
@@ -15055,7 +15619,7 @@
       <c r="A68">
         <v>65</v>
       </c>
-      <c r="C68" s="101">
+      <c r="C68" s="100">
         <v>0.70833333333333304</v>
       </c>
       <c r="D68">
@@ -15083,7 +15647,7 @@
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="C69" s="101">
+      <c r="C69" s="100">
         <v>0.75</v>
       </c>
       <c r="D69">
@@ -15111,7 +15675,7 @@
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="C70" s="101">
+      <c r="C70" s="100">
         <v>0.79166666666666696</v>
       </c>
       <c r="D70">
@@ -15139,7 +15703,7 @@
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="C71" s="101">
+      <c r="C71" s="100">
         <v>0.83333333333333304</v>
       </c>
       <c r="D71">
@@ -15167,7 +15731,7 @@
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="C72" s="101">
+      <c r="C72" s="100">
         <v>0.875</v>
       </c>
       <c r="D72">
@@ -15195,7 +15759,7 @@
       <c r="A73">
         <v>70</v>
       </c>
-      <c r="C73" s="101">
+      <c r="C73" s="100">
         <v>0.91666666666666696</v>
       </c>
       <c r="D73">
@@ -15223,7 +15787,7 @@
       <c r="A74">
         <v>71</v>
       </c>
-      <c r="C74" s="101">
+      <c r="C74" s="100">
         <v>0.95833333333333304</v>
       </c>
       <c r="D74">
@@ -15251,7 +15815,7 @@
       <c r="A75">
         <v>72</v>
       </c>
-      <c r="C75" s="101">
+      <c r="C75" s="100">
         <v>0</v>
       </c>
       <c r="D75">
@@ -15279,7 +15843,7 @@
       <c r="A76">
         <v>73</v>
       </c>
-      <c r="C76" s="101">
+      <c r="C76" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D76">
@@ -15307,7 +15871,7 @@
       <c r="A77">
         <v>74</v>
       </c>
-      <c r="C77" s="101">
+      <c r="C77" s="100">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D77">
@@ -15335,7 +15899,7 @@
       <c r="A78">
         <v>75</v>
       </c>
-      <c r="C78" s="101">
+      <c r="C78" s="100">
         <v>0.125</v>
       </c>
       <c r="D78">
@@ -15363,7 +15927,7 @@
       <c r="A79">
         <v>76</v>
       </c>
-      <c r="C79" s="101">
+      <c r="C79" s="100">
         <v>0.16666666666666699</v>
       </c>
       <c r="D79">
@@ -15391,7 +15955,7 @@
       <c r="A80">
         <v>77</v>
       </c>
-      <c r="C80" s="101">
+      <c r="C80" s="100">
         <v>0.20833333333333301</v>
       </c>
       <c r="D80">
@@ -15419,7 +15983,7 @@
       <c r="A81">
         <v>78</v>
       </c>
-      <c r="C81" s="101">
+      <c r="C81" s="100">
         <v>0.25</v>
       </c>
       <c r="D81">
@@ -15447,7 +16011,7 @@
       <c r="A82">
         <v>79</v>
       </c>
-      <c r="C82" s="101">
+      <c r="C82" s="100">
         <v>0.29166666666666702</v>
       </c>
       <c r="D82">
@@ -15475,7 +16039,7 @@
       <c r="A83">
         <v>80</v>
       </c>
-      <c r="C83" s="101">
+      <c r="C83" s="100">
         <v>0.33333333333333298</v>
       </c>
       <c r="D83">
@@ -15503,7 +16067,7 @@
       <c r="A84">
         <v>81</v>
       </c>
-      <c r="C84" s="101">
+      <c r="C84" s="100">
         <v>0.375</v>
       </c>
       <c r="D84">
@@ -15531,7 +16095,7 @@
       <c r="A85">
         <v>82</v>
       </c>
-      <c r="C85" s="101">
+      <c r="C85" s="100">
         <v>0.41666666666666702</v>
       </c>
       <c r="D85">
@@ -15559,7 +16123,7 @@
       <c r="A86">
         <v>83</v>
       </c>
-      <c r="C86" s="101">
+      <c r="C86" s="100">
         <v>0.45833333333333298</v>
       </c>
       <c r="D86">
@@ -15587,7 +16151,7 @@
       <c r="A87">
         <v>84</v>
       </c>
-      <c r="C87" s="101">
+      <c r="C87" s="100">
         <v>0.5</v>
       </c>
       <c r="D87">
@@ -15615,7 +16179,7 @@
       <c r="A88">
         <v>85</v>
       </c>
-      <c r="C88" s="101">
+      <c r="C88" s="100">
         <v>0.54166666666666696</v>
       </c>
       <c r="D88">
@@ -15643,7 +16207,7 @@
       <c r="A89">
         <v>86</v>
       </c>
-      <c r="C89" s="101">
+      <c r="C89" s="100">
         <v>0.58333333333333304</v>
       </c>
       <c r="D89">
@@ -15671,7 +16235,7 @@
       <c r="A90">
         <v>87</v>
       </c>
-      <c r="C90" s="101">
+      <c r="C90" s="100">
         <v>0.625</v>
       </c>
       <c r="D90">
@@ -15699,7 +16263,7 @@
       <c r="A91">
         <v>88</v>
       </c>
-      <c r="C91" s="101">
+      <c r="C91" s="100">
         <v>0.66666666666666696</v>
       </c>
       <c r="D91">
@@ -15727,7 +16291,7 @@
       <c r="A92">
         <v>89</v>
       </c>
-      <c r="C92" s="101">
+      <c r="C92" s="100">
         <v>0.70833333333333304</v>
       </c>
       <c r="D92">
@@ -15755,7 +16319,7 @@
       <c r="A93">
         <v>90</v>
       </c>
-      <c r="C93" s="101">
+      <c r="C93" s="100">
         <v>0.75</v>
       </c>
       <c r="D93">
@@ -15783,7 +16347,7 @@
       <c r="A94">
         <v>91</v>
       </c>
-      <c r="C94" s="101">
+      <c r="C94" s="100">
         <v>0.79166666666666696</v>
       </c>
       <c r="D94">
@@ -15811,7 +16375,7 @@
       <c r="A95">
         <v>92</v>
       </c>
-      <c r="C95" s="101">
+      <c r="C95" s="100">
         <v>0.83333333333333304</v>
       </c>
       <c r="D95">
@@ -15839,7 +16403,7 @@
       <c r="A96">
         <v>93</v>
       </c>
-      <c r="C96" s="101">
+      <c r="C96" s="100">
         <v>0.875</v>
       </c>
       <c r="D96">
@@ -15867,7 +16431,7 @@
       <c r="A97">
         <v>94</v>
       </c>
-      <c r="C97" s="101">
+      <c r="C97" s="100">
         <v>0.91666666666666696</v>
       </c>
       <c r="D97">
@@ -15895,7 +16459,7 @@
       <c r="A98">
         <v>95</v>
       </c>
-      <c r="C98" s="101">
+      <c r="C98" s="100">
         <v>0.95833333333333304</v>
       </c>
       <c r="D98">
@@ -15923,7 +16487,7 @@
       <c r="A99">
         <v>96</v>
       </c>
-      <c r="C99" s="101">
+      <c r="C99" s="100">
         <v>0</v>
       </c>
       <c r="D99">
@@ -15951,7 +16515,7 @@
       <c r="A100">
         <v>97</v>
       </c>
-      <c r="C100" s="101">
+      <c r="C100" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D100">
@@ -15979,7 +16543,7 @@
       <c r="A101">
         <v>98</v>
       </c>
-      <c r="C101" s="101">
+      <c r="C101" s="100">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D101">
@@ -16007,7 +16571,7 @@
       <c r="A102">
         <v>99</v>
       </c>
-      <c r="C102" s="101">
+      <c r="C102" s="100">
         <v>0.125</v>
       </c>
       <c r="D102">
@@ -16035,7 +16599,7 @@
       <c r="A103">
         <v>100</v>
       </c>
-      <c r="C103" s="101">
+      <c r="C103" s="100">
         <v>0.16666666666666699</v>
       </c>
       <c r="D103">
@@ -16063,7 +16627,7 @@
       <c r="A104">
         <v>101</v>
       </c>
-      <c r="C104" s="101">
+      <c r="C104" s="100">
         <v>0.20833333333333301</v>
       </c>
       <c r="D104">
@@ -16091,7 +16655,7 @@
       <c r="A105">
         <v>102</v>
       </c>
-      <c r="C105" s="101">
+      <c r="C105" s="100">
         <v>0.25</v>
       </c>
       <c r="D105">
@@ -16119,7 +16683,7 @@
       <c r="A106">
         <v>103</v>
       </c>
-      <c r="C106" s="101">
+      <c r="C106" s="100">
         <v>0.29166666666666702</v>
       </c>
       <c r="D106">
@@ -16147,7 +16711,7 @@
       <c r="A107">
         <v>104</v>
       </c>
-      <c r="C107" s="101">
+      <c r="C107" s="100">
         <v>0.33333333333333298</v>
       </c>
       <c r="D107">
@@ -16175,7 +16739,7 @@
       <c r="A108">
         <v>105</v>
       </c>
-      <c r="C108" s="101">
+      <c r="C108" s="100">
         <v>0.375</v>
       </c>
       <c r="D108">
@@ -16203,7 +16767,7 @@
       <c r="A109">
         <v>106</v>
       </c>
-      <c r="C109" s="101">
+      <c r="C109" s="100">
         <v>0.41666666666666702</v>
       </c>
       <c r="D109">
@@ -16231,7 +16795,7 @@
       <c r="A110">
         <v>107</v>
       </c>
-      <c r="C110" s="101">
+      <c r="C110" s="100">
         <v>0.45833333333333298</v>
       </c>
       <c r="D110">
@@ -16259,7 +16823,7 @@
       <c r="A111">
         <v>108</v>
       </c>
-      <c r="C111" s="101">
+      <c r="C111" s="100">
         <v>0.5</v>
       </c>
       <c r="D111">
@@ -16287,7 +16851,7 @@
       <c r="A112">
         <v>109</v>
       </c>
-      <c r="C112" s="101">
+      <c r="C112" s="100">
         <v>0.54166666666666696</v>
       </c>
       <c r="D112">
@@ -16315,7 +16879,7 @@
       <c r="A113">
         <v>110</v>
       </c>
-      <c r="C113" s="101">
+      <c r="C113" s="100">
         <v>0.58333333333333304</v>
       </c>
       <c r="D113">
@@ -16343,7 +16907,7 @@
       <c r="A114">
         <v>111</v>
       </c>
-      <c r="C114" s="101">
+      <c r="C114" s="100">
         <v>0.625</v>
       </c>
       <c r="D114">
@@ -16371,7 +16935,7 @@
       <c r="A115">
         <v>112</v>
       </c>
-      <c r="C115" s="101">
+      <c r="C115" s="100">
         <v>0.66666666666666696</v>
       </c>
       <c r="D115">
@@ -16399,7 +16963,7 @@
       <c r="A116">
         <v>113</v>
       </c>
-      <c r="C116" s="101">
+      <c r="C116" s="100">
         <v>0.70833333333333304</v>
       </c>
       <c r="D116">
@@ -16427,7 +16991,7 @@
       <c r="A117">
         <v>114</v>
       </c>
-      <c r="C117" s="101">
+      <c r="C117" s="100">
         <v>0.75</v>
       </c>
       <c r="D117">
@@ -16455,7 +17019,7 @@
       <c r="A118">
         <v>115</v>
       </c>
-      <c r="C118" s="101">
+      <c r="C118" s="100">
         <v>0.79166666666666696</v>
       </c>
       <c r="D118">
@@ -16483,7 +17047,7 @@
       <c r="A119">
         <v>116</v>
       </c>
-      <c r="C119" s="101">
+      <c r="C119" s="100">
         <v>0.83333333333333304</v>
       </c>
       <c r="D119">
@@ -16511,7 +17075,7 @@
       <c r="A120">
         <v>117</v>
       </c>
-      <c r="C120" s="101">
+      <c r="C120" s="100">
         <v>0.875</v>
       </c>
       <c r="D120">
@@ -16539,7 +17103,7 @@
       <c r="A121">
         <v>118</v>
       </c>
-      <c r="C121" s="101">
+      <c r="C121" s="100">
         <v>0.91666666666666696</v>
       </c>
       <c r="D121">
@@ -16567,7 +17131,7 @@
       <c r="A122">
         <v>119</v>
       </c>
-      <c r="C122" s="101">
+      <c r="C122" s="100">
         <v>0.95833333333333304</v>
       </c>
       <c r="D122">
@@ -16595,7 +17159,7 @@
       <c r="A123">
         <v>120</v>
       </c>
-      <c r="C123" s="101">
+      <c r="C123" s="100">
         <v>0</v>
       </c>
       <c r="D123">
@@ -16623,7 +17187,7 @@
       <c r="A124">
         <v>121</v>
       </c>
-      <c r="C124" s="101">
+      <c r="C124" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D124">
@@ -16651,7 +17215,7 @@
       <c r="A125">
         <v>122</v>
       </c>
-      <c r="C125" s="101">
+      <c r="C125" s="100">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D125">
@@ -16679,7 +17243,7 @@
       <c r="A126">
         <v>123</v>
       </c>
-      <c r="C126" s="101">
+      <c r="C126" s="100">
         <v>0.125</v>
       </c>
       <c r="D126">
@@ -16707,7 +17271,7 @@
       <c r="A127">
         <v>124</v>
       </c>
-      <c r="C127" s="101">
+      <c r="C127" s="100">
         <v>0.16666666666666699</v>
       </c>
       <c r="D127">
@@ -16735,7 +17299,7 @@
       <c r="A128">
         <v>125</v>
       </c>
-      <c r="C128" s="101">
+      <c r="C128" s="100">
         <v>0.20833333333333301</v>
       </c>
       <c r="D128">
@@ -16763,7 +17327,7 @@
       <c r="A129">
         <v>126</v>
       </c>
-      <c r="C129" s="101">
+      <c r="C129" s="100">
         <v>0.25</v>
       </c>
       <c r="D129">
@@ -16791,7 +17355,7 @@
       <c r="A130">
         <v>127</v>
       </c>
-      <c r="C130" s="101">
+      <c r="C130" s="100">
         <v>0.29166666666666702</v>
       </c>
       <c r="D130">
@@ -16819,7 +17383,7 @@
       <c r="A131">
         <v>128</v>
       </c>
-      <c r="C131" s="101">
+      <c r="C131" s="100">
         <v>0.33333333333333298</v>
       </c>
       <c r="D131">
@@ -16847,7 +17411,7 @@
       <c r="A132">
         <v>129</v>
       </c>
-      <c r="C132" s="101">
+      <c r="C132" s="100">
         <v>0.375</v>
       </c>
       <c r="D132">
@@ -16875,7 +17439,7 @@
       <c r="A133">
         <v>130</v>
       </c>
-      <c r="C133" s="101">
+      <c r="C133" s="100">
         <v>0.41666666666666702</v>
       </c>
       <c r="D133">
@@ -16903,7 +17467,7 @@
       <c r="A134">
         <v>131</v>
       </c>
-      <c r="C134" s="101">
+      <c r="C134" s="100">
         <v>0.45833333333333298</v>
       </c>
       <c r="D134">
@@ -16931,7 +17495,7 @@
       <c r="A135">
         <v>132</v>
       </c>
-      <c r="C135" s="101">
+      <c r="C135" s="100">
         <v>0.5</v>
       </c>
       <c r="D135">
@@ -16959,7 +17523,7 @@
       <c r="A136">
         <v>133</v>
       </c>
-      <c r="C136" s="101">
+      <c r="C136" s="100">
         <v>0.54166666666666696</v>
       </c>
       <c r="D136">
@@ -16987,7 +17551,7 @@
       <c r="A137">
         <v>134</v>
       </c>
-      <c r="C137" s="101">
+      <c r="C137" s="100">
         <v>0.58333333333333304</v>
       </c>
       <c r="D137">
@@ -17015,7 +17579,7 @@
       <c r="A138">
         <v>135</v>
       </c>
-      <c r="C138" s="101">
+      <c r="C138" s="100">
         <v>0.625</v>
       </c>
       <c r="D138">
@@ -17043,7 +17607,7 @@
       <c r="A139">
         <v>136</v>
       </c>
-      <c r="C139" s="101">
+      <c r="C139" s="100">
         <v>0.66666666666666696</v>
       </c>
       <c r="D139">
@@ -17071,7 +17635,7 @@
       <c r="A140">
         <v>137</v>
       </c>
-      <c r="C140" s="101">
+      <c r="C140" s="100">
         <v>0.70833333333333304</v>
       </c>
       <c r="D140">
@@ -17099,7 +17663,7 @@
       <c r="A141">
         <v>138</v>
       </c>
-      <c r="C141" s="101">
+      <c r="C141" s="100">
         <v>0.75</v>
       </c>
       <c r="D141">
@@ -17127,7 +17691,7 @@
       <c r="A142">
         <v>139</v>
       </c>
-      <c r="C142" s="101">
+      <c r="C142" s="100">
         <v>0.79166666666666696</v>
       </c>
       <c r="D142">
@@ -17155,7 +17719,7 @@
       <c r="A143">
         <v>140</v>
       </c>
-      <c r="C143" s="101">
+      <c r="C143" s="100">
         <v>0.83333333333333304</v>
       </c>
       <c r="D143">
@@ -17183,7 +17747,7 @@
       <c r="A144">
         <v>141</v>
       </c>
-      <c r="C144" s="101">
+      <c r="C144" s="100">
         <v>0.875</v>
       </c>
       <c r="D144">
@@ -17211,7 +17775,7 @@
       <c r="A145">
         <v>142</v>
       </c>
-      <c r="C145" s="101">
+      <c r="C145" s="100">
         <v>0.91666666666666696</v>
       </c>
       <c r="D145">
@@ -17239,7 +17803,7 @@
       <c r="A146">
         <v>143</v>
       </c>
-      <c r="C146" s="101">
+      <c r="C146" s="100">
         <v>0.95833333333333304</v>
       </c>
       <c r="D146">
@@ -17267,7 +17831,7 @@
       <c r="A147">
         <v>144</v>
       </c>
-      <c r="C147" s="101">
+      <c r="C147" s="100">
         <v>0</v>
       </c>
       <c r="D147">
@@ -17295,7 +17859,7 @@
       <c r="A148">
         <v>145</v>
       </c>
-      <c r="C148" s="101">
+      <c r="C148" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D148">
@@ -17323,7 +17887,7 @@
       <c r="A149">
         <v>146</v>
       </c>
-      <c r="C149" s="101">
+      <c r="C149" s="100">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D149">
@@ -17351,7 +17915,7 @@
       <c r="A150">
         <v>147</v>
       </c>
-      <c r="C150" s="101">
+      <c r="C150" s="100">
         <v>0.125</v>
       </c>
       <c r="D150">
@@ -17379,7 +17943,7 @@
       <c r="A151">
         <v>148</v>
       </c>
-      <c r="C151" s="101">
+      <c r="C151" s="100">
         <v>0.16666666666666699</v>
       </c>
       <c r="D151">
@@ -17407,7 +17971,7 @@
       <c r="A152">
         <v>149</v>
       </c>
-      <c r="C152" s="101">
+      <c r="C152" s="100">
         <v>0.20833333333333301</v>
       </c>
       <c r="D152">
@@ -17435,7 +17999,7 @@
       <c r="A153">
         <v>150</v>
       </c>
-      <c r="C153" s="101">
+      <c r="C153" s="100">
         <v>0.25</v>
       </c>
       <c r="D153">
@@ -17463,7 +18027,7 @@
       <c r="A154">
         <v>151</v>
       </c>
-      <c r="C154" s="101">
+      <c r="C154" s="100">
         <v>0.29166666666666702</v>
       </c>
       <c r="D154">
@@ -17491,7 +18055,7 @@
       <c r="A155">
         <v>152</v>
       </c>
-      <c r="C155" s="101">
+      <c r="C155" s="100">
         <v>0.33333333333333298</v>
       </c>
       <c r="D155">
@@ -17519,7 +18083,7 @@
       <c r="A156">
         <v>153</v>
       </c>
-      <c r="C156" s="101">
+      <c r="C156" s="100">
         <v>0.375</v>
       </c>
       <c r="D156">
@@ -17547,7 +18111,7 @@
       <c r="A157">
         <v>154</v>
       </c>
-      <c r="C157" s="101">
+      <c r="C157" s="100">
         <v>0.41666666666666702</v>
       </c>
       <c r="D157">
@@ -17575,7 +18139,7 @@
       <c r="A158">
         <v>155</v>
       </c>
-      <c r="C158" s="101">
+      <c r="C158" s="100">
         <v>0.45833333333333298</v>
       </c>
       <c r="D158">
@@ -17603,7 +18167,7 @@
       <c r="A159">
         <v>156</v>
       </c>
-      <c r="C159" s="101">
+      <c r="C159" s="100">
         <v>0.5</v>
       </c>
       <c r="D159">
@@ -17631,7 +18195,7 @@
       <c r="A160">
         <v>157</v>
       </c>
-      <c r="C160" s="101">
+      <c r="C160" s="100">
         <v>0.54166666666666696</v>
       </c>
       <c r="D160">
@@ -17659,7 +18223,7 @@
       <c r="A161">
         <v>158</v>
       </c>
-      <c r="C161" s="101">
+      <c r="C161" s="100">
         <v>0.58333333333333304</v>
       </c>
       <c r="D161">
@@ -17687,7 +18251,7 @@
       <c r="A162">
         <v>159</v>
       </c>
-      <c r="C162" s="101">
+      <c r="C162" s="100">
         <v>0.625</v>
       </c>
       <c r="D162">
@@ -17715,7 +18279,7 @@
       <c r="A163">
         <v>160</v>
       </c>
-      <c r="C163" s="101">
+      <c r="C163" s="100">
         <v>0.66666666666666696</v>
       </c>
       <c r="D163">
@@ -17743,7 +18307,7 @@
       <c r="A164">
         <v>161</v>
       </c>
-      <c r="C164" s="101">
+      <c r="C164" s="100">
         <v>0.70833333333333304</v>
       </c>
       <c r="D164">
@@ -17771,7 +18335,7 @@
       <c r="A165">
         <v>162</v>
       </c>
-      <c r="C165" s="101">
+      <c r="C165" s="100">
         <v>0.75</v>
       </c>
       <c r="D165">
@@ -17799,7 +18363,7 @@
       <c r="A166">
         <v>163</v>
       </c>
-      <c r="C166" s="101">
+      <c r="C166" s="100">
         <v>0.79166666666666696</v>
       </c>
       <c r="D166">
@@ -17827,7 +18391,7 @@
       <c r="A167">
         <v>164</v>
       </c>
-      <c r="C167" s="101">
+      <c r="C167" s="100">
         <v>0.83333333333333304</v>
       </c>
       <c r="D167">
@@ -17855,7 +18419,7 @@
       <c r="A168">
         <v>165</v>
       </c>
-      <c r="C168" s="101">
+      <c r="C168" s="100">
         <v>0.875</v>
       </c>
       <c r="D168">
@@ -17883,7 +18447,7 @@
       <c r="A169">
         <v>166</v>
       </c>
-      <c r="C169" s="101">
+      <c r="C169" s="100">
         <v>0.91666666666666696</v>
       </c>
       <c r="D169">
@@ -17911,7 +18475,7 @@
       <c r="A170">
         <v>167</v>
       </c>
-      <c r="C170" s="101">
+      <c r="C170" s="100">
         <v>0.95833333333333304</v>
       </c>
       <c r="D170">
@@ -17939,7 +18503,7 @@
       <c r="A171">
         <v>168</v>
       </c>
-      <c r="C171" s="101">
+      <c r="C171" s="100">
         <v>0</v>
       </c>
       <c r="D171">
@@ -17967,7 +18531,7 @@
       <c r="A172">
         <v>169</v>
       </c>
-      <c r="C172" s="101">
+      <c r="C172" s="100">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D172">
@@ -17995,7 +18559,7 @@
       <c r="A173">
         <v>170</v>
       </c>
-      <c r="C173" s="101">
+      <c r="C173" s="100">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D173">
@@ -18023,7 +18587,7 @@
       <c r="A174">
         <v>171</v>
       </c>
-      <c r="C174" s="101">
+      <c r="C174" s="100">
         <v>0.125</v>
       </c>
       <c r="D174">
@@ -18051,7 +18615,7 @@
       <c r="A175">
         <v>172</v>
       </c>
-      <c r="C175" s="101">
+      <c r="C175" s="100">
         <v>0.16666666666666699</v>
       </c>
       <c r="D175">
@@ -18079,7 +18643,7 @@
       <c r="A176">
         <v>173</v>
       </c>
-      <c r="C176" s="101">
+      <c r="C176" s="100">
         <v>0.20833333333333301</v>
       </c>
       <c r="D176">
@@ -18107,7 +18671,7 @@
       <c r="A177">
         <v>174</v>
       </c>
-      <c r="C177" s="101">
+      <c r="C177" s="100">
         <v>0.25</v>
       </c>
       <c r="D177">
@@ -18135,7 +18699,7 @@
       <c r="A178">
         <v>175</v>
       </c>
-      <c r="C178" s="101">
+      <c r="C178" s="100">
         <v>0.29166666666666702</v>
       </c>
       <c r="D178">
@@ -18163,7 +18727,7 @@
       <c r="A179">
         <v>176</v>
       </c>
-      <c r="C179" s="101">
+      <c r="C179" s="100">
         <v>0.33333333333333298</v>
       </c>
       <c r="D179">
@@ -18191,7 +18755,7 @@
       <c r="A180">
         <v>177</v>
       </c>
-      <c r="C180" s="101">
+      <c r="C180" s="100">
         <v>0.375</v>
       </c>
       <c r="D180">
@@ -18219,7 +18783,7 @@
       <c r="A181">
         <v>178</v>
       </c>
-      <c r="C181" s="101">
+      <c r="C181" s="100">
         <v>0.41666666666666702</v>
       </c>
       <c r="D181">
@@ -18247,7 +18811,7 @@
       <c r="A182">
         <v>179</v>
       </c>
-      <c r="C182" s="101">
+      <c r="C182" s="100">
         <v>0.45833333333333298</v>
       </c>
       <c r="D182">
@@ -18275,7 +18839,7 @@
       <c r="A183">
         <v>180</v>
       </c>
-      <c r="C183" s="101">
+      <c r="C183" s="100">
         <v>0.5</v>
       </c>
       <c r="D183">
@@ -18303,7 +18867,7 @@
       <c r="A184">
         <v>181</v>
       </c>
-      <c r="C184" s="101">
+      <c r="C184" s="100">
         <v>0.54166666666666696</v>
       </c>
       <c r="D184">
@@ -18331,7 +18895,7 @@
       <c r="A185">
         <v>182</v>
       </c>
-      <c r="C185" s="101">
+      <c r="C185" s="100">
         <v>0.58333333333333304</v>
       </c>
       <c r="D185">
@@ -18359,7 +18923,7 @@
       <c r="A186">
         <v>183</v>
       </c>
-      <c r="C186" s="101">
+      <c r="C186" s="100">
         <v>0.625</v>
       </c>
       <c r="D186">
@@ -18387,7 +18951,7 @@
       <c r="A187">
         <v>184</v>
       </c>
-      <c r="C187" s="101">
+      <c r="C187" s="100">
         <v>0.66666666666666696</v>
       </c>
       <c r="D187">
@@ -18415,7 +18979,7 @@
       <c r="A188">
         <v>185</v>
       </c>
-      <c r="C188" s="101">
+      <c r="C188" s="100">
         <v>0.70833333333333304</v>
       </c>
       <c r="D188">
@@ -18443,7 +19007,7 @@
       <c r="A189">
         <v>186</v>
       </c>
-      <c r="C189" s="101">
+      <c r="C189" s="100">
         <v>0.75</v>
       </c>
       <c r="D189">
@@ -18471,7 +19035,7 @@
       <c r="A190">
         <v>187</v>
       </c>
-      <c r="C190" s="101">
+      <c r="C190" s="100">
         <v>0.79166666666666696</v>
       </c>
       <c r="D190">
@@ -18499,7 +19063,7 @@
       <c r="A191">
         <v>188</v>
       </c>
-      <c r="C191" s="101">
+      <c r="C191" s="100">
         <v>0.83333333333333304</v>
       </c>
       <c r="D191">
@@ -18527,7 +19091,7 @@
       <c r="A192">
         <v>189</v>
       </c>
-      <c r="C192" s="101">
+      <c r="C192" s="100">
         <v>0.875</v>
       </c>
       <c r="D192">
@@ -18555,7 +19119,7 @@
       <c r="A193">
         <v>190</v>
       </c>
-      <c r="C193" s="101">
+      <c r="C193" s="100">
         <v>0.91666666666666696</v>
       </c>
       <c r="D193">
@@ -18583,7 +19147,7 @@
       <c r="A194">
         <v>191</v>
       </c>
-      <c r="C194" s="101">
+      <c r="C194" s="100">
         <v>0.95833333333333304</v>
       </c>
       <c r="D194">
@@ -18617,7 +19181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -18629,7 +19193,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="129"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="52" t="s">
         <v>172</v>
       </c>
@@ -18647,16 +19211,16 @@
       <c r="B3" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="129">
+      <c r="C3" s="104">
         <v>25</v>
       </c>
-      <c r="D3" s="129">
+      <c r="D3" s="104">
         <v>5</v>
       </c>
-      <c r="E3" s="130">
+      <c r="E3" s="105">
         <v>3.1372000000000001E-3</v>
       </c>
-      <c r="F3" s="130">
+      <c r="F3" s="105">
         <v>3.8501999999999998E-3</v>
       </c>
     </row>
@@ -18664,51 +19228,51 @@
       <c r="B4" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="129">
+      <c r="C4" s="104">
         <v>25</v>
       </c>
-      <c r="D4" s="129">
+      <c r="D4" s="104">
         <v>5</v>
       </c>
-      <c r="E4" s="129">
+      <c r="E4" s="104">
         <v>3</v>
       </c>
-      <c r="F4" s="129">
+      <c r="F4" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="84">
+      <c r="C20" s="83">
         <f>(F3-E3)/(20)</f>
         <v>3.5649999999999986E-5</v>
       </c>
